--- a/_ConfigExcels/Datas/weapon.xlsx
+++ b/_ConfigExcels/Datas/weapon.xlsx
@@ -534,7 +534,7 @@
   <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -680,7 +680,7 @@
         <v>24</v>
       </c>
       <c r="E4" s="3">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F4" s="3">
         <v>3</v>
@@ -689,10 +689,10 @@
         <v>4</v>
       </c>
       <c r="H4" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I4" s="3">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="J4" s="3">
         <v>1</v>

--- a/_ConfigExcels/Datas/weapon.xlsx
+++ b/_ConfigExcels/Datas/weapon.xlsx
@@ -1,182 +1,145 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView windowHeight="17775"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="31">
   <si>
     <t>##var</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>text_name</t>
+  </si>
+  <si>
+    <t>bullet_prefab</t>
+  </si>
+  <si>
+    <t>bullet_speed</t>
+  </si>
+  <si>
+    <t>max_lifetime</t>
+  </si>
+  <si>
+    <t>rate_of_fire</t>
+  </si>
+  <si>
+    <t>row_count</t>
+  </si>
+  <si>
+    <t>row_space</t>
+  </si>
+  <si>
+    <t>column_count</t>
+  </si>
+  <si>
+    <t>column_space</t>
+  </si>
+  <si>
+    <t>bullet_scale</t>
   </si>
   <si>
     <t>##type</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>int</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>float</t>
   </si>
   <si>
     <t>##</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>text_name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>武器名称</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>枪</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>导弹</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>float</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>子弹预制体地址
+（相对于Resources/Prefabs/Bullets）</t>
+  </si>
+  <si>
+    <t>子弹飞行速度</t>
+  </si>
+  <si>
+    <t>最长生存时间（秒）</t>
   </si>
   <si>
     <t>发射频率
 （每秒发射X次）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>rate_of_fire</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>row_count</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>基础1行几个</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>column_count</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>row_space</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>float</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>column_space</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>间隔像素</t>
   </si>
   <si>
     <t>基础连发几次</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>连发间隔（秒）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>子弹基础缩放</t>
   </si>
   <si>
     <t>等级组id（伤害等养成）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>枪</t>
   </si>
   <si>
     <t>bullet</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>子弹预制体地址
-（相对于Resources/Prefabs/Bullets）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>bullet_prefab</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>间隔像素</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>子弹飞行速度</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>float</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>bullet_speed</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>max_lifetime</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>最长生存时间（秒）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>子弹基础缩放</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>bullet_scale</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>导弹</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -184,19 +147,154 @@
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -206,10 +304,197 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -232,37 +517,304 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="17" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="17" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="输出" xfId="1" builtinId="21"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -311,7 +863,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -346,7 +898,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -520,227 +1072,222 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4"/>
   <cols>
-    <col min="1" max="2" width="9" style="3"/>
-    <col min="3" max="3" width="10.875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="35.5" style="3" customWidth="1"/>
-    <col min="5" max="6" width="20.5" style="3" customWidth="1"/>
-    <col min="7" max="7" width="19" style="3" customWidth="1"/>
-    <col min="8" max="9" width="18.75" style="3" customWidth="1"/>
-    <col min="10" max="10" width="16" style="3" customWidth="1"/>
-    <col min="11" max="11" width="20.625" style="3" customWidth="1"/>
-    <col min="12" max="12" width="23" style="3" customWidth="1"/>
-    <col min="13" max="13" width="38.125" style="3" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="3"/>
+    <col min="1" max="2" width="9" style="2"/>
+    <col min="3" max="3" width="10.875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="35.5" style="2" customWidth="1"/>
+    <col min="5" max="6" width="20.5" style="2" customWidth="1"/>
+    <col min="7" max="7" width="19" style="2" customWidth="1"/>
+    <col min="8" max="9" width="18.75" style="2" customWidth="1"/>
+    <col min="10" max="10" width="16" style="2" customWidth="1"/>
+    <col min="11" max="11" width="20.625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="23" style="2" customWidth="1"/>
+    <col min="13" max="13" width="38.125" style="2" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" s="1" customFormat="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:12">
+      <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="28.5" spans="1:13">
+      <c r="A3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>35</v>
+      <c r="M3" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+    <row r="4" spans="2:12">
+      <c r="B4" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="2">
+        <v>12</v>
+      </c>
+      <c r="F4" s="2">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="G4" s="2">
+        <v>4</v>
+      </c>
+      <c r="H4" s="2">
+        <v>3</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="L4" s="2">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12">
+      <c r="B5" s="2">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B4" s="3">
+      <c r="E5" s="2">
+        <v>10</v>
+      </c>
+      <c r="F5" s="2">
+        <v>3</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="H5" s="2">
         <v>1</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="3">
-        <v>12</v>
-      </c>
-      <c r="F4" s="3">
-        <v>3</v>
-      </c>
-      <c r="G4" s="3">
-        <v>4</v>
-      </c>
-      <c r="H4" s="3">
-        <v>2</v>
-      </c>
-      <c r="I4" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="J4" s="3">
+      <c r="I5" s="2">
+        <v>0</v>
+      </c>
+      <c r="J5" s="2">
         <v>1</v>
       </c>
-      <c r="K4" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="L4" s="3">
-        <v>7000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B5" s="3">
-        <v>2</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="3">
-        <v>10</v>
-      </c>
-      <c r="F5" s="3">
-        <v>3</v>
-      </c>
-      <c r="G5" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="H5" s="3">
+      <c r="K5" s="2">
         <v>1</v>
       </c>
-      <c r="I5" s="3">
-        <v>0</v>
-      </c>
-      <c r="J5" s="3">
-        <v>1</v>
-      </c>
-      <c r="K5" s="3">
-        <v>1</v>
-      </c>
-      <c r="L5" s="3">
+      <c r="L5" s="2">
         <v>10000</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/_ConfigExcels/Datas/weapon.xlsx
+++ b/_ConfigExcels/Datas/weapon.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17775"/>
+    <workbookView windowWidth="23490" windowHeight="10560"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="33">
   <si>
     <t>##var</t>
   </si>
@@ -65,6 +65,9 @@
     <t>bullet_scale</t>
   </si>
   <si>
+    <t>level_id</t>
+  </si>
+  <si>
     <t>##type</t>
   </si>
   <si>
@@ -75,6 +78,9 @@
   </si>
   <si>
     <t>float</t>
+  </si>
+  <si>
+    <t>int#ref=id@Tbweapon.WeaponLevel</t>
   </si>
   <si>
     <t>##</t>
@@ -134,7 +140,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,13 +152,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -294,7 +293,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -316,12 +315,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -603,67 +596,70 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -678,73 +674,70 @@
     <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1080,8 +1073,8 @@
   <sheetPr/>
   <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4"/>
@@ -1099,7 +1092,7 @@
     <col min="14" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:12">
+    <row r="1" s="1" customFormat="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1136,95 +1129,101 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:12">
+    <row r="2" s="1" customFormat="1" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="I2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="K2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="28.5" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
-    <row r="4" spans="2:12">
+    <row r="4" spans="2:13">
       <c r="B4" s="2">
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E4" s="2">
         <v>12</v>
@@ -1250,16 +1249,19 @@
       <c r="L4" s="2">
         <v>2000</v>
       </c>
+      <c r="M4" s="2">
+        <v>1001</v>
+      </c>
     </row>
-    <row r="5" spans="2:12">
+    <row r="5" spans="2:13">
       <c r="B5" s="2">
         <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E5" s="2">
         <v>10</v>
@@ -1284,6 +1286,9 @@
       </c>
       <c r="L5" s="2">
         <v>10000</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1002</v>
       </c>
     </row>
   </sheetData>

--- a/_ConfigExcels/Datas/weapon.xlsx
+++ b/_ConfigExcels/Datas/weapon.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mine\Project\MiniGame_EarthDefender\_ConfigExcels\Datas\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="23490" windowHeight="10560"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23490" windowHeight="10560"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -124,23 +129,17 @@
     <t>枪</t>
   </si>
   <si>
-    <t>bullet</t>
-  </si>
-  <si>
     <t>导弹</t>
+  </si>
+  <si>
+    <t>Bullet_Player_1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -153,147 +152,19 @@
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="9"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -306,188 +177,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -510,304 +201,37 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="17" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="17" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="输出" xfId="1" builtinId="21"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1065,19 +489,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="9" style="2"/>
     <col min="3" max="3" width="10.875" style="2" customWidth="1"/>
@@ -1092,7 +516,7 @@
     <col min="14" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:13">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1133,7 +557,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:13">
+    <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -1174,7 +598,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="28.5" spans="1:13">
+    <row r="3" spans="1:13" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
@@ -1215,7 +639,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="2:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B4" s="2">
         <v>1</v>
       </c>
@@ -1223,28 +647,28 @@
         <v>30</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E4" s="2">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F4" s="2">
         <v>3</v>
       </c>
       <c r="G4" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I4" s="2">
         <v>0.4</v>
       </c>
       <c r="J4" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K4" s="2">
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
       <c r="L4" s="2">
         <v>2000</v>
@@ -1253,15 +677,15 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="5" spans="2:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B5" s="2">
         <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="E5" s="2">
         <v>10</v>
@@ -1292,7 +716,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/_ConfigExcels/Datas/weapon.xlsx
+++ b/_ConfigExcels/Datas/weapon.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="68">
   <si>
     <t>##var</t>
   </si>
@@ -126,20 +126,201 @@
     <t>等级组id（伤害等养成）</t>
   </si>
   <si>
-    <t>枪</t>
-  </si>
-  <si>
-    <t>导弹</t>
-  </si>
-  <si>
     <t>Bullet_Player_1</t>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>朗基努斯之枪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>特点</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>单发，基础</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>水滴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>僚机，自动索敌，单点高伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>二向箔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>抱脸虫</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟着单一目标造成伤害，可传染</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>磁轨炮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>超新星</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>爆炸，亡语范围伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>激光武器，连续伤害，射速低，后续可以自动瞄准</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高穿透，攻速高，伤害低，碰撞体积小</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>离子枪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>……</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上面几个的完全上位版本</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>稀有度+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>……</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>稀有度+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>发射以后触碰到第一个敌人停止，并停留在原地持续造成伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>稀有度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大范围，自动索敌，场景中随机生成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级方向</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>爆炸范围、子弹数量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>持续时间、伤害间隔、宽度、数量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>子弹行列、穿透数量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量、分叉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量、持续时间、亡语</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>持续时间、碰撞面积、debuff减速等</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>传染性、单体伤害、伤害优先级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>持续时间、碰撞面积</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>星链计划</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>近距离、绕地球旋转</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量、旋转速度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>宙迹导弹</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>#</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -158,6 +339,14 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -208,7 +397,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -218,6 +407,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -495,28 +687,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="9" style="2"/>
-    <col min="3" max="3" width="10.875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="35.5" style="2" customWidth="1"/>
-    <col min="5" max="6" width="20.5" style="2" customWidth="1"/>
-    <col min="7" max="7" width="19" style="2" customWidth="1"/>
-    <col min="8" max="9" width="18.75" style="2" customWidth="1"/>
-    <col min="10" max="10" width="16" style="2" customWidth="1"/>
-    <col min="11" max="11" width="20.625" style="2" customWidth="1"/>
-    <col min="12" max="12" width="23" style="2" customWidth="1"/>
-    <col min="13" max="13" width="38.125" style="2" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="2"/>
+    <col min="3" max="3" width="12.625" style="2" customWidth="1"/>
+    <col min="4" max="5" width="57.5" style="2" customWidth="1"/>
+    <col min="6" max="6" width="29" style="2" customWidth="1"/>
+    <col min="7" max="7" width="16.75" style="2" customWidth="1"/>
+    <col min="8" max="8" width="35.5" style="2" customWidth="1"/>
+    <col min="9" max="10" width="20.5" style="2" customWidth="1"/>
+    <col min="11" max="11" width="19" style="2" customWidth="1"/>
+    <col min="12" max="13" width="18.75" style="2" customWidth="1"/>
+    <col min="14" max="14" width="16" style="2" customWidth="1"/>
+    <col min="15" max="15" width="20.625" style="2" customWidth="1"/>
+    <col min="16" max="16" width="23" style="2" customWidth="1"/>
+    <col min="17" max="17" width="38.125" style="2" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -526,38 +721,38 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -567,26 +762,14 @@
       <c r="C2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>16</v>
@@ -595,10 +778,22 @@
         <v>14</v>
       </c>
       <c r="M2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q2" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
@@ -608,111 +803,275 @@
       <c r="C3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="Q3" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B4" s="2">
         <v>1</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="2">
+      <c r="I4" s="2">
         <v>6</v>
       </c>
-      <c r="F4" s="2">
+      <c r="J4" s="2">
         <v>3</v>
       </c>
-      <c r="G4" s="2">
+      <c r="K4" s="2">
         <v>2</v>
       </c>
-      <c r="H4" s="2">
+      <c r="L4" s="2">
         <v>2</v>
       </c>
-      <c r="I4" s="2">
+      <c r="M4" s="2">
         <v>0.4</v>
       </c>
-      <c r="J4" s="2">
+      <c r="N4" s="2">
         <v>2</v>
       </c>
-      <c r="K4" s="2">
+      <c r="O4" s="2">
         <v>0.05</v>
       </c>
-      <c r="L4" s="2">
+      <c r="P4" s="2">
         <v>2000</v>
       </c>
-      <c r="M4" s="2">
+      <c r="Q4" s="2">
         <v>1001</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B5" s="2">
         <v>2</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="C5" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="2">
+        <v>10</v>
+      </c>
+      <c r="J5" s="2">
+        <v>3</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="L5" s="2">
+        <v>1</v>
+      </c>
+      <c r="M5" s="2">
+        <v>0</v>
+      </c>
+      <c r="N5" s="2">
+        <v>1</v>
+      </c>
+      <c r="O5" s="2">
+        <v>1</v>
+      </c>
+      <c r="P5" s="2">
+        <v>10000</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="2">
-        <v>10</v>
-      </c>
-      <c r="F5" s="2">
-        <v>3</v>
-      </c>
-      <c r="G5" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="H5" s="2">
-        <v>1</v>
-      </c>
-      <c r="I5" s="2">
-        <v>0</v>
-      </c>
-      <c r="J5" s="2">
-        <v>1</v>
-      </c>
-      <c r="K5" s="2">
-        <v>1</v>
-      </c>
-      <c r="L5" s="2">
-        <v>10000</v>
-      </c>
-      <c r="M5" s="2">
-        <v>1002</v>
+      <c r="D7" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/_ConfigExcels/Datas/weapon.xlsx
+++ b/_ConfigExcels/Datas/weapon.xlsx
@@ -243,10 +243,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>大范围，自动索敌，场景中随机生成</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>升级方向</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -279,19 +275,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>持续时间、碰撞面积</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>星链计划</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>近距离、绕地球旋转</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>数量、旋转速度</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -313,6 +301,18 @@
       </rPr>
       <t>#</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大范围，自动索敌，场景中随机生成（陷阱）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量、旋转速度、生成一组数量相同方向相反的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>持续时间、碰撞面积、亡语、面积↓伤害↑</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -690,7 +690,7 @@
   <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:A17"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -807,7 +807,7 @@
         <v>33</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>31</v>
@@ -857,7 +857,7 @@
         <v>34</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>30</v>
@@ -895,13 +895,13 @@
         <v>2</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>42</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>30</v>
@@ -936,7 +936,7 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>40</v>
@@ -945,12 +945,12 @@
         <v>43</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>32</v>
@@ -959,14 +959,14 @@
         <v>44</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>35</v>
@@ -975,26 +975,26 @@
         <v>36</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>37</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>38</v>
@@ -1003,26 +1003,26 @@
         <v>39</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>41</v>
@@ -1031,12 +1031,12 @@
         <v>51</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>46</v>
@@ -1044,7 +1044,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>47</v>
@@ -1052,7 +1052,7 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>48</v>
@@ -1060,7 +1060,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>49</v>
@@ -1068,7 +1068,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>50</v>

--- a/_ConfigExcels/Datas/weapon.xlsx
+++ b/_ConfigExcels/Datas/weapon.xlsx
@@ -690,7 +690,7 @@
   <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="B4" sqref="B4:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -938,6 +938,9 @@
       <c r="A6" s="4" t="s">
         <v>64</v>
       </c>
+      <c r="B6" s="2">
+        <v>3</v>
+      </c>
       <c r="C6" s="4" t="s">
         <v>40</v>
       </c>
@@ -952,6 +955,9 @@
       <c r="A7" s="4" t="s">
         <v>64</v>
       </c>
+      <c r="B7" s="2">
+        <v>4</v>
+      </c>
       <c r="C7" s="4" t="s">
         <v>32</v>
       </c>
@@ -968,6 +974,9 @@
       <c r="A8" s="4" t="s">
         <v>64</v>
       </c>
+      <c r="B8" s="2">
+        <v>5</v>
+      </c>
       <c r="C8" s="4" t="s">
         <v>35</v>
       </c>
@@ -982,6 +991,9 @@
       <c r="A9" s="4" t="s">
         <v>64</v>
       </c>
+      <c r="B9" s="2">
+        <v>6</v>
+      </c>
       <c r="C9" s="4" t="s">
         <v>37</v>
       </c>
@@ -996,6 +1008,9 @@
       <c r="A10" s="4" t="s">
         <v>64</v>
       </c>
+      <c r="B10" s="2">
+        <v>7</v>
+      </c>
       <c r="C10" s="4" t="s">
         <v>38</v>
       </c>
@@ -1010,6 +1025,9 @@
       <c r="A11" s="4" t="s">
         <v>64</v>
       </c>
+      <c r="B11" s="2">
+        <v>8</v>
+      </c>
       <c r="C11" s="4" t="s">
         <v>61</v>
       </c>
@@ -1023,6 +1041,9 @@
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>64</v>
+      </c>
+      <c r="B12" s="2">
+        <v>9</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>41</v>

--- a/_ConfigExcels/Datas/weapon.xlsx
+++ b/_ConfigExcels/Datas/weapon.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="85">
   <si>
     <t>##var</t>
   </si>
@@ -169,18 +169,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>超新星</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>爆炸，亡语范围伤害</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>激光武器，连续伤害，射速低，后续可以自动瞄准</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>高穿透，攻速高，伤害低，碰撞体积小</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -189,60 +181,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>……</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>上面几个的完全上位版本</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>稀有度+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>……</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>稀有度+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>发射以后触碰到第一个敌人停止，并停留在原地持续造成伤害</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>稀有度</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>升级方向</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -280,10 +218,6 @@
   </si>
   <si>
     <t>近距离、绕地球旋转</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>宙迹导弹</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -315,12 +249,120 @@
     <t>持续时间、碰撞面积、亡语、面积↓伤害↑</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>动能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>生物能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>动能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>动能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>曼陀罗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>长镰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高穿透、连续伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>自爆虫</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>辐射</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>波形武器、范围越来越广、伤害越来越低、烧伤debuff</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>陷阱、触碰减速debuff</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>束能</t>
+  </si>
+  <si>
+    <t>黑鱼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>发射以后触碰到第一个敌人停止，并在原地制造一个小型黑洞持续造成伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>激光武器，连续伤害（初始就1次，像光棱坦克似的），射速低，快速消失</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>激活卡组（除掉私有的暂时不说）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>持续时间、宽度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>规律武器
+（暂无，后续可以考虑扩增）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动卫星</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动跟随敌人、像抱脸虫一样</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始稀有度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>init_quality</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>民用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>军用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>机密</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enums.Com.Quality</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -352,8 +394,24 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -363,6 +421,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -397,7 +473,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -409,6 +485,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -687,31 +775,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q17"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B12"/>
+      <selection activeCell="A15" sqref="A5:A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="9" style="2"/>
     <col min="3" max="3" width="12.625" style="2" customWidth="1"/>
-    <col min="4" max="5" width="57.5" style="2" customWidth="1"/>
-    <col min="6" max="6" width="29" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.75" style="2" customWidth="1"/>
-    <col min="8" max="8" width="35.5" style="2" customWidth="1"/>
-    <col min="9" max="10" width="20.5" style="2" customWidth="1"/>
-    <col min="11" max="11" width="19" style="2" customWidth="1"/>
-    <col min="12" max="13" width="18.75" style="2" customWidth="1"/>
-    <col min="14" max="14" width="16" style="2" customWidth="1"/>
-    <col min="15" max="15" width="20.625" style="2" customWidth="1"/>
-    <col min="16" max="16" width="23" style="2" customWidth="1"/>
-    <col min="17" max="17" width="38.125" style="2" customWidth="1"/>
-    <col min="18" max="16384" width="9" style="2"/>
+    <col min="4" max="4" width="26.125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.25" style="2" customWidth="1"/>
+    <col min="6" max="6" width="66" style="2" customWidth="1"/>
+    <col min="7" max="7" width="40.375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="30" style="2" customWidth="1"/>
+    <col min="9" max="9" width="29" style="2" customWidth="1"/>
+    <col min="10" max="10" width="35.5" style="2" customWidth="1"/>
+    <col min="11" max="12" width="20.5" style="2" customWidth="1"/>
+    <col min="13" max="13" width="19" style="2" customWidth="1"/>
+    <col min="14" max="15" width="18.75" style="2" customWidth="1"/>
+    <col min="16" max="16" width="16" style="2" customWidth="1"/>
+    <col min="17" max="17" width="20.625" style="2" customWidth="1"/>
+    <col min="18" max="18" width="23" style="2" customWidth="1"/>
+    <col min="19" max="19" width="38.125" style="2" customWidth="1"/>
+    <col min="20" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -721,38 +812,41 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -762,20 +856,17 @@
       <c r="C2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="E2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>16</v>
@@ -790,10 +881,16 @@
         <v>14</v>
       </c>
       <c r="Q2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="S2" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:17" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
@@ -804,157 +901,211 @@
         <v>19</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="M3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="Q3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="R3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="S3" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B4" s="2">
         <v>1</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D4" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H4" s="2" t="s">
+      <c r="G4" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" s="4"/>
+      <c r="J4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I4" s="2">
+      <c r="K4" s="2">
         <v>6</v>
       </c>
-      <c r="J4" s="2">
+      <c r="L4" s="2">
         <v>3</v>
       </c>
-      <c r="K4" s="2">
+      <c r="M4" s="2">
         <v>2</v>
-      </c>
-      <c r="L4" s="2">
-        <v>2</v>
-      </c>
-      <c r="M4" s="2">
-        <v>0.4</v>
       </c>
       <c r="N4" s="2">
         <v>2</v>
       </c>
       <c r="O4" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="P4" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="2">
         <v>0.05</v>
       </c>
-      <c r="P4" s="2">
+      <c r="R4" s="2">
         <v>2000</v>
       </c>
-      <c r="Q4" s="2">
+      <c r="S4" s="2">
         <v>1001</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A5" s="4"/>
       <c r="B5" s="2">
         <v>2</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="H5" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" s="4"/>
+      <c r="J5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I5" s="2">
+      <c r="K5" s="2">
         <v>10</v>
       </c>
-      <c r="J5" s="2">
+      <c r="L5" s="2">
         <v>3</v>
       </c>
-      <c r="K5" s="2">
+      <c r="M5" s="2">
         <v>0.2</v>
       </c>
-      <c r="L5" s="2">
-        <v>1</v>
-      </c>
-      <c r="M5" s="2">
+      <c r="N5" s="2">
+        <v>1</v>
+      </c>
+      <c r="O5" s="2">
         <v>0</v>
       </c>
-      <c r="N5" s="2">
-        <v>1</v>
-      </c>
-      <c r="O5" s="2">
-        <v>1</v>
-      </c>
       <c r="P5" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>1</v>
+      </c>
+      <c r="R5" s="2">
         <v>10000</v>
       </c>
-      <c r="Q5" s="2">
+      <c r="S5" s="2">
         <v>1002</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>64</v>
-      </c>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A6" s="4"/>
       <c r="B6" s="2">
         <v>3</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>64</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" s="4"/>
+      <c r="J6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="2">
+        <v>10</v>
+      </c>
+      <c r="L6" s="2">
+        <v>3</v>
+      </c>
+      <c r="M6" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="N6" s="2">
+        <v>1</v>
+      </c>
+      <c r="O6" s="2">
+        <v>0</v>
+      </c>
+      <c r="P6" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>1</v>
+      </c>
+      <c r="R6" s="2">
+        <v>10000</v>
+      </c>
+      <c r="S6" s="2">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A7" s="4"/>
       <c r="B7" s="2">
         <v>4</v>
       </c>
@@ -962,141 +1113,519 @@
         <v>32</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>64</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K7" s="2">
+        <v>10</v>
+      </c>
+      <c r="L7" s="2">
+        <v>3</v>
+      </c>
+      <c r="M7" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="N7" s="2">
+        <v>1</v>
+      </c>
+      <c r="O7" s="2">
+        <v>0</v>
+      </c>
+      <c r="P7" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>1</v>
+      </c>
+      <c r="R7" s="2">
+        <v>10000</v>
+      </c>
+      <c r="S7" s="2">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A8" s="4"/>
       <c r="B8" s="2">
         <v>5</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>64</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H8" s="4"/>
+      <c r="J8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K8" s="2">
+        <v>10</v>
+      </c>
+      <c r="L8" s="2">
+        <v>3</v>
+      </c>
+      <c r="M8" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="N8" s="2">
+        <v>1</v>
+      </c>
+      <c r="O8" s="2">
+        <v>0</v>
+      </c>
+      <c r="P8" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>1</v>
+      </c>
+      <c r="R8" s="2">
+        <v>10000</v>
+      </c>
+      <c r="S8" s="2">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A9" s="4"/>
       <c r="B9" s="2">
         <v>6</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="D9" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>64</v>
-      </c>
+      <c r="G9" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H9" s="4"/>
+      <c r="J9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K9" s="2">
+        <v>10</v>
+      </c>
+      <c r="L9" s="2">
+        <v>3</v>
+      </c>
+      <c r="M9" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="N9" s="2">
+        <v>1</v>
+      </c>
+      <c r="O9" s="2">
+        <v>0</v>
+      </c>
+      <c r="P9" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>1</v>
+      </c>
+      <c r="R9" s="2">
+        <v>10000</v>
+      </c>
+      <c r="S9" s="2">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A10" s="4"/>
       <c r="B10" s="2">
         <v>7</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>64</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="J10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K10" s="2">
+        <v>10</v>
+      </c>
+      <c r="L10" s="2">
+        <v>3</v>
+      </c>
+      <c r="M10" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="N10" s="2">
+        <v>1</v>
+      </c>
+      <c r="O10" s="2">
+        <v>0</v>
+      </c>
+      <c r="P10" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>1</v>
+      </c>
+      <c r="R10" s="2">
+        <v>10000</v>
+      </c>
+      <c r="S10" s="2">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A11" s="4"/>
       <c r="B11" s="2">
         <v>8</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
-        <v>64</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H11" s="4"/>
+      <c r="J11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K11" s="2">
+        <v>10</v>
+      </c>
+      <c r="L11" s="2">
+        <v>3</v>
+      </c>
+      <c r="M11" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="N11" s="2">
+        <v>1</v>
+      </c>
+      <c r="O11" s="2">
+        <v>0</v>
+      </c>
+      <c r="P11" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>1</v>
+      </c>
+      <c r="R11" s="2">
+        <v>10000</v>
+      </c>
+      <c r="S11" s="2">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A12" s="4"/>
       <c r="B12" s="2">
         <v>9</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
-        <v>64</v>
+        <v>60</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="J12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K12" s="2">
+        <v>10</v>
+      </c>
+      <c r="L12" s="2">
+        <v>3</v>
+      </c>
+      <c r="M12" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="N12" s="2">
+        <v>1</v>
+      </c>
+      <c r="O12" s="2">
+        <v>0</v>
+      </c>
+      <c r="P12" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>1</v>
+      </c>
+      <c r="R12" s="2">
+        <v>10000</v>
+      </c>
+      <c r="S12" s="2">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A13" s="4"/>
+      <c r="B13" s="2">
+        <v>10</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
-        <v>64</v>
+        <v>35</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H13" s="4"/>
+      <c r="J13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K13" s="2">
+        <v>10</v>
+      </c>
+      <c r="L13" s="2">
+        <v>3</v>
+      </c>
+      <c r="M13" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="N13" s="2">
+        <v>1</v>
+      </c>
+      <c r="O13" s="2">
+        <v>0</v>
+      </c>
+      <c r="P13" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>1</v>
+      </c>
+      <c r="R13" s="2">
+        <v>10000</v>
+      </c>
+      <c r="S13" s="2">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A14" s="4"/>
+      <c r="B14" s="2">
+        <v>11</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
-        <v>64</v>
+        <v>77</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="J14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K14" s="2">
+        <v>10</v>
+      </c>
+      <c r="L14" s="2">
+        <v>3</v>
+      </c>
+      <c r="M14" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="N14" s="2">
+        <v>1</v>
+      </c>
+      <c r="O14" s="2">
+        <v>0</v>
+      </c>
+      <c r="P14" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>1</v>
+      </c>
+      <c r="R14" s="2">
+        <v>10000</v>
+      </c>
+      <c r="S14" s="2">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A15" s="4"/>
+      <c r="B15" s="2">
+        <v>12</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H15" s="4"/>
+      <c r="J15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="2">
+        <v>10</v>
+      </c>
+      <c r="L15" s="2">
+        <v>3</v>
+      </c>
+      <c r="M15" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="N15" s="2">
+        <v>1</v>
+      </c>
+      <c r="O15" s="2">
+        <v>0</v>
+      </c>
+      <c r="P15" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>1</v>
+      </c>
+      <c r="R15" s="2">
+        <v>10000</v>
+      </c>
+      <c r="S15" s="2">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C17" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+    </row>
+    <row r="25" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" s="2">
+        <v>6</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G25" s="4" t="s">
         <v>50</v>
       </c>
+      <c r="H25" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/_ConfigExcels/Datas/weapon.xlsx
+++ b/_ConfigExcels/Datas/weapon.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="87">
   <si>
     <t>##var</t>
   </si>
@@ -355,6 +355,14 @@
   </si>
   <si>
     <t>Enums.Com.Quality</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -778,7 +786,7 @@
   <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A5:A15"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -851,7 +859,7 @@
         <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>86</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>15</v>
@@ -895,7 +903,7 @@
         <v>18</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1</v>
+        <v>85</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>19</v>

--- a/_ConfigExcels/Datas/weapon.xlsx
+++ b/_ConfigExcels/Datas/weapon.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="86">
   <si>
     <t>##var</t>
   </si>
@@ -310,10 +310,6 @@
   </si>
   <si>
     <t>激光武器，连续伤害（初始就1次，像光棱坦克似的），射速低，快速消失</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>激活卡组（除掉私有的暂时不说）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -783,10 +779,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -797,20 +793,19 @@
     <col min="5" max="5" width="11.25" style="2" customWidth="1"/>
     <col min="6" max="6" width="66" style="2" customWidth="1"/>
     <col min="7" max="7" width="40.375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="30" style="2" customWidth="1"/>
-    <col min="9" max="9" width="29" style="2" customWidth="1"/>
-    <col min="10" max="10" width="35.5" style="2" customWidth="1"/>
-    <col min="11" max="12" width="20.5" style="2" customWidth="1"/>
-    <col min="13" max="13" width="19" style="2" customWidth="1"/>
-    <col min="14" max="15" width="18.75" style="2" customWidth="1"/>
-    <col min="16" max="16" width="16" style="2" customWidth="1"/>
-    <col min="17" max="17" width="20.625" style="2" customWidth="1"/>
-    <col min="18" max="18" width="23" style="2" customWidth="1"/>
-    <col min="19" max="19" width="38.125" style="2" customWidth="1"/>
-    <col min="20" max="16384" width="9" style="2"/>
+    <col min="8" max="8" width="29" style="2" customWidth="1"/>
+    <col min="9" max="9" width="35.5" style="2" customWidth="1"/>
+    <col min="10" max="11" width="20.5" style="2" customWidth="1"/>
+    <col min="12" max="12" width="19" style="2" customWidth="1"/>
+    <col min="13" max="14" width="18.75" style="2" customWidth="1"/>
+    <col min="15" max="15" width="16" style="2" customWidth="1"/>
+    <col min="16" max="16" width="20.625" style="2" customWidth="1"/>
+    <col min="17" max="17" width="23" style="2" customWidth="1"/>
+    <col min="18" max="18" width="38.125" style="2" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -821,54 +816,57 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="S1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>16</v>
@@ -877,33 +875,30 @@
         <v>16</v>
       </c>
       <c r="M2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Q2" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="R2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="S2" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:19" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>19</v>
@@ -912,7 +907,7 @@
         <v>58</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>33</v>
@@ -921,43 +916,40 @@
         <v>44</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="I3" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="I3" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="J3" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="M3" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="M3" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="N3" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="S3" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B4" s="2">
         <v>1</v>
       </c>
@@ -968,7 +960,7 @@
         <v>59</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>34</v>
@@ -976,39 +968,38 @@
       <c r="G4" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="H4" s="4"/>
-      <c r="J4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>30</v>
       </c>
+      <c r="J4" s="2">
+        <v>6</v>
+      </c>
       <c r="K4" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M4" s="2">
         <v>2</v>
       </c>
       <c r="N4" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="O4" s="2">
         <v>2</v>
       </c>
-      <c r="O4" s="2">
-        <v>0.4</v>
-      </c>
       <c r="P4" s="2">
-        <v>2</v>
+        <v>0.05</v>
       </c>
       <c r="Q4" s="2">
-        <v>0.05</v>
+        <v>2000</v>
       </c>
       <c r="R4" s="2">
-        <v>2000</v>
-      </c>
-      <c r="S4" s="2">
         <v>1001</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="2">
         <v>2</v>
@@ -1020,7 +1011,7 @@
         <v>70</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>73</v>
@@ -1028,39 +1019,38 @@
       <c r="G5" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="H5" s="4"/>
-      <c r="J5" s="2" t="s">
+      <c r="I5" s="2" t="s">
         <v>30</v>
       </c>
+      <c r="J5" s="2">
+        <v>10</v>
+      </c>
       <c r="K5" s="2">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="L5" s="2">
-        <v>3</v>
+        <v>0.2</v>
       </c>
       <c r="M5" s="2">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="N5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P5" s="2">
         <v>1</v>
       </c>
       <c r="Q5" s="2">
-        <v>1</v>
+        <v>10000</v>
       </c>
       <c r="R5" s="2">
-        <v>10000</v>
-      </c>
-      <c r="S5" s="2">
         <v>1002</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
       <c r="B6" s="2">
         <v>3</v>
@@ -1072,7 +1062,7 @@
         <v>60</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>41</v>
@@ -1080,39 +1070,38 @@
       <c r="G6" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="H6" s="4"/>
-      <c r="J6" s="2" t="s">
+      <c r="I6" s="2" t="s">
         <v>30</v>
       </c>
+      <c r="J6" s="2">
+        <v>10</v>
+      </c>
       <c r="K6" s="2">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="L6" s="2">
-        <v>3</v>
+        <v>0.2</v>
       </c>
       <c r="M6" s="2">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="N6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P6" s="2">
         <v>1</v>
       </c>
       <c r="Q6" s="2">
-        <v>1</v>
+        <v>10000</v>
       </c>
       <c r="R6" s="2">
-        <v>10000</v>
-      </c>
-      <c r="S6" s="2">
         <v>1002</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
       <c r="B7" s="2">
         <v>4</v>
@@ -1124,7 +1113,7 @@
         <v>62</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>42</v>
@@ -1133,39 +1122,38 @@
         <v>48</v>
       </c>
       <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="2" t="s">
+      <c r="I7" s="2" t="s">
         <v>30</v>
       </c>
+      <c r="J7" s="2">
+        <v>10</v>
+      </c>
       <c r="K7" s="2">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="L7" s="2">
-        <v>3</v>
+        <v>0.2</v>
       </c>
       <c r="M7" s="2">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="N7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P7" s="2">
         <v>1</v>
       </c>
       <c r="Q7" s="2">
-        <v>1</v>
+        <v>10000</v>
       </c>
       <c r="R7" s="2">
-        <v>10000</v>
-      </c>
-      <c r="S7" s="2">
         <v>1002</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
       <c r="B8" s="2">
         <v>5</v>
@@ -1177,7 +1165,7 @@
         <v>61</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>53</v>
@@ -1185,39 +1173,38 @@
       <c r="G8" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H8" s="4"/>
-      <c r="J8" s="2" t="s">
+      <c r="I8" s="2" t="s">
         <v>30</v>
       </c>
+      <c r="J8" s="2">
+        <v>10</v>
+      </c>
       <c r="K8" s="2">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="L8" s="2">
-        <v>3</v>
+        <v>0.2</v>
       </c>
       <c r="M8" s="2">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="N8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P8" s="2">
         <v>1</v>
       </c>
       <c r="Q8" s="2">
-        <v>1</v>
+        <v>10000</v>
       </c>
       <c r="R8" s="2">
-        <v>10000</v>
-      </c>
-      <c r="S8" s="2">
         <v>1002</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
       <c r="B9" s="2">
         <v>6</v>
@@ -1229,47 +1216,46 @@
         <v>70</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>65</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="H9" s="4"/>
-      <c r="J9" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I9" s="2" t="s">
         <v>30</v>
       </c>
+      <c r="J9" s="2">
+        <v>10</v>
+      </c>
       <c r="K9" s="2">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="L9" s="2">
-        <v>3</v>
+        <v>0.2</v>
       </c>
       <c r="M9" s="2">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="N9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9" s="2">
         <v>1</v>
       </c>
       <c r="Q9" s="2">
-        <v>1</v>
+        <v>10000</v>
       </c>
       <c r="R9" s="2">
-        <v>10000</v>
-      </c>
-      <c r="S9" s="2">
         <v>1002</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
       <c r="B10" s="2">
         <v>7</v>
@@ -1281,45 +1267,44 @@
         <v>70</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>68</v>
       </c>
       <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="J10" s="2" t="s">
+      <c r="I10" s="2" t="s">
         <v>30</v>
       </c>
+      <c r="J10" s="2">
+        <v>10</v>
+      </c>
       <c r="K10" s="2">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="L10" s="2">
-        <v>3</v>
+        <v>0.2</v>
       </c>
       <c r="M10" s="2">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="N10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10" s="2">
         <v>1</v>
       </c>
       <c r="Q10" s="2">
-        <v>1</v>
+        <v>10000</v>
       </c>
       <c r="R10" s="2">
-        <v>10000</v>
-      </c>
-      <c r="S10" s="2">
         <v>1002</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
       <c r="B11" s="2">
         <v>8</v>
@@ -1331,7 +1316,7 @@
         <v>60</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>39</v>
@@ -1339,39 +1324,38 @@
       <c r="G11" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="H11" s="4"/>
-      <c r="J11" s="2" t="s">
+      <c r="I11" s="2" t="s">
         <v>30</v>
       </c>
+      <c r="J11" s="2">
+        <v>10</v>
+      </c>
       <c r="K11" s="2">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="L11" s="2">
-        <v>3</v>
+        <v>0.2</v>
       </c>
       <c r="M11" s="2">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="N11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P11" s="2">
         <v>1</v>
       </c>
       <c r="Q11" s="2">
-        <v>1</v>
+        <v>10000</v>
       </c>
       <c r="R11" s="2">
-        <v>10000</v>
-      </c>
-      <c r="S11" s="2">
         <v>1002</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
       <c r="B12" s="2">
         <v>9</v>
@@ -1383,45 +1367,44 @@
         <v>60</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>69</v>
       </c>
       <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="J12" s="2" t="s">
+      <c r="I12" s="2" t="s">
         <v>30</v>
       </c>
+      <c r="J12" s="2">
+        <v>10</v>
+      </c>
       <c r="K12" s="2">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="L12" s="2">
-        <v>3</v>
+        <v>0.2</v>
       </c>
       <c r="M12" s="2">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="N12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P12" s="2">
         <v>1</v>
       </c>
       <c r="Q12" s="2">
-        <v>1</v>
+        <v>10000</v>
       </c>
       <c r="R12" s="2">
-        <v>10000</v>
-      </c>
-      <c r="S12" s="2">
         <v>1002</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
       <c r="B13" s="2">
         <v>10</v>
@@ -1433,7 +1416,7 @@
         <v>61</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>36</v>
@@ -1441,89 +1424,87 @@
       <c r="G13" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="H13" s="4"/>
-      <c r="J13" s="2" t="s">
+      <c r="I13" s="2" t="s">
         <v>30</v>
       </c>
+      <c r="J13" s="2">
+        <v>10</v>
+      </c>
       <c r="K13" s="2">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="L13" s="2">
-        <v>3</v>
+        <v>0.2</v>
       </c>
       <c r="M13" s="2">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="N13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P13" s="2">
         <v>1</v>
       </c>
       <c r="Q13" s="2">
-        <v>1</v>
+        <v>10000</v>
       </c>
       <c r="R13" s="2">
-        <v>10000</v>
-      </c>
-      <c r="S13" s="2">
         <v>1002</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
       <c r="B14" s="2">
         <v>11</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>70</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="J14" s="2" t="s">
+      <c r="I14" s="2" t="s">
         <v>30</v>
       </c>
+      <c r="J14" s="2">
+        <v>10</v>
+      </c>
       <c r="K14" s="2">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="L14" s="2">
-        <v>3</v>
+        <v>0.2</v>
       </c>
       <c r="M14" s="2">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="N14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P14" s="2">
         <v>1</v>
       </c>
       <c r="Q14" s="2">
-        <v>1</v>
+        <v>10000</v>
       </c>
       <c r="R14" s="2">
-        <v>10000</v>
-      </c>
-      <c r="S14" s="2">
         <v>1002</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
       <c r="B15" s="2">
         <v>12</v>
@@ -1535,7 +1516,7 @@
         <v>60</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>72</v>
@@ -1543,74 +1524,73 @@
       <c r="G15" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="H15" s="4"/>
-      <c r="J15" s="2" t="s">
+      <c r="I15" s="2" t="s">
         <v>30</v>
       </c>
+      <c r="J15" s="2">
+        <v>10</v>
+      </c>
       <c r="K15" s="2">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="L15" s="2">
-        <v>3</v>
+        <v>0.2</v>
       </c>
       <c r="M15" s="2">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="N15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P15" s="2">
         <v>1</v>
       </c>
       <c r="Q15" s="2">
-        <v>1</v>
+        <v>10000</v>
       </c>
       <c r="R15" s="2">
-        <v>10000</v>
-      </c>
-      <c r="S15" s="2">
         <v>1002</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>54</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>54</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>54</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>54</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>54</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
     </row>
-    <row r="25" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>54</v>
       </c>
@@ -1621,7 +1601,7 @@
         <v>37</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>55</v>
@@ -1629,7 +1609,6 @@
       <c r="G25" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="H25" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/_ConfigExcels/Datas/weapon.xlsx
+++ b/_ConfigExcels/Datas/weapon.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="89">
   <si>
     <t>##var</t>
   </si>
@@ -359,6 +359,18 @@
   </si>
   <si>
     <t>int</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>绑定的碎片ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>piece</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int#ref=Tbitem.Item</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -779,10 +791,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5:J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -794,18 +806,18 @@
     <col min="6" max="6" width="66" style="2" customWidth="1"/>
     <col min="7" max="7" width="40.375" style="2" customWidth="1"/>
     <col min="8" max="8" width="29" style="2" customWidth="1"/>
-    <col min="9" max="9" width="35.5" style="2" customWidth="1"/>
-    <col min="10" max="11" width="20.5" style="2" customWidth="1"/>
-    <col min="12" max="12" width="19" style="2" customWidth="1"/>
-    <col min="13" max="14" width="18.75" style="2" customWidth="1"/>
-    <col min="15" max="15" width="16" style="2" customWidth="1"/>
-    <col min="16" max="16" width="20.625" style="2" customWidth="1"/>
-    <col min="17" max="17" width="23" style="2" customWidth="1"/>
-    <col min="18" max="18" width="38.125" style="2" customWidth="1"/>
-    <col min="19" max="16384" width="9" style="2"/>
+    <col min="9" max="10" width="35.5" style="2" customWidth="1"/>
+    <col min="11" max="12" width="20.5" style="2" customWidth="1"/>
+    <col min="13" max="13" width="19" style="2" customWidth="1"/>
+    <col min="14" max="15" width="18.75" style="2" customWidth="1"/>
+    <col min="16" max="16" width="16" style="2" customWidth="1"/>
+    <col min="17" max="17" width="20.625" style="2" customWidth="1"/>
+    <col min="18" max="18" width="23" style="2" customWidth="1"/>
+    <col min="19" max="19" width="38.125" style="2" customWidth="1"/>
+    <col min="20" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -822,34 +834,37 @@
         <v>3</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -866,7 +881,7 @@
         <v>15</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>16</v>
@@ -875,25 +890,28 @@
         <v>16</v>
       </c>
       <c r="M2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:18" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
@@ -922,34 +940,37 @@
         <v>20</v>
       </c>
       <c r="J3" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="M3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="Q3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="R3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="S3" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B4" s="2">
         <v>1</v>
       </c>
@@ -972,34 +993,37 @@
         <v>30</v>
       </c>
       <c r="J4" s="2">
+        <v>2001</v>
+      </c>
+      <c r="K4" s="2">
         <v>6</v>
       </c>
-      <c r="K4" s="2">
+      <c r="L4" s="2">
         <v>3</v>
-      </c>
-      <c r="L4" s="2">
-        <v>2</v>
       </c>
       <c r="M4" s="2">
         <v>2</v>
       </c>
       <c r="N4" s="2">
+        <v>2</v>
+      </c>
+      <c r="O4" s="2">
         <v>0.4</v>
       </c>
-      <c r="O4" s="2">
+      <c r="P4" s="2">
         <v>2</v>
       </c>
-      <c r="P4" s="2">
+      <c r="Q4" s="2">
         <v>0.05</v>
       </c>
-      <c r="Q4" s="2">
+      <c r="R4" s="2">
         <v>2000</v>
       </c>
-      <c r="R4" s="2">
+      <c r="S4" s="2">
         <v>1001</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="2">
         <v>2</v>
@@ -1023,34 +1047,37 @@
         <v>30</v>
       </c>
       <c r="J5" s="2">
+        <v>2001</v>
+      </c>
+      <c r="K5" s="2">
         <v>10</v>
       </c>
-      <c r="K5" s="2">
+      <c r="L5" s="2">
         <v>3</v>
       </c>
-      <c r="L5" s="2">
+      <c r="M5" s="2">
         <v>0.2</v>
       </c>
-      <c r="M5" s="2">
-        <v>1</v>
-      </c>
       <c r="N5" s="2">
+        <v>1</v>
+      </c>
+      <c r="O5" s="2">
         <v>0</v>
       </c>
-      <c r="O5" s="2">
-        <v>1</v>
-      </c>
       <c r="P5" s="2">
         <v>1</v>
       </c>
       <c r="Q5" s="2">
+        <v>1</v>
+      </c>
+      <c r="R5" s="2">
         <v>10000</v>
       </c>
-      <c r="R5" s="2">
+      <c r="S5" s="2">
         <v>1002</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
       <c r="B6" s="2">
         <v>3</v>
@@ -1074,34 +1101,37 @@
         <v>30</v>
       </c>
       <c r="J6" s="2">
+        <v>2001</v>
+      </c>
+      <c r="K6" s="2">
         <v>10</v>
       </c>
-      <c r="K6" s="2">
+      <c r="L6" s="2">
         <v>3</v>
       </c>
-      <c r="L6" s="2">
+      <c r="M6" s="2">
         <v>0.2</v>
       </c>
-      <c r="M6" s="2">
-        <v>1</v>
-      </c>
       <c r="N6" s="2">
+        <v>1</v>
+      </c>
+      <c r="O6" s="2">
         <v>0</v>
       </c>
-      <c r="O6" s="2">
-        <v>1</v>
-      </c>
       <c r="P6" s="2">
         <v>1</v>
       </c>
       <c r="Q6" s="2">
+        <v>1</v>
+      </c>
+      <c r="R6" s="2">
         <v>10000</v>
       </c>
-      <c r="R6" s="2">
+      <c r="S6" s="2">
         <v>1002</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
       <c r="B7" s="2">
         <v>4</v>
@@ -1126,34 +1156,37 @@
         <v>30</v>
       </c>
       <c r="J7" s="2">
+        <v>2001</v>
+      </c>
+      <c r="K7" s="2">
         <v>10</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>3</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>0.2</v>
       </c>
-      <c r="M7" s="2">
-        <v>1</v>
-      </c>
       <c r="N7" s="2">
+        <v>1</v>
+      </c>
+      <c r="O7" s="2">
         <v>0</v>
       </c>
-      <c r="O7" s="2">
-        <v>1</v>
-      </c>
       <c r="P7" s="2">
         <v>1</v>
       </c>
       <c r="Q7" s="2">
+        <v>1</v>
+      </c>
+      <c r="R7" s="2">
         <v>10000</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>1002</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
       <c r="B8" s="2">
         <v>5</v>
@@ -1177,34 +1210,37 @@
         <v>30</v>
       </c>
       <c r="J8" s="2">
+        <v>2001</v>
+      </c>
+      <c r="K8" s="2">
         <v>10</v>
       </c>
-      <c r="K8" s="2">
+      <c r="L8" s="2">
         <v>3</v>
       </c>
-      <c r="L8" s="2">
+      <c r="M8" s="2">
         <v>0.2</v>
       </c>
-      <c r="M8" s="2">
-        <v>1</v>
-      </c>
       <c r="N8" s="2">
+        <v>1</v>
+      </c>
+      <c r="O8" s="2">
         <v>0</v>
       </c>
-      <c r="O8" s="2">
-        <v>1</v>
-      </c>
       <c r="P8" s="2">
         <v>1</v>
       </c>
       <c r="Q8" s="2">
+        <v>1</v>
+      </c>
+      <c r="R8" s="2">
         <v>10000</v>
       </c>
-      <c r="R8" s="2">
+      <c r="S8" s="2">
         <v>1002</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
       <c r="B9" s="2">
         <v>6</v>
@@ -1228,34 +1264,37 @@
         <v>30</v>
       </c>
       <c r="J9" s="2">
+        <v>2001</v>
+      </c>
+      <c r="K9" s="2">
         <v>10</v>
       </c>
-      <c r="K9" s="2">
+      <c r="L9" s="2">
         <v>3</v>
       </c>
-      <c r="L9" s="2">
+      <c r="M9" s="2">
         <v>0.2</v>
       </c>
-      <c r="M9" s="2">
-        <v>1</v>
-      </c>
       <c r="N9" s="2">
+        <v>1</v>
+      </c>
+      <c r="O9" s="2">
         <v>0</v>
       </c>
-      <c r="O9" s="2">
-        <v>1</v>
-      </c>
       <c r="P9" s="2">
         <v>1</v>
       </c>
       <c r="Q9" s="2">
+        <v>1</v>
+      </c>
+      <c r="R9" s="2">
         <v>10000</v>
       </c>
-      <c r="R9" s="2">
+      <c r="S9" s="2">
         <v>1002</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
       <c r="B10" s="2">
         <v>7</v>
@@ -1277,34 +1316,37 @@
         <v>30</v>
       </c>
       <c r="J10" s="2">
+        <v>2001</v>
+      </c>
+      <c r="K10" s="2">
         <v>10</v>
       </c>
-      <c r="K10" s="2">
+      <c r="L10" s="2">
         <v>3</v>
       </c>
-      <c r="L10" s="2">
+      <c r="M10" s="2">
         <v>0.2</v>
       </c>
-      <c r="M10" s="2">
-        <v>1</v>
-      </c>
       <c r="N10" s="2">
+        <v>1</v>
+      </c>
+      <c r="O10" s="2">
         <v>0</v>
       </c>
-      <c r="O10" s="2">
-        <v>1</v>
-      </c>
       <c r="P10" s="2">
         <v>1</v>
       </c>
       <c r="Q10" s="2">
+        <v>1</v>
+      </c>
+      <c r="R10" s="2">
         <v>10000</v>
       </c>
-      <c r="R10" s="2">
+      <c r="S10" s="2">
         <v>1002</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
       <c r="B11" s="2">
         <v>8</v>
@@ -1328,34 +1370,37 @@
         <v>30</v>
       </c>
       <c r="J11" s="2">
+        <v>2001</v>
+      </c>
+      <c r="K11" s="2">
         <v>10</v>
       </c>
-      <c r="K11" s="2">
+      <c r="L11" s="2">
         <v>3</v>
       </c>
-      <c r="L11" s="2">
+      <c r="M11" s="2">
         <v>0.2</v>
       </c>
-      <c r="M11" s="2">
-        <v>1</v>
-      </c>
       <c r="N11" s="2">
+        <v>1</v>
+      </c>
+      <c r="O11" s="2">
         <v>0</v>
       </c>
-      <c r="O11" s="2">
-        <v>1</v>
-      </c>
       <c r="P11" s="2">
         <v>1</v>
       </c>
       <c r="Q11" s="2">
+        <v>1</v>
+      </c>
+      <c r="R11" s="2">
         <v>10000</v>
       </c>
-      <c r="R11" s="2">
+      <c r="S11" s="2">
         <v>1002</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
       <c r="B12" s="2">
         <v>9</v>
@@ -1377,34 +1422,37 @@
         <v>30</v>
       </c>
       <c r="J12" s="2">
+        <v>2001</v>
+      </c>
+      <c r="K12" s="2">
         <v>10</v>
       </c>
-      <c r="K12" s="2">
+      <c r="L12" s="2">
         <v>3</v>
       </c>
-      <c r="L12" s="2">
+      <c r="M12" s="2">
         <v>0.2</v>
       </c>
-      <c r="M12" s="2">
-        <v>1</v>
-      </c>
       <c r="N12" s="2">
+        <v>1</v>
+      </c>
+      <c r="O12" s="2">
         <v>0</v>
       </c>
-      <c r="O12" s="2">
-        <v>1</v>
-      </c>
       <c r="P12" s="2">
         <v>1</v>
       </c>
       <c r="Q12" s="2">
+        <v>1</v>
+      </c>
+      <c r="R12" s="2">
         <v>10000</v>
       </c>
-      <c r="R12" s="2">
+      <c r="S12" s="2">
         <v>1002</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
       <c r="B13" s="2">
         <v>10</v>
@@ -1428,34 +1476,37 @@
         <v>30</v>
       </c>
       <c r="J13" s="2">
+        <v>2001</v>
+      </c>
+      <c r="K13" s="2">
         <v>10</v>
       </c>
-      <c r="K13" s="2">
+      <c r="L13" s="2">
         <v>3</v>
       </c>
-      <c r="L13" s="2">
+      <c r="M13" s="2">
         <v>0.2</v>
       </c>
-      <c r="M13" s="2">
-        <v>1</v>
-      </c>
       <c r="N13" s="2">
+        <v>1</v>
+      </c>
+      <c r="O13" s="2">
         <v>0</v>
       </c>
-      <c r="O13" s="2">
-        <v>1</v>
-      </c>
       <c r="P13" s="2">
         <v>1</v>
       </c>
       <c r="Q13" s="2">
+        <v>1</v>
+      </c>
+      <c r="R13" s="2">
         <v>10000</v>
       </c>
-      <c r="R13" s="2">
+      <c r="S13" s="2">
         <v>1002</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
       <c r="B14" s="2">
         <v>11</v>
@@ -1477,34 +1528,37 @@
         <v>30</v>
       </c>
       <c r="J14" s="2">
+        <v>2001</v>
+      </c>
+      <c r="K14" s="2">
         <v>10</v>
       </c>
-      <c r="K14" s="2">
+      <c r="L14" s="2">
         <v>3</v>
       </c>
-      <c r="L14" s="2">
+      <c r="M14" s="2">
         <v>0.2</v>
       </c>
-      <c r="M14" s="2">
-        <v>1</v>
-      </c>
       <c r="N14" s="2">
+        <v>1</v>
+      </c>
+      <c r="O14" s="2">
         <v>0</v>
       </c>
-      <c r="O14" s="2">
-        <v>1</v>
-      </c>
       <c r="P14" s="2">
         <v>1</v>
       </c>
       <c r="Q14" s="2">
+        <v>1</v>
+      </c>
+      <c r="R14" s="2">
         <v>10000</v>
       </c>
-      <c r="R14" s="2">
+      <c r="S14" s="2">
         <v>1002</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
       <c r="B15" s="2">
         <v>12</v>
@@ -1528,34 +1582,37 @@
         <v>30</v>
       </c>
       <c r="J15" s="2">
+        <v>2001</v>
+      </c>
+      <c r="K15" s="2">
         <v>10</v>
       </c>
-      <c r="K15" s="2">
+      <c r="L15" s="2">
         <v>3</v>
       </c>
-      <c r="L15" s="2">
+      <c r="M15" s="2">
         <v>0.2</v>
       </c>
-      <c r="M15" s="2">
-        <v>1</v>
-      </c>
       <c r="N15" s="2">
+        <v>1</v>
+      </c>
+      <c r="O15" s="2">
         <v>0</v>
       </c>
-      <c r="O15" s="2">
-        <v>1</v>
-      </c>
       <c r="P15" s="2">
         <v>1</v>
       </c>
       <c r="Q15" s="2">
+        <v>1</v>
+      </c>
+      <c r="R15" s="2">
         <v>10000</v>
       </c>
-      <c r="R15" s="2">
+      <c r="S15" s="2">
         <v>1002</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>54</v>
       </c>

--- a/_ConfigExcels/Datas/weapon.xlsx
+++ b/_ConfigExcels/Datas/weapon.xlsx
@@ -793,8 +793,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5:J15"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4:J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1047,7 +1047,7 @@
         <v>30</v>
       </c>
       <c r="J5" s="2">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="K5" s="2">
         <v>10</v>
@@ -1101,7 +1101,7 @@
         <v>30</v>
       </c>
       <c r="J6" s="2">
-        <v>2001</v>
+        <v>2003</v>
       </c>
       <c r="K6" s="2">
         <v>10</v>
@@ -1156,7 +1156,7 @@
         <v>30</v>
       </c>
       <c r="J7" s="2">
-        <v>2001</v>
+        <v>2004</v>
       </c>
       <c r="K7" s="2">
         <v>10</v>
@@ -1210,7 +1210,7 @@
         <v>30</v>
       </c>
       <c r="J8" s="2">
-        <v>2001</v>
+        <v>2005</v>
       </c>
       <c r="K8" s="2">
         <v>10</v>
@@ -1264,7 +1264,7 @@
         <v>30</v>
       </c>
       <c r="J9" s="2">
-        <v>2001</v>
+        <v>2006</v>
       </c>
       <c r="K9" s="2">
         <v>10</v>
@@ -1316,7 +1316,7 @@
         <v>30</v>
       </c>
       <c r="J10" s="2">
-        <v>2001</v>
+        <v>2007</v>
       </c>
       <c r="K10" s="2">
         <v>10</v>
@@ -1370,7 +1370,7 @@
         <v>30</v>
       </c>
       <c r="J11" s="2">
-        <v>2001</v>
+        <v>2008</v>
       </c>
       <c r="K11" s="2">
         <v>10</v>
@@ -1422,7 +1422,7 @@
         <v>30</v>
       </c>
       <c r="J12" s="2">
-        <v>2001</v>
+        <v>2009</v>
       </c>
       <c r="K12" s="2">
         <v>10</v>
@@ -1476,7 +1476,7 @@
         <v>30</v>
       </c>
       <c r="J13" s="2">
-        <v>2001</v>
+        <v>2010</v>
       </c>
       <c r="K13" s="2">
         <v>10</v>
@@ -1528,7 +1528,7 @@
         <v>30</v>
       </c>
       <c r="J14" s="2">
-        <v>2001</v>
+        <v>2011</v>
       </c>
       <c r="K14" s="2">
         <v>10</v>
@@ -1582,7 +1582,7 @@
         <v>30</v>
       </c>
       <c r="J15" s="2">
-        <v>2001</v>
+        <v>2012</v>
       </c>
       <c r="K15" s="2">
         <v>10</v>

--- a/_ConfigExcels/Datas/weapon.xlsx
+++ b/_ConfigExcels/Datas/weapon.xlsx
@@ -165,10 +165,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>磁轨炮</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>爆炸，亡语范围伤害</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -371,6 +367,10 @@
   </si>
   <si>
     <t>int#ref=Tbitem.Item</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>磁轨炮</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -793,8 +793,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4:J15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -828,13 +828,13 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>4</v>
@@ -869,19 +869,19 @@
         <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>15</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>16</v>
@@ -916,22 +916,22 @@
         <v>18</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>33</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>31</v>
@@ -940,7 +940,7 @@
         <v>20</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>21</v>
@@ -975,19 +975,19 @@
         <v>1</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>34</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>30</v>
@@ -1029,19 +1029,19 @@
         <v>2</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>30</v>
@@ -1083,19 +1083,19 @@
         <v>3</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>30</v>
@@ -1140,16 +1140,16 @@
         <v>32</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H7" s="4"/>
       <c r="I7" s="2" t="s">
@@ -1192,19 +1192,19 @@
         <v>5</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>53</v>
-      </c>
       <c r="G8" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>30</v>
@@ -1246,19 +1246,19 @@
         <v>6</v>
       </c>
       <c r="C9" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>65</v>
-      </c>
       <c r="G9" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>30</v>
@@ -1300,16 +1300,16 @@
         <v>7</v>
       </c>
       <c r="C10" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>67</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>68</v>
       </c>
       <c r="G10" s="4"/>
       <c r="I10" s="2" t="s">
@@ -1355,16 +1355,16 @@
         <v>38</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>39</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>30</v>
@@ -1406,16 +1406,16 @@
         <v>9</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G12" s="4"/>
       <c r="I12" s="2" t="s">
@@ -1461,16 +1461,16 @@
         <v>35</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>36</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>30</v>
@@ -1512,16 +1512,16 @@
         <v>11</v>
       </c>
       <c r="C14" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F14" s="4" t="s">
         <v>76</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>77</v>
       </c>
       <c r="G14" s="4"/>
       <c r="I14" s="2" t="s">
@@ -1564,19 +1564,19 @@
         <v>12</v>
       </c>
       <c r="C15" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F15" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>72</v>
-      </c>
       <c r="G15" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>30</v>
@@ -1614,42 +1614,42 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
     </row>
     <row r="25" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B25" s="2">
         <v>6</v>
@@ -1658,13 +1658,13 @@
         <v>37</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/_ConfigExcels/Datas/weapon.xlsx
+++ b/_ConfigExcels/Datas/weapon.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="96">
   <si>
     <t>##var</t>
   </si>
@@ -371,6 +371,32 @@
   </si>
   <si>
     <t>磁轨炮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁条件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>unlock_cond</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Beans.Com_UnlockConds</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cond_type</t>
+  </si>
+  <si>
+    <t>int_params</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DUNGEON_PASS</t>
+  </si>
+  <si>
+    <t>NULL</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -459,7 +485,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -482,6 +508,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -489,7 +541,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -513,6 +565,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -791,33 +855,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S25"/>
+  <dimension ref="A1:U26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="9" style="2"/>
     <col min="3" max="3" width="12.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="26.125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.25" style="2" customWidth="1"/>
-    <col min="6" max="6" width="66" style="2" customWidth="1"/>
-    <col min="7" max="7" width="40.375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="29" style="2" customWidth="1"/>
-    <col min="9" max="10" width="35.5" style="2" customWidth="1"/>
-    <col min="11" max="12" width="20.5" style="2" customWidth="1"/>
-    <col min="13" max="13" width="19" style="2" customWidth="1"/>
-    <col min="14" max="15" width="18.75" style="2" customWidth="1"/>
-    <col min="16" max="16" width="16" style="2" customWidth="1"/>
-    <col min="17" max="17" width="20.625" style="2" customWidth="1"/>
-    <col min="18" max="18" width="23" style="2" customWidth="1"/>
-    <col min="19" max="19" width="38.125" style="2" customWidth="1"/>
-    <col min="20" max="16384" width="9" style="2"/>
+    <col min="4" max="4" width="17.875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12.625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="26.125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.25" style="2" customWidth="1"/>
+    <col min="8" max="8" width="66" style="2" customWidth="1"/>
+    <col min="9" max="9" width="40.375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="29" style="2" customWidth="1"/>
+    <col min="11" max="12" width="35.5" style="2" customWidth="1"/>
+    <col min="13" max="14" width="20.5" style="2" customWidth="1"/>
+    <col min="15" max="15" width="19" style="2" customWidth="1"/>
+    <col min="16" max="17" width="18.75" style="2" customWidth="1"/>
+    <col min="18" max="18" width="16" style="2" customWidth="1"/>
+    <col min="19" max="19" width="20.625" style="2" customWidth="1"/>
+    <col min="20" max="20" width="23" style="2" customWidth="1"/>
+    <col min="21" max="21" width="38.125" style="2" customWidth="1"/>
+    <col min="22" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -827,44 +893,48 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="D1" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="E1" s="10"/>
+      <c r="G1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -874,26 +944,24 @@
       <c r="C2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="D2" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="E2" s="10"/>
+      <c r="G2" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="O2" s="1" t="s">
         <v>16</v>
@@ -908,766 +976,874 @@
         <v>14</v>
       </c>
       <c r="S2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="U2" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:19" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D4" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="E4" s="10"/>
+      <c r="F4" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="K4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="L4" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="M4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="N4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="O4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="P4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="Q4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="R4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="S4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="T4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="U4" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B4" s="2">
-        <v>1</v>
-      </c>
-      <c r="C4" s="4" t="s">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D5" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="G5" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="H5" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="I5" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="K5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="J4" s="2">
+      <c r="L5" s="2">
         <v>2001</v>
       </c>
-      <c r="K4" s="2">
+      <c r="M5" s="2">
         <v>6</v>
       </c>
-      <c r="L4" s="2">
+      <c r="N5" s="2">
         <v>3</v>
       </c>
-      <c r="M4" s="2">
+      <c r="O5" s="2">
         <v>2</v>
       </c>
-      <c r="N4" s="2">
+      <c r="P5" s="2">
         <v>2</v>
       </c>
-      <c r="O4" s="2">
+      <c r="Q5" s="2">
         <v>0.4</v>
       </c>
-      <c r="P4" s="2">
+      <c r="R5" s="2">
         <v>2</v>
       </c>
-      <c r="Q4" s="2">
+      <c r="S5" s="2">
         <v>0.05</v>
       </c>
-      <c r="R4" s="2">
+      <c r="T5" s="2">
         <v>2000</v>
       </c>
-      <c r="S4" s="2">
+      <c r="U5" s="2">
         <v>1001</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A5" s="4"/>
-      <c r="B5" s="2">
-        <v>2</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J5" s="2">
-        <v>2002</v>
-      </c>
-      <c r="K5" s="2">
-        <v>10</v>
-      </c>
-      <c r="L5" s="2">
-        <v>3</v>
-      </c>
-      <c r="M5" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="N5" s="2">
-        <v>1</v>
-      </c>
-      <c r="O5" s="2">
-        <v>0</v>
-      </c>
-      <c r="P5" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="2">
-        <v>1</v>
-      </c>
-      <c r="R5" s="2">
-        <v>10000</v>
-      </c>
-      <c r="S5" s="2">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
       <c r="B6" s="2">
+        <v>2</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E6" s="4">
+        <v>2</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6" s="2">
+        <v>2002</v>
+      </c>
+      <c r="M6" s="2">
+        <v>10</v>
+      </c>
+      <c r="N6" s="2">
         <v>3</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J6" s="2">
-        <v>2003</v>
-      </c>
-      <c r="K6" s="2">
-        <v>10</v>
-      </c>
-      <c r="L6" s="2">
-        <v>3</v>
-      </c>
-      <c r="M6" s="2">
+      <c r="O6" s="2">
         <v>0.2</v>
       </c>
-      <c r="N6" s="2">
-        <v>1</v>
-      </c>
-      <c r="O6" s="2">
+      <c r="P6" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="2">
         <v>0</v>
       </c>
-      <c r="P6" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="2">
-        <v>1</v>
-      </c>
       <c r="R6" s="2">
+        <v>1</v>
+      </c>
+      <c r="S6" s="2">
+        <v>1</v>
+      </c>
+      <c r="T6" s="2">
         <v>10000</v>
       </c>
-      <c r="S6" s="2">
+      <c r="U6" s="2">
         <v>1002</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
       <c r="B7" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>80</v>
+        <v>94</v>
+      </c>
+      <c r="E7" s="4">
+        <v>3</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H7" s="4"/>
-      <c r="I7" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="K7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="J7" s="2">
-        <v>2004</v>
-      </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
+        <v>2003</v>
+      </c>
+      <c r="M7" s="2">
         <v>10</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>3</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>0.2</v>
       </c>
-      <c r="N7" s="2">
-        <v>1</v>
-      </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="2">
         <v>0</v>
       </c>
-      <c r="P7" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="2">
-        <v>1</v>
-      </c>
       <c r="R7" s="2">
+        <v>1</v>
+      </c>
+      <c r="S7" s="2">
+        <v>1</v>
+      </c>
+      <c r="T7" s="2">
         <v>10000</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>1002</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
       <c r="B8" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E8" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E8" s="4">
+        <v>4</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G8" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="I8" s="2" t="s">
+      <c r="H8" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J8" s="4"/>
+      <c r="K8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="J8" s="2">
-        <v>2005</v>
-      </c>
-      <c r="K8" s="2">
+      <c r="L8" s="2">
+        <v>2004</v>
+      </c>
+      <c r="M8" s="2">
         <v>10</v>
       </c>
-      <c r="L8" s="2">
+      <c r="N8" s="2">
         <v>3</v>
       </c>
-      <c r="M8" s="2">
+      <c r="O8" s="2">
         <v>0.2</v>
       </c>
-      <c r="N8" s="2">
-        <v>1</v>
-      </c>
-      <c r="O8" s="2">
+      <c r="P8" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="2">
         <v>0</v>
       </c>
-      <c r="P8" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="2">
-        <v>1</v>
-      </c>
       <c r="R8" s="2">
+        <v>1</v>
+      </c>
+      <c r="S8" s="2">
+        <v>1</v>
+      </c>
+      <c r="T8" s="2">
         <v>10000</v>
       </c>
-      <c r="S8" s="2">
+      <c r="U8" s="2">
         <v>1002</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
       <c r="B9" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="E9" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E9" s="4">
+        <v>5</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G9" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="F9" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="I9" s="2" t="s">
+      <c r="H9" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="K9" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="J9" s="2">
-        <v>2006</v>
-      </c>
-      <c r="K9" s="2">
+      <c r="L9" s="2">
+        <v>2005</v>
+      </c>
+      <c r="M9" s="2">
         <v>10</v>
       </c>
-      <c r="L9" s="2">
+      <c r="N9" s="2">
         <v>3</v>
       </c>
-      <c r="M9" s="2">
+      <c r="O9" s="2">
         <v>0.2</v>
       </c>
-      <c r="N9" s="2">
-        <v>1</v>
-      </c>
-      <c r="O9" s="2">
+      <c r="P9" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="2">
         <v>0</v>
       </c>
-      <c r="P9" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="2">
-        <v>1</v>
-      </c>
       <c r="R9" s="2">
+        <v>1</v>
+      </c>
+      <c r="S9" s="2">
+        <v>1</v>
+      </c>
+      <c r="T9" s="2">
         <v>10000</v>
       </c>
-      <c r="S9" s="2">
+      <c r="U9" s="2">
         <v>1002</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
       <c r="B10" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D10" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E10" s="4">
+        <v>6</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="G10" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="F10" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="G10" s="4"/>
-      <c r="I10" s="2" t="s">
+      <c r="H10" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="K10" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="J10" s="2">
-        <v>2007</v>
-      </c>
-      <c r="K10" s="2">
+      <c r="L10" s="2">
+        <v>2006</v>
+      </c>
+      <c r="M10" s="2">
         <v>10</v>
       </c>
-      <c r="L10" s="2">
+      <c r="N10" s="2">
         <v>3</v>
       </c>
-      <c r="M10" s="2">
+      <c r="O10" s="2">
         <v>0.2</v>
       </c>
-      <c r="N10" s="2">
-        <v>1</v>
-      </c>
-      <c r="O10" s="2">
+      <c r="P10" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="2">
         <v>0</v>
       </c>
-      <c r="P10" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="2">
-        <v>1</v>
-      </c>
       <c r="R10" s="2">
+        <v>1</v>
+      </c>
+      <c r="S10" s="2">
+        <v>1</v>
+      </c>
+      <c r="T10" s="2">
         <v>10000</v>
       </c>
-      <c r="S10" s="2">
+      <c r="U10" s="2">
         <v>1002</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
       <c r="B11" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E11" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E11" s="4">
+        <v>7</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G11" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="F11" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="I11" s="2" t="s">
+      <c r="H11" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="I11" s="4"/>
+      <c r="K11" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="J11" s="2">
-        <v>2008</v>
-      </c>
-      <c r="K11" s="2">
+      <c r="L11" s="2">
+        <v>2007</v>
+      </c>
+      <c r="M11" s="2">
         <v>10</v>
       </c>
-      <c r="L11" s="2">
+      <c r="N11" s="2">
         <v>3</v>
       </c>
-      <c r="M11" s="2">
+      <c r="O11" s="2">
         <v>0.2</v>
       </c>
-      <c r="N11" s="2">
-        <v>1</v>
-      </c>
-      <c r="O11" s="2">
+      <c r="P11" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="2">
         <v>0</v>
       </c>
-      <c r="P11" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="2">
-        <v>1</v>
-      </c>
       <c r="R11" s="2">
+        <v>1</v>
+      </c>
+      <c r="S11" s="2">
+        <v>1</v>
+      </c>
+      <c r="T11" s="2">
         <v>10000</v>
       </c>
-      <c r="S11" s="2">
+      <c r="U11" s="2">
         <v>1002</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
       <c r="B12" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="D12" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E12" s="4">
+        <v>8</v>
+      </c>
+      <c r="F12" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="G12" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="F12" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="G12" s="4"/>
-      <c r="I12" s="2" t="s">
+      <c r="H12" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="K12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="J12" s="2">
-        <v>2009</v>
-      </c>
-      <c r="K12" s="2">
+      <c r="L12" s="2">
+        <v>2008</v>
+      </c>
+      <c r="M12" s="2">
         <v>10</v>
       </c>
-      <c r="L12" s="2">
+      <c r="N12" s="2">
         <v>3</v>
       </c>
-      <c r="M12" s="2">
+      <c r="O12" s="2">
         <v>0.2</v>
       </c>
-      <c r="N12" s="2">
-        <v>1</v>
-      </c>
-      <c r="O12" s="2">
+      <c r="P12" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="2">
         <v>0</v>
       </c>
-      <c r="P12" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q12" s="2">
-        <v>1</v>
-      </c>
       <c r="R12" s="2">
+        <v>1</v>
+      </c>
+      <c r="S12" s="2">
+        <v>1</v>
+      </c>
+      <c r="T12" s="2">
         <v>10000</v>
       </c>
-      <c r="S12" s="2">
+      <c r="U12" s="2">
         <v>1002</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
       <c r="B13" s="2">
+        <v>9</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E13" s="4">
+        <v>9</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="I13" s="4"/>
+      <c r="K13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L13" s="2">
+        <v>2009</v>
+      </c>
+      <c r="M13" s="2">
         <v>10</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J13" s="2">
-        <v>2010</v>
-      </c>
-      <c r="K13" s="2">
-        <v>10</v>
-      </c>
-      <c r="L13" s="2">
+      <c r="N13" s="2">
         <v>3</v>
       </c>
-      <c r="M13" s="2">
+      <c r="O13" s="2">
         <v>0.2</v>
       </c>
-      <c r="N13" s="2">
-        <v>1</v>
-      </c>
-      <c r="O13" s="2">
+      <c r="P13" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="2">
         <v>0</v>
       </c>
-      <c r="P13" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q13" s="2">
-        <v>1</v>
-      </c>
       <c r="R13" s="2">
+        <v>1</v>
+      </c>
+      <c r="S13" s="2">
+        <v>1</v>
+      </c>
+      <c r="T13" s="2">
         <v>10000</v>
       </c>
-      <c r="S13" s="2">
+      <c r="U13" s="2">
         <v>1002</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
       <c r="B14" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="E14" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="E14" s="4">
+        <v>10</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G14" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="F14" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="G14" s="4"/>
-      <c r="I14" s="2" t="s">
+      <c r="H14" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="K14" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="J14" s="2">
-        <v>2011</v>
-      </c>
-      <c r="K14" s="2">
+      <c r="L14" s="2">
+        <v>2010</v>
+      </c>
+      <c r="M14" s="2">
         <v>10</v>
       </c>
-      <c r="L14" s="2">
+      <c r="N14" s="2">
         <v>3</v>
       </c>
-      <c r="M14" s="2">
+      <c r="O14" s="2">
         <v>0.2</v>
       </c>
-      <c r="N14" s="2">
-        <v>1</v>
-      </c>
-      <c r="O14" s="2">
+      <c r="P14" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="2">
         <v>0</v>
       </c>
-      <c r="P14" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q14" s="2">
-        <v>1</v>
-      </c>
       <c r="R14" s="2">
+        <v>1</v>
+      </c>
+      <c r="S14" s="2">
+        <v>1</v>
+      </c>
+      <c r="T14" s="2">
         <v>10000</v>
       </c>
-      <c r="S14" s="2">
+      <c r="U14" s="2">
         <v>1002</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
       <c r="B15" s="2">
+        <v>11</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E15" s="4">
+        <v>11</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="I15" s="4"/>
+      <c r="K15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="2">
+        <v>2011</v>
+      </c>
+      <c r="M15" s="2">
+        <v>10</v>
+      </c>
+      <c r="N15" s="2">
+        <v>3</v>
+      </c>
+      <c r="O15" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="P15" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>0</v>
+      </c>
+      <c r="R15" s="2">
+        <v>1</v>
+      </c>
+      <c r="S15" s="2">
+        <v>1</v>
+      </c>
+      <c r="T15" s="2">
+        <v>10000</v>
+      </c>
+      <c r="U15" s="2">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A16" s="4"/>
+      <c r="B16" s="2">
         <v>12</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C16" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D16" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E16" s="4">
+        <v>12</v>
+      </c>
+      <c r="F16" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="G16" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="H16" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="I16" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="K16" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="J15" s="2">
+      <c r="L16" s="2">
         <v>2012</v>
       </c>
-      <c r="K15" s="2">
+      <c r="M16" s="2">
         <v>10</v>
       </c>
-      <c r="L15" s="2">
+      <c r="N16" s="2">
         <v>3</v>
       </c>
-      <c r="M15" s="2">
+      <c r="O16" s="2">
         <v>0.2</v>
       </c>
-      <c r="N15" s="2">
-        <v>1</v>
-      </c>
-      <c r="O15" s="2">
+      <c r="P16" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="2">
         <v>0</v>
       </c>
-      <c r="P15" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="2">
-        <v>1</v>
-      </c>
-      <c r="R15" s="2">
+      <c r="R16" s="2">
+        <v>1</v>
+      </c>
+      <c r="S16" s="2">
+        <v>1</v>
+      </c>
+      <c r="T16" s="2">
         <v>10000</v>
       </c>
-      <c r="S15" s="2">
+      <c r="U16" s="2">
         <v>1002</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>53</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>53</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>53</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>53</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
-    </row>
-    <row r="25" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A25" s="4" t="s">
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B25" s="2">
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+    </row>
+    <row r="26" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" s="2">
         <v>6</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C26" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="F25" s="4" t="s">
+      <c r="H26" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="G25" s="4" t="s">
+      <c r="I26" s="4" t="s">
         <v>49</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D1:E1"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/_ConfigExcels/Datas/weapon.xlsx
+++ b/_ConfigExcels/Datas/weapon.xlsx
@@ -378,25 +378,25 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>Beans.Com_UnlockConds</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cond_type</t>
+  </si>
+  <si>
+    <t>int_params</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DUNGEON_PASS</t>
+  </si>
+  <si>
+    <t>NULL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>unlock_cond</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Beans.Com_UnlockConds</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>cond_type</t>
-  </si>
-  <si>
-    <t>int_params</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DUNGEON_PASS</t>
-  </si>
-  <si>
-    <t>NULL</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -858,7 +858,7 @@
   <dimension ref="A1:U26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -894,7 +894,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E1" s="10"/>
       <c r="G1" s="1" t="s">
@@ -945,7 +945,7 @@
         <v>15</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E2" s="10"/>
       <c r="G2" s="1" t="s">
@@ -990,10 +990,10 @@
         <v>0</v>
       </c>
       <c r="D3" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="E3" s="12" t="s">
         <v>92</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:21" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
@@ -1067,7 +1067,7 @@
         <v>42</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4" t="s">
@@ -1125,7 +1125,7 @@
         <v>88</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E6" s="4">
         <v>2</v>
@@ -1185,10 +1185,10 @@
         <v>65</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E7" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>59</v>
@@ -1245,10 +1245,10 @@
         <v>32</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E8" s="4">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>61</v>
@@ -1306,10 +1306,10 @@
         <v>51</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E9" s="4">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>60</v>
@@ -1366,10 +1366,10 @@
         <v>63</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E10" s="4">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>69</v>
@@ -1426,10 +1426,10 @@
         <v>66</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E11" s="4">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>69</v>
@@ -1484,10 +1484,10 @@
         <v>38</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E12" s="4">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>59</v>
@@ -1544,10 +1544,10 @@
         <v>62</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E13" s="4">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>59</v>
@@ -1602,10 +1602,10 @@
         <v>35</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E14" s="4">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>60</v>
@@ -1662,10 +1662,10 @@
         <v>75</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E15" s="4">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>69</v>
@@ -1720,10 +1720,10 @@
         <v>70</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E16" s="4">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>59</v>

--- a/_ConfigExcels/Datas/weapon.xlsx
+++ b/_ConfigExcels/Datas/weapon.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="104">
   <si>
     <t>##var</t>
   </si>
@@ -397,6 +397,103 @@
   </si>
   <si>
     <t>unlock_cond</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片资源索引</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Items</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/item_gold</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Items</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/item_gold</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Items</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/item_gold</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Items</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/item_gold</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Items</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/item_gold</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>image_icon_path</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -855,10 +952,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U26"/>
+  <dimension ref="A1:V26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -871,19 +968,19 @@
     <col min="7" max="7" width="11.25" style="2" customWidth="1"/>
     <col min="8" max="8" width="66" style="2" customWidth="1"/>
     <col min="9" max="9" width="40.375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="29" style="2" customWidth="1"/>
-    <col min="11" max="12" width="35.5" style="2" customWidth="1"/>
-    <col min="13" max="14" width="20.5" style="2" customWidth="1"/>
-    <col min="15" max="15" width="19" style="2" customWidth="1"/>
-    <col min="16" max="17" width="18.75" style="2" customWidth="1"/>
-    <col min="18" max="18" width="16" style="2" customWidth="1"/>
-    <col min="19" max="19" width="20.625" style="2" customWidth="1"/>
-    <col min="20" max="20" width="23" style="2" customWidth="1"/>
-    <col min="21" max="21" width="38.125" style="2" customWidth="1"/>
-    <col min="22" max="16384" width="9" style="2"/>
+    <col min="10" max="11" width="29" style="2" customWidth="1"/>
+    <col min="12" max="13" width="35.5" style="2" customWidth="1"/>
+    <col min="14" max="15" width="20.5" style="2" customWidth="1"/>
+    <col min="16" max="16" width="19" style="2" customWidth="1"/>
+    <col min="17" max="18" width="18.75" style="2" customWidth="1"/>
+    <col min="19" max="19" width="16" style="2" customWidth="1"/>
+    <col min="20" max="20" width="20.625" style="2" customWidth="1"/>
+    <col min="21" max="21" width="23" style="2" customWidth="1"/>
+    <col min="22" max="22" width="38.125" style="2" customWidth="1"/>
+    <col min="23" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -893,48 +990,51 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="E1" s="10"/>
+      <c r="E1" s="12"/>
       <c r="G1" s="1" t="s">
         <v>78</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -944,21 +1044,21 @@
       <c r="C2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="E2" s="10"/>
+      <c r="E2" s="12"/>
       <c r="G2" s="1" t="s">
         <v>82</v>
       </c>
       <c r="K2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>16</v>
@@ -967,36 +1067,39 @@
         <v>16</v>
       </c>
       <c r="P2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="10" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
@@ -1006,10 +1109,10 @@
       <c r="C4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="E4" s="10"/>
+      <c r="E4" s="12"/>
       <c r="F4" s="1" t="s">
         <v>57</v>
       </c>
@@ -1025,41 +1128,44 @@
       <c r="J4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="L4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="M4" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="N4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="O4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="P4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="P4" s="1" t="s">
+      <c r="Q4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Q4" s="1" t="s">
+      <c r="R4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="R4" s="1" t="s">
+      <c r="S4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="S4" s="1" t="s">
+      <c r="T4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="T4" s="1" t="s">
+      <c r="U4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="U4" s="1" t="s">
+      <c r="V4" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B5" s="2">
         <v>1</v>
       </c>
@@ -1082,41 +1188,44 @@
       <c r="I5" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="K5" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="L5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="L5" s="2">
+      <c r="M5" s="2">
         <v>2001</v>
       </c>
-      <c r="M5" s="2">
+      <c r="N5" s="2">
         <v>6</v>
       </c>
-      <c r="N5" s="2">
+      <c r="O5" s="2">
         <v>3</v>
-      </c>
-      <c r="O5" s="2">
-        <v>2</v>
       </c>
       <c r="P5" s="2">
         <v>2</v>
       </c>
       <c r="Q5" s="2">
+        <v>2</v>
+      </c>
+      <c r="R5" s="2">
         <v>0.4</v>
       </c>
-      <c r="R5" s="2">
+      <c r="S5" s="2">
         <v>2</v>
       </c>
-      <c r="S5" s="2">
+      <c r="T5" s="2">
         <v>0.05</v>
       </c>
-      <c r="T5" s="2">
+      <c r="U5" s="2">
         <v>2000</v>
       </c>
-      <c r="U5" s="2">
+      <c r="V5" s="2">
         <v>1001</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
       <c r="B6" s="2">
         <v>2</v>
@@ -1142,41 +1251,44 @@
       <c r="I6" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="K6" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="L6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="L6" s="2">
+      <c r="M6" s="2">
         <v>2002</v>
       </c>
-      <c r="M6" s="2">
+      <c r="N6" s="2">
         <v>10</v>
       </c>
-      <c r="N6" s="2">
+      <c r="O6" s="2">
         <v>3</v>
       </c>
-      <c r="O6" s="2">
+      <c r="P6" s="2">
         <v>0.2</v>
       </c>
-      <c r="P6" s="2">
-        <v>1</v>
-      </c>
       <c r="Q6" s="2">
+        <v>1</v>
+      </c>
+      <c r="R6" s="2">
         <v>0</v>
       </c>
-      <c r="R6" s="2">
-        <v>1</v>
-      </c>
       <c r="S6" s="2">
         <v>1</v>
       </c>
       <c r="T6" s="2">
+        <v>1</v>
+      </c>
+      <c r="U6" s="2">
         <v>10000</v>
       </c>
-      <c r="U6" s="2">
+      <c r="V6" s="2">
         <v>1002</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
       <c r="B7" s="2">
         <v>3</v>
@@ -1202,41 +1314,44 @@
       <c r="I7" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="K7" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="L7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>2003</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>10</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>3</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>0.2</v>
       </c>
-      <c r="P7" s="2">
-        <v>1</v>
-      </c>
       <c r="Q7" s="2">
+        <v>1</v>
+      </c>
+      <c r="R7" s="2">
         <v>0</v>
       </c>
-      <c r="R7" s="2">
-        <v>1</v>
-      </c>
       <c r="S7" s="2">
         <v>1</v>
       </c>
       <c r="T7" s="2">
+        <v>1</v>
+      </c>
+      <c r="U7" s="2">
         <v>10000</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>1002</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
       <c r="B8" s="2">
         <v>4</v>
@@ -1263,41 +1378,44 @@
         <v>47</v>
       </c>
       <c r="J8" s="4"/>
-      <c r="K8" s="2" t="s">
+      <c r="K8" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="L8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="L8" s="2">
+      <c r="M8" s="2">
         <v>2004</v>
       </c>
-      <c r="M8" s="2">
+      <c r="N8" s="2">
         <v>10</v>
       </c>
-      <c r="N8" s="2">
+      <c r="O8" s="2">
         <v>3</v>
       </c>
-      <c r="O8" s="2">
+      <c r="P8" s="2">
         <v>0.2</v>
       </c>
-      <c r="P8" s="2">
-        <v>1</v>
-      </c>
       <c r="Q8" s="2">
+        <v>1</v>
+      </c>
+      <c r="R8" s="2">
         <v>0</v>
       </c>
-      <c r="R8" s="2">
-        <v>1</v>
-      </c>
       <c r="S8" s="2">
         <v>1</v>
       </c>
       <c r="T8" s="2">
+        <v>1</v>
+      </c>
+      <c r="U8" s="2">
         <v>10000</v>
       </c>
-      <c r="U8" s="2">
+      <c r="V8" s="2">
         <v>1002</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
       <c r="B9" s="2">
         <v>5</v>
@@ -1323,41 +1441,44 @@
       <c r="I9" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="K9" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="L9" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="L9" s="2">
+      <c r="M9" s="2">
         <v>2005</v>
       </c>
-      <c r="M9" s="2">
+      <c r="N9" s="2">
         <v>10</v>
       </c>
-      <c r="N9" s="2">
+      <c r="O9" s="2">
         <v>3</v>
       </c>
-      <c r="O9" s="2">
+      <c r="P9" s="2">
         <v>0.2</v>
       </c>
-      <c r="P9" s="2">
-        <v>1</v>
-      </c>
       <c r="Q9" s="2">
+        <v>1</v>
+      </c>
+      <c r="R9" s="2">
         <v>0</v>
       </c>
-      <c r="R9" s="2">
-        <v>1</v>
-      </c>
       <c r="S9" s="2">
         <v>1</v>
       </c>
       <c r="T9" s="2">
+        <v>1</v>
+      </c>
+      <c r="U9" s="2">
         <v>10000</v>
       </c>
-      <c r="U9" s="2">
+      <c r="V9" s="2">
         <v>1002</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
       <c r="B10" s="2">
         <v>6</v>
@@ -1383,41 +1504,44 @@
       <c r="I10" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="K10" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="L10" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="L10" s="2">
+      <c r="M10" s="2">
         <v>2006</v>
       </c>
-      <c r="M10" s="2">
+      <c r="N10" s="2">
         <v>10</v>
       </c>
-      <c r="N10" s="2">
+      <c r="O10" s="2">
         <v>3</v>
       </c>
-      <c r="O10" s="2">
+      <c r="P10" s="2">
         <v>0.2</v>
       </c>
-      <c r="P10" s="2">
-        <v>1</v>
-      </c>
       <c r="Q10" s="2">
+        <v>1</v>
+      </c>
+      <c r="R10" s="2">
         <v>0</v>
       </c>
-      <c r="R10" s="2">
-        <v>1</v>
-      </c>
       <c r="S10" s="2">
         <v>1</v>
       </c>
       <c r="T10" s="2">
+        <v>1</v>
+      </c>
+      <c r="U10" s="2">
         <v>10000</v>
       </c>
-      <c r="U10" s="2">
+      <c r="V10" s="2">
         <v>1002</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
       <c r="B11" s="2">
         <v>7</v>
@@ -1441,41 +1565,44 @@
         <v>67</v>
       </c>
       <c r="I11" s="4"/>
-      <c r="K11" s="2" t="s">
+      <c r="K11" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="L11" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="L11" s="2">
+      <c r="M11" s="2">
         <v>2007</v>
       </c>
-      <c r="M11" s="2">
+      <c r="N11" s="2">
         <v>10</v>
       </c>
-      <c r="N11" s="2">
+      <c r="O11" s="2">
         <v>3</v>
       </c>
-      <c r="O11" s="2">
+      <c r="P11" s="2">
         <v>0.2</v>
       </c>
-      <c r="P11" s="2">
-        <v>1</v>
-      </c>
       <c r="Q11" s="2">
+        <v>1</v>
+      </c>
+      <c r="R11" s="2">
         <v>0</v>
       </c>
-      <c r="R11" s="2">
-        <v>1</v>
-      </c>
       <c r="S11" s="2">
         <v>1</v>
       </c>
       <c r="T11" s="2">
+        <v>1</v>
+      </c>
+      <c r="U11" s="2">
         <v>10000</v>
       </c>
-      <c r="U11" s="2">
+      <c r="V11" s="2">
         <v>1002</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
       <c r="B12" s="2">
         <v>8</v>
@@ -1501,41 +1628,44 @@
       <c r="I12" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="K12" s="2" t="s">
+      <c r="K12" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="L12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="L12" s="2">
+      <c r="M12" s="2">
         <v>2008</v>
       </c>
-      <c r="M12" s="2">
+      <c r="N12" s="2">
         <v>10</v>
       </c>
-      <c r="N12" s="2">
+      <c r="O12" s="2">
         <v>3</v>
       </c>
-      <c r="O12" s="2">
+      <c r="P12" s="2">
         <v>0.2</v>
       </c>
-      <c r="P12" s="2">
-        <v>1</v>
-      </c>
       <c r="Q12" s="2">
+        <v>1</v>
+      </c>
+      <c r="R12" s="2">
         <v>0</v>
       </c>
-      <c r="R12" s="2">
-        <v>1</v>
-      </c>
       <c r="S12" s="2">
         <v>1</v>
       </c>
       <c r="T12" s="2">
+        <v>1</v>
+      </c>
+      <c r="U12" s="2">
         <v>10000</v>
       </c>
-      <c r="U12" s="2">
+      <c r="V12" s="2">
         <v>1002</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
       <c r="B13" s="2">
         <v>9</v>
@@ -1559,41 +1689,44 @@
         <v>68</v>
       </c>
       <c r="I13" s="4"/>
-      <c r="K13" s="2" t="s">
+      <c r="K13" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="L13" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="L13" s="2">
+      <c r="M13" s="2">
         <v>2009</v>
       </c>
-      <c r="M13" s="2">
+      <c r="N13" s="2">
         <v>10</v>
       </c>
-      <c r="N13" s="2">
+      <c r="O13" s="2">
         <v>3</v>
       </c>
-      <c r="O13" s="2">
+      <c r="P13" s="2">
         <v>0.2</v>
       </c>
-      <c r="P13" s="2">
-        <v>1</v>
-      </c>
       <c r="Q13" s="2">
+        <v>1</v>
+      </c>
+      <c r="R13" s="2">
         <v>0</v>
       </c>
-      <c r="R13" s="2">
-        <v>1</v>
-      </c>
       <c r="S13" s="2">
         <v>1</v>
       </c>
       <c r="T13" s="2">
+        <v>1</v>
+      </c>
+      <c r="U13" s="2">
         <v>10000</v>
       </c>
-      <c r="U13" s="2">
+      <c r="V13" s="2">
         <v>1002</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
       <c r="B14" s="2">
         <v>10</v>
@@ -1619,41 +1752,44 @@
       <c r="I14" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="K14" s="2" t="s">
+      <c r="K14" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="L14" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="L14" s="2">
+      <c r="M14" s="2">
         <v>2010</v>
       </c>
-      <c r="M14" s="2">
+      <c r="N14" s="2">
         <v>10</v>
       </c>
-      <c r="N14" s="2">
+      <c r="O14" s="2">
         <v>3</v>
       </c>
-      <c r="O14" s="2">
+      <c r="P14" s="2">
         <v>0.2</v>
       </c>
-      <c r="P14" s="2">
-        <v>1</v>
-      </c>
       <c r="Q14" s="2">
+        <v>1</v>
+      </c>
+      <c r="R14" s="2">
         <v>0</v>
       </c>
-      <c r="R14" s="2">
-        <v>1</v>
-      </c>
       <c r="S14" s="2">
         <v>1</v>
       </c>
       <c r="T14" s="2">
+        <v>1</v>
+      </c>
+      <c r="U14" s="2">
         <v>10000</v>
       </c>
-      <c r="U14" s="2">
+      <c r="V14" s="2">
         <v>1002</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
       <c r="B15" s="2">
         <v>11</v>
@@ -1677,41 +1813,44 @@
         <v>76</v>
       </c>
       <c r="I15" s="4"/>
-      <c r="K15" s="2" t="s">
+      <c r="K15" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="L15" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="L15" s="2">
+      <c r="M15" s="2">
         <v>2011</v>
       </c>
-      <c r="M15" s="2">
+      <c r="N15" s="2">
         <v>10</v>
       </c>
-      <c r="N15" s="2">
+      <c r="O15" s="2">
         <v>3</v>
       </c>
-      <c r="O15" s="2">
+      <c r="P15" s="2">
         <v>0.2</v>
       </c>
-      <c r="P15" s="2">
-        <v>1</v>
-      </c>
       <c r="Q15" s="2">
+        <v>1</v>
+      </c>
+      <c r="R15" s="2">
         <v>0</v>
       </c>
-      <c r="R15" s="2">
-        <v>1</v>
-      </c>
       <c r="S15" s="2">
         <v>1</v>
       </c>
       <c r="T15" s="2">
+        <v>1</v>
+      </c>
+      <c r="U15" s="2">
         <v>10000</v>
       </c>
-      <c r="U15" s="2">
+      <c r="V15" s="2">
         <v>1002</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="B16" s="2">
         <v>12</v>
@@ -1737,37 +1876,40 @@
       <c r="I16" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="K16" s="2" t="s">
+      <c r="K16" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="L16" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="L16" s="2">
+      <c r="M16" s="2">
         <v>2012</v>
       </c>
-      <c r="M16" s="2">
+      <c r="N16" s="2">
         <v>10</v>
       </c>
-      <c r="N16" s="2">
+      <c r="O16" s="2">
         <v>3</v>
       </c>
-      <c r="O16" s="2">
+      <c r="P16" s="2">
         <v>0.2</v>
       </c>
-      <c r="P16" s="2">
-        <v>1</v>
-      </c>
       <c r="Q16" s="2">
+        <v>1</v>
+      </c>
+      <c r="R16" s="2">
         <v>0</v>
       </c>
-      <c r="R16" s="2">
-        <v>1</v>
-      </c>
       <c r="S16" s="2">
         <v>1</v>
       </c>
       <c r="T16" s="2">
+        <v>1</v>
+      </c>
+      <c r="U16" s="2">
         <v>10000</v>
       </c>
-      <c r="U16" s="2">
+      <c r="V16" s="2">
         <v>1002</v>
       </c>
     </row>

--- a/_ConfigExcels/Datas/weapon.xlsx
+++ b/_ConfigExcels/Datas/weapon.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="106">
   <si>
     <t>##var</t>
   </si>
@@ -494,6 +494,14 @@
   </si>
   <si>
     <t>image_icon_path</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;=</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string_params</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -582,7 +590,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -631,6 +639,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -638,7 +657,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -674,6 +693,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -952,35 +977,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V26"/>
+  <dimension ref="A1:W26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="9" style="2"/>
     <col min="3" max="3" width="12.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17.875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="12.625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="26.125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11.25" style="2" customWidth="1"/>
-    <col min="8" max="8" width="66" style="2" customWidth="1"/>
-    <col min="9" max="9" width="40.375" style="2" customWidth="1"/>
-    <col min="10" max="11" width="29" style="2" customWidth="1"/>
-    <col min="12" max="13" width="35.5" style="2" customWidth="1"/>
-    <col min="14" max="15" width="20.5" style="2" customWidth="1"/>
-    <col min="16" max="16" width="19" style="2" customWidth="1"/>
-    <col min="17" max="18" width="18.75" style="2" customWidth="1"/>
-    <col min="19" max="19" width="16" style="2" customWidth="1"/>
-    <col min="20" max="20" width="20.625" style="2" customWidth="1"/>
-    <col min="21" max="21" width="23" style="2" customWidth="1"/>
-    <col min="22" max="22" width="38.125" style="2" customWidth="1"/>
-    <col min="23" max="16384" width="9" style="2"/>
+    <col min="4" max="5" width="17.875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="12.625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="26.125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="11.25" style="2" customWidth="1"/>
+    <col min="9" max="9" width="66" style="2" customWidth="1"/>
+    <col min="10" max="10" width="40.375" style="2" customWidth="1"/>
+    <col min="11" max="12" width="29" style="2" customWidth="1"/>
+    <col min="13" max="14" width="35.5" style="2" customWidth="1"/>
+    <col min="15" max="16" width="20.5" style="2" customWidth="1"/>
+    <col min="17" max="17" width="19" style="2" customWidth="1"/>
+    <col min="18" max="19" width="18.75" style="2" customWidth="1"/>
+    <col min="20" max="20" width="16" style="2" customWidth="1"/>
+    <col min="21" max="21" width="20.625" style="2" customWidth="1"/>
+    <col min="22" max="22" width="23" style="2" customWidth="1"/>
+    <col min="23" max="23" width="38.125" style="2" customWidth="1"/>
+    <col min="24" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -993,48 +1018,49 @@
       <c r="D1" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="E1" s="12"/>
-      <c r="G1" s="1" t="s">
+      <c r="E1" s="13"/>
+      <c r="F1" s="12"/>
+      <c r="H1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -1047,21 +1073,19 @@
       <c r="D2" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="E2" s="12"/>
-      <c r="G2" s="1" t="s">
+      <c r="E2" s="13"/>
+      <c r="F2" s="12"/>
+      <c r="H2" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="O2" s="1" t="s">
         <v>16</v>
@@ -1070,36 +1094,42 @@
         <v>16</v>
       </c>
       <c r="Q2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F3" s="10" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="4" spans="1:22" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
@@ -1112,60 +1142,61 @@
       <c r="D4" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="1" t="s">
+      <c r="E4" s="13"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="M4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="N4" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="O4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="P4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="Q4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="Q4" s="1" t="s">
+      <c r="R4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="R4" s="1" t="s">
+      <c r="S4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="S4" s="1" t="s">
+      <c r="T4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="T4" s="1" t="s">
+      <c r="U4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="U4" s="1" t="s">
+      <c r="V4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="V4" s="1" t="s">
+      <c r="W4" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B5" s="2">
         <v>1</v>
       </c>
@@ -1176,56 +1207,57 @@
         <v>94</v>
       </c>
       <c r="E5" s="4"/>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="4"/>
+      <c r="G5" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="H5" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="I5" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="J5" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="L5" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="M5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="M5" s="2">
+      <c r="N5" s="2">
         <v>2001</v>
       </c>
-      <c r="N5" s="2">
+      <c r="O5" s="2">
         <v>6</v>
       </c>
-      <c r="O5" s="2">
+      <c r="P5" s="2">
         <v>3</v>
-      </c>
-      <c r="P5" s="2">
-        <v>2</v>
       </c>
       <c r="Q5" s="2">
         <v>2</v>
       </c>
       <c r="R5" s="2">
+        <v>2</v>
+      </c>
+      <c r="S5" s="2">
         <v>0.4</v>
       </c>
-      <c r="S5" s="2">
+      <c r="T5" s="2">
         <v>2</v>
       </c>
-      <c r="T5" s="2">
+      <c r="U5" s="2">
         <v>0.05</v>
       </c>
-      <c r="U5" s="2">
+      <c r="V5" s="2">
         <v>2000</v>
       </c>
-      <c r="V5" s="2">
+      <c r="W5" s="2">
         <v>1001</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
       <c r="B6" s="2">
         <v>2</v>
@@ -1236,59 +1268,62 @@
       <c r="D6" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="F6" s="4">
         <v>2</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="G6" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="H6" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="I6" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="J6" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="L6" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="M6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="M6" s="2">
+      <c r="N6" s="2">
         <v>2002</v>
       </c>
-      <c r="N6" s="2">
+      <c r="O6" s="2">
         <v>10</v>
       </c>
-      <c r="O6" s="2">
+      <c r="P6" s="2">
         <v>3</v>
       </c>
-      <c r="P6" s="2">
+      <c r="Q6" s="2">
         <v>0.2</v>
       </c>
-      <c r="Q6" s="2">
-        <v>1</v>
-      </c>
       <c r="R6" s="2">
+        <v>1</v>
+      </c>
+      <c r="S6" s="2">
         <v>0</v>
       </c>
-      <c r="S6" s="2">
-        <v>1</v>
-      </c>
       <c r="T6" s="2">
         <v>1</v>
       </c>
       <c r="U6" s="2">
+        <v>1</v>
+      </c>
+      <c r="V6" s="2">
         <v>10000</v>
       </c>
-      <c r="V6" s="2">
+      <c r="W6" s="2">
         <v>1002</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
       <c r="B7" s="2">
         <v>3</v>
@@ -1299,59 +1334,62 @@
       <c r="D7" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="F7" s="4">
         <v>5</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="G7" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="H7" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="I7" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="J7" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="L7" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="M7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>2003</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>10</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>3</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>0.2</v>
       </c>
-      <c r="Q7" s="2">
-        <v>1</v>
-      </c>
       <c r="R7" s="2">
+        <v>1</v>
+      </c>
+      <c r="S7" s="2">
         <v>0</v>
       </c>
-      <c r="S7" s="2">
-        <v>1</v>
-      </c>
       <c r="T7" s="2">
         <v>1</v>
       </c>
       <c r="U7" s="2">
+        <v>1</v>
+      </c>
+      <c r="V7" s="2">
         <v>10000</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>1002</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
       <c r="B8" s="2">
         <v>4</v>
@@ -1362,60 +1400,63 @@
       <c r="D8" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="F8" s="4">
         <v>10</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="G8" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="H8" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="I8" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="J8" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4" t="s">
+      <c r="K8" s="4"/>
+      <c r="L8" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="L8" s="2" t="s">
+      <c r="M8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="M8" s="2">
+      <c r="N8" s="2">
         <v>2004</v>
       </c>
-      <c r="N8" s="2">
+      <c r="O8" s="2">
         <v>10</v>
       </c>
-      <c r="O8" s="2">
+      <c r="P8" s="2">
         <v>3</v>
       </c>
-      <c r="P8" s="2">
+      <c r="Q8" s="2">
         <v>0.2</v>
       </c>
-      <c r="Q8" s="2">
-        <v>1</v>
-      </c>
       <c r="R8" s="2">
+        <v>1</v>
+      </c>
+      <c r="S8" s="2">
         <v>0</v>
       </c>
-      <c r="S8" s="2">
-        <v>1</v>
-      </c>
       <c r="T8" s="2">
         <v>1</v>
       </c>
       <c r="U8" s="2">
+        <v>1</v>
+      </c>
+      <c r="V8" s="2">
         <v>10000</v>
       </c>
-      <c r="V8" s="2">
+      <c r="W8" s="2">
         <v>1002</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
       <c r="B9" s="2">
         <v>5</v>
@@ -1426,59 +1467,62 @@
       <c r="D9" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="F9" s="4">
         <v>15</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="G9" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="H9" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="I9" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="J9" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="K9" s="4" t="s">
+      <c r="L9" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="L9" s="2" t="s">
+      <c r="M9" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="M9" s="2">
+      <c r="N9" s="2">
         <v>2005</v>
       </c>
-      <c r="N9" s="2">
+      <c r="O9" s="2">
         <v>10</v>
       </c>
-      <c r="O9" s="2">
+      <c r="P9" s="2">
         <v>3</v>
       </c>
-      <c r="P9" s="2">
+      <c r="Q9" s="2">
         <v>0.2</v>
       </c>
-      <c r="Q9" s="2">
-        <v>1</v>
-      </c>
       <c r="R9" s="2">
+        <v>1</v>
+      </c>
+      <c r="S9" s="2">
         <v>0</v>
       </c>
-      <c r="S9" s="2">
-        <v>1</v>
-      </c>
       <c r="T9" s="2">
         <v>1</v>
       </c>
       <c r="U9" s="2">
+        <v>1</v>
+      </c>
+      <c r="V9" s="2">
         <v>10000</v>
       </c>
-      <c r="V9" s="2">
+      <c r="W9" s="2">
         <v>1002</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
       <c r="B10" s="2">
         <v>6</v>
@@ -1489,59 +1533,62 @@
       <c r="D10" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="F10" s="4">
         <v>20</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="G10" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="H10" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="I10" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="I10" s="4" t="s">
+      <c r="J10" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="K10" s="4" t="s">
+      <c r="L10" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="L10" s="2" t="s">
+      <c r="M10" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="M10" s="2">
+      <c r="N10" s="2">
         <v>2006</v>
       </c>
-      <c r="N10" s="2">
+      <c r="O10" s="2">
         <v>10</v>
       </c>
-      <c r="O10" s="2">
+      <c r="P10" s="2">
         <v>3</v>
       </c>
-      <c r="P10" s="2">
+      <c r="Q10" s="2">
         <v>0.2</v>
       </c>
-      <c r="Q10" s="2">
-        <v>1</v>
-      </c>
       <c r="R10" s="2">
+        <v>1</v>
+      </c>
+      <c r="S10" s="2">
         <v>0</v>
       </c>
-      <c r="S10" s="2">
-        <v>1</v>
-      </c>
       <c r="T10" s="2">
         <v>1</v>
       </c>
       <c r="U10" s="2">
+        <v>1</v>
+      </c>
+      <c r="V10" s="2">
         <v>10000</v>
       </c>
-      <c r="V10" s="2">
+      <c r="W10" s="2">
         <v>1002</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
       <c r="B11" s="2">
         <v>7</v>
@@ -1552,57 +1599,60 @@
       <c r="D11" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="F11" s="4">
         <v>25</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="G11" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="H11" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="I11" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="I11" s="4"/>
-      <c r="K11" s="4" t="s">
+      <c r="J11" s="4"/>
+      <c r="L11" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="L11" s="2" t="s">
+      <c r="M11" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="M11" s="2">
+      <c r="N11" s="2">
         <v>2007</v>
       </c>
-      <c r="N11" s="2">
+      <c r="O11" s="2">
         <v>10</v>
       </c>
-      <c r="O11" s="2">
+      <c r="P11" s="2">
         <v>3</v>
       </c>
-      <c r="P11" s="2">
+      <c r="Q11" s="2">
         <v>0.2</v>
       </c>
-      <c r="Q11" s="2">
-        <v>1</v>
-      </c>
       <c r="R11" s="2">
+        <v>1</v>
+      </c>
+      <c r="S11" s="2">
         <v>0</v>
       </c>
-      <c r="S11" s="2">
-        <v>1</v>
-      </c>
       <c r="T11" s="2">
         <v>1</v>
       </c>
       <c r="U11" s="2">
+        <v>1</v>
+      </c>
+      <c r="V11" s="2">
         <v>10000</v>
       </c>
-      <c r="V11" s="2">
+      <c r="W11" s="2">
         <v>1002</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
       <c r="B12" s="2">
         <v>8</v>
@@ -1613,59 +1663,62 @@
       <c r="D12" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="F12" s="4">
         <v>30</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="G12" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="H12" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="I12" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="I12" s="4" t="s">
+      <c r="J12" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="K12" s="4" t="s">
+      <c r="L12" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="L12" s="2" t="s">
+      <c r="M12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="M12" s="2">
+      <c r="N12" s="2">
         <v>2008</v>
       </c>
-      <c r="N12" s="2">
+      <c r="O12" s="2">
         <v>10</v>
       </c>
-      <c r="O12" s="2">
+      <c r="P12" s="2">
         <v>3</v>
       </c>
-      <c r="P12" s="2">
+      <c r="Q12" s="2">
         <v>0.2</v>
       </c>
-      <c r="Q12" s="2">
-        <v>1</v>
-      </c>
       <c r="R12" s="2">
+        <v>1</v>
+      </c>
+      <c r="S12" s="2">
         <v>0</v>
       </c>
-      <c r="S12" s="2">
-        <v>1</v>
-      </c>
       <c r="T12" s="2">
         <v>1</v>
       </c>
       <c r="U12" s="2">
+        <v>1</v>
+      </c>
+      <c r="V12" s="2">
         <v>10000</v>
       </c>
-      <c r="V12" s="2">
+      <c r="W12" s="2">
         <v>1002</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
       <c r="B13" s="2">
         <v>9</v>
@@ -1676,57 +1729,60 @@
       <c r="D13" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="F13" s="4">
         <v>35</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="G13" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="G13" s="8" t="s">
+      <c r="H13" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="I13" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="I13" s="4"/>
-      <c r="K13" s="4" t="s">
+      <c r="J13" s="4"/>
+      <c r="L13" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="L13" s="2" t="s">
+      <c r="M13" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="M13" s="2">
+      <c r="N13" s="2">
         <v>2009</v>
       </c>
-      <c r="N13" s="2">
+      <c r="O13" s="2">
         <v>10</v>
       </c>
-      <c r="O13" s="2">
+      <c r="P13" s="2">
         <v>3</v>
       </c>
-      <c r="P13" s="2">
+      <c r="Q13" s="2">
         <v>0.2</v>
       </c>
-      <c r="Q13" s="2">
-        <v>1</v>
-      </c>
       <c r="R13" s="2">
+        <v>1</v>
+      </c>
+      <c r="S13" s="2">
         <v>0</v>
       </c>
-      <c r="S13" s="2">
-        <v>1</v>
-      </c>
       <c r="T13" s="2">
         <v>1</v>
       </c>
       <c r="U13" s="2">
+        <v>1</v>
+      </c>
+      <c r="V13" s="2">
         <v>10000</v>
       </c>
-      <c r="V13" s="2">
+      <c r="W13" s="2">
         <v>1002</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
       <c r="B14" s="2">
         <v>10</v>
@@ -1737,59 +1793,62 @@
       <c r="D14" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="F14" s="4">
         <v>40</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="G14" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="H14" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="H14" s="4" t="s">
+      <c r="I14" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="I14" s="4" t="s">
+      <c r="J14" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="K14" s="4" t="s">
+      <c r="L14" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="L14" s="2" t="s">
+      <c r="M14" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="M14" s="2">
+      <c r="N14" s="2">
         <v>2010</v>
       </c>
-      <c r="N14" s="2">
+      <c r="O14" s="2">
         <v>10</v>
       </c>
-      <c r="O14" s="2">
+      <c r="P14" s="2">
         <v>3</v>
       </c>
-      <c r="P14" s="2">
+      <c r="Q14" s="2">
         <v>0.2</v>
       </c>
-      <c r="Q14" s="2">
-        <v>1</v>
-      </c>
       <c r="R14" s="2">
+        <v>1</v>
+      </c>
+      <c r="S14" s="2">
         <v>0</v>
       </c>
-      <c r="S14" s="2">
-        <v>1</v>
-      </c>
       <c r="T14" s="2">
         <v>1</v>
       </c>
       <c r="U14" s="2">
+        <v>1</v>
+      </c>
+      <c r="V14" s="2">
         <v>10000</v>
       </c>
-      <c r="V14" s="2">
+      <c r="W14" s="2">
         <v>1002</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
       <c r="B15" s="2">
         <v>11</v>
@@ -1800,57 +1859,60 @@
       <c r="D15" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="F15" s="4">
         <v>45</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="G15" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="H15" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="H15" s="4" t="s">
+      <c r="I15" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="I15" s="4"/>
-      <c r="K15" s="4" t="s">
+      <c r="J15" s="4"/>
+      <c r="L15" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="L15" s="2" t="s">
+      <c r="M15" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="M15" s="2">
+      <c r="N15" s="2">
         <v>2011</v>
       </c>
-      <c r="N15" s="2">
+      <c r="O15" s="2">
         <v>10</v>
       </c>
-      <c r="O15" s="2">
+      <c r="P15" s="2">
         <v>3</v>
       </c>
-      <c r="P15" s="2">
+      <c r="Q15" s="2">
         <v>0.2</v>
       </c>
-      <c r="Q15" s="2">
-        <v>1</v>
-      </c>
       <c r="R15" s="2">
+        <v>1</v>
+      </c>
+      <c r="S15" s="2">
         <v>0</v>
       </c>
-      <c r="S15" s="2">
-        <v>1</v>
-      </c>
       <c r="T15" s="2">
         <v>1</v>
       </c>
       <c r="U15" s="2">
+        <v>1</v>
+      </c>
+      <c r="V15" s="2">
         <v>10000</v>
       </c>
-      <c r="V15" s="2">
+      <c r="W15" s="2">
         <v>1002</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="B16" s="2">
         <v>12</v>
@@ -1861,59 +1923,62 @@
       <c r="D16" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="F16" s="4">
         <v>50</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="G16" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="H16" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="H16" s="4" t="s">
+      <c r="I16" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="I16" s="4" t="s">
+      <c r="J16" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="K16" s="4" t="s">
+      <c r="L16" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="L16" s="2" t="s">
+      <c r="M16" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="M16" s="2">
+      <c r="N16" s="2">
         <v>2012</v>
       </c>
-      <c r="N16" s="2">
+      <c r="O16" s="2">
         <v>10</v>
       </c>
-      <c r="O16" s="2">
+      <c r="P16" s="2">
         <v>3</v>
       </c>
-      <c r="P16" s="2">
+      <c r="Q16" s="2">
         <v>0.2</v>
       </c>
-      <c r="Q16" s="2">
-        <v>1</v>
-      </c>
       <c r="R16" s="2">
+        <v>1</v>
+      </c>
+      <c r="S16" s="2">
         <v>0</v>
       </c>
-      <c r="S16" s="2">
-        <v>1</v>
-      </c>
       <c r="T16" s="2">
         <v>1</v>
       </c>
       <c r="U16" s="2">
+        <v>1</v>
+      </c>
+      <c r="V16" s="2">
         <v>10000</v>
       </c>
-      <c r="V16" s="2">
+      <c r="W16" s="2">
         <v>1002</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>53</v>
       </c>
@@ -1921,8 +1986,9 @@
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G17" s="4"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>53</v>
       </c>
@@ -1930,8 +1996,9 @@
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G18" s="4"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>53</v>
       </c>
@@ -1939,8 +2006,9 @@
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G19" s="4"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>53</v>
       </c>
@@ -1948,8 +2016,9 @@
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G20" s="4"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>53</v>
       </c>
@@ -1957,8 +2026,9 @@
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
-    </row>
-    <row r="26" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="G21" s="4"/>
+    </row>
+    <row r="26" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>53</v>
       </c>
@@ -1970,21 +2040,22 @@
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
-      <c r="F26" s="7" t="s">
+      <c r="F26" s="4"/>
+      <c r="G26" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="H26" s="4" t="s">
+      <c r="I26" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="I26" s="4" t="s">
+      <c r="J26" s="4" t="s">
         <v>49</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="D1:F1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/_ConfigExcels/Datas/weapon.xlsx
+++ b/_ConfigExcels/Datas/weapon.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="97">
   <si>
     <t>##var</t>
   </si>
@@ -47,9 +47,6 @@
     <t>image_icon_path</t>
   </si>
   <si>
-    <t>image_tricardicon_path</t>
-  </si>
-  <si>
     <t>bullet_prefab</t>
   </si>
   <si>
@@ -141,9 +138,6 @@
   </si>
   <si>
     <t>图片资源索引</t>
-  </si>
-  <si>
-    <t>三选一背景</t>
   </si>
   <si>
     <t>子弹预制体地址
@@ -219,9 +213,6 @@
       </rPr>
       <t>/item_gold</t>
     </r>
-  </si>
-  <si>
-    <t>UI/Weapons/TricardBgs/icon_tricardbg_1</t>
   </si>
   <si>
     <t>Bullet_Player_1</t>
@@ -1420,7 +1411,7 @@
   <dimension ref="A1:X26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6:M16"/>
+      <selection activeCell="M1" sqref="M$1:M$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1434,7 +1425,7 @@
     <col min="9" max="9" width="66" style="2" customWidth="1"/>
     <col min="10" max="10" width="40.375" style="2" customWidth="1"/>
     <col min="11" max="12" width="29" style="2" customWidth="1"/>
-    <col min="13" max="13" width="36.875" style="2" customWidth="1"/>
+    <col min="13" max="13" width="36.875" customWidth="1"/>
     <col min="14" max="15" width="35.5" style="2" customWidth="1"/>
     <col min="16" max="17" width="20.5" style="2" customWidth="1"/>
     <col min="18" max="18" width="19" style="2" customWidth="1"/>
@@ -1467,183 +1458,178 @@
       <c r="L1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1"/>
+      <c r="N1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:24">
       <c r="A2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>21</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="5"/>
       <c r="H2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2"/>
+      <c r="N2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="X2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Q2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>25</v>
-      </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:6">
+    <row r="3" s="1" customFormat="1" spans="1:13">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>28</v>
-      </c>
+      <c r="M3"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="28.5" spans="1:24">
       <c r="A4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>31</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="5"/>
       <c r="G4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="M4"/>
+      <c r="N4" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="O4" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="N4" s="11" t="s">
+      <c r="P4" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="O4" s="11" t="s">
+      <c r="Q4" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="P4" s="11" t="s">
+      <c r="R4" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="Q4" s="11" t="s">
+      <c r="S4" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="R4" s="11" t="s">
+      <c r="T4" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="S4" s="1" t="s">
+      <c r="U4" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="T4" s="1" t="s">
+      <c r="V4" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="U4" s="1" t="s">
+      <c r="W4" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="V4" s="1" t="s">
+      <c r="X4" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="W4" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="X4" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="5" spans="2:24">
@@ -1651,33 +1637,30 @@
         <v>1</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="I5" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="J5" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="L5" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="N5" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="L5" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="M5" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="O5" s="2">
         <v>2001</v>
@@ -1716,37 +1699,34 @@
         <v>2</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F6" s="6">
         <v>2</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="M6" s="6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="O6" s="2">
         <v>2002</v>
@@ -1785,37 +1765,34 @@
         <v>3</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F7" s="6">
         <v>5</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="M7" s="6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="O7" s="2">
         <v>2003</v>
@@ -1854,38 +1831,35 @@
         <v>4</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F8" s="6">
         <v>10</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="K8" s="6"/>
       <c r="L8" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="O8" s="2">
         <v>2004</v>
@@ -1924,37 +1898,34 @@
         <v>5</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F9" s="6">
         <v>15</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="M9" s="6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="O9" s="2">
         <v>2005</v>
@@ -1993,37 +1964,34 @@
         <v>6</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F10" s="6">
         <v>20</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="M10" s="6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="O10" s="2">
         <v>2006</v>
@@ -2062,35 +2030,32 @@
         <v>7</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F11" s="6">
         <v>25</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="J11" s="6"/>
       <c r="L11" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="M11" s="6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="O11" s="2">
         <v>2007</v>
@@ -2129,37 +2094,34 @@
         <v>8</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F12" s="6">
         <v>30</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="M12" s="6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="O12" s="2">
         <v>2008</v>
@@ -2198,35 +2160,32 @@
         <v>9</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F13" s="6">
         <v>35</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="J13" s="6"/>
       <c r="L13" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="M13" s="6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="O13" s="2">
         <v>2009</v>
@@ -2265,37 +2224,34 @@
         <v>10</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F14" s="6">
         <v>40</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="M14" s="6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="O14" s="2">
         <v>2010</v>
@@ -2334,35 +2290,32 @@
         <v>11</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F15" s="6">
         <v>45</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="J15" s="6"/>
       <c r="L15" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="M15" s="6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="O15" s="2">
         <v>2011</v>
@@ -2401,37 +2354,34 @@
         <v>12</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F16" s="6">
         <v>50</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="L16" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="M16" s="6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="O16" s="2">
         <v>2012</v>
@@ -2466,7 +2416,7 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="6" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
@@ -2476,7 +2426,7 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="6" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
@@ -2486,7 +2436,7 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="6" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
@@ -2496,7 +2446,7 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="6" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
@@ -2506,7 +2456,7 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="6" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
@@ -2516,25 +2466,25 @@
     </row>
     <row r="26" ht="28.5" spans="1:10">
       <c r="A26" s="6" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B26" s="2">
         <v>6</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
       <c r="G26" s="10" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="J26" s="6" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/_ConfigExcels/Datas/weapon.xlsx
+++ b/_ConfigExcels/Datas/weapon.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mine\Project\MiniGame_EarthDefender\_ConfigExcels\Datas\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowHeight="17775"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="17775"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="97">
   <si>
     <t>##var</t>
   </si>
@@ -198,6 +203,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -208,6 +214,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -331,6 +338,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -341,6 +349,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -364,14 +373,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -384,6 +387,7 @@
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -391,6 +395,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -398,6 +403,7 @@
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -405,147 +411,19 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="9"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="37">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -560,7 +438,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -572,198 +450,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -823,252 +515,28 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="17" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="17" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="17" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="17" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1086,65 +554,31 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="17" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="输出" xfId="1" builtinId="21"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1402,19 +836,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M$1:M$1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="9" style="2"/>
     <col min="3" max="3" width="12.625" style="2" customWidth="1"/>
@@ -1437,7 +871,7 @@
     <col min="25" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:24">
+    <row r="1" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1447,11 +881,11 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="5"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="14"/>
       <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
@@ -1493,7 +927,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:24">
+    <row r="2" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
@@ -1503,11 +937,11 @@
       <c r="C2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="5"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="14"/>
       <c r="H2" s="1" t="s">
         <v>21</v>
       </c>
@@ -1549,7 +983,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:13">
+    <row r="3" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1564,7 +998,7 @@
       </c>
       <c r="M3"/>
     </row>
-    <row r="4" s="1" customFormat="1" ht="28.5" spans="1:24">
+    <row r="4" spans="1:24" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>28</v>
       </c>
@@ -1574,11 +1008,11 @@
       <c r="C4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="5"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="14"/>
       <c r="G4" s="1" t="s">
         <v>31</v>
       </c>
@@ -1632,7 +1066,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="2:24">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B5" s="2">
         <v>1</v>
       </c>
@@ -1693,7 +1127,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="6" spans="1:24">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
       <c r="B6" s="2">
         <v>2</v>
@@ -1702,14 +1136,10 @@
         <v>56</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="F6" s="6">
-        <v>2</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
       <c r="G6" s="6" t="s">
         <v>59</v>
       </c>
@@ -1759,7 +1189,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="7" spans="1:24">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
       <c r="B7" s="2">
         <v>3</v>
@@ -1768,14 +1198,10 @@
         <v>62</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="F7" s="6">
-        <v>5</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
       <c r="G7" s="6" t="s">
         <v>63</v>
       </c>
@@ -1825,7 +1251,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="8" spans="1:24">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
       <c r="B8" s="2">
         <v>4</v>
@@ -1892,7 +1318,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="9" spans="1:24">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
       <c r="B9" s="2">
         <v>5</v>
@@ -1958,7 +1384,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="10" spans="1:24">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
       <c r="B10" s="2">
         <v>6</v>
@@ -2024,7 +1450,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="11" spans="1:24">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
       <c r="B11" s="2">
         <v>7</v>
@@ -2088,7 +1514,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="12" spans="1:24">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12" s="6"/>
       <c r="B12" s="2">
         <v>8</v>
@@ -2154,7 +1580,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="13" spans="1:24">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13" s="6"/>
       <c r="B13" s="2">
         <v>9</v>
@@ -2218,7 +1644,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="14" spans="1:24">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14" s="6"/>
       <c r="B14" s="2">
         <v>10</v>
@@ -2284,7 +1710,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="15" spans="1:24">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15" s="6"/>
       <c r="B15" s="2">
         <v>11</v>
@@ -2348,7 +1774,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="16" spans="1:24">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16" s="6"/>
       <c r="B16" s="2">
         <v>12</v>
@@ -2414,7 +1840,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
         <v>92</v>
       </c>
@@ -2424,7 +1850,7 @@
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>92</v>
       </c>
@@ -2434,7 +1860,7 @@
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>92</v>
       </c>
@@ -2444,7 +1870,7 @@
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
         <v>92</v>
       </c>
@@ -2454,7 +1880,7 @@
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>92</v>
       </c>
@@ -2464,7 +1890,7 @@
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
     </row>
-    <row r="26" ht="28.5" spans="1:10">
+    <row r="26" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
         <v>92</v>
       </c>
@@ -2493,8 +1919,8 @@
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="D4:F4"/>
   </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/_ConfigExcels/Datas/weapon.xlsx
+++ b/_ConfigExcels/Datas/weapon.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="97">
   <si>
     <t>##var</t>
   </si>
@@ -842,10 +842,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X26"/>
+  <dimension ref="A1:W26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -859,19 +859,18 @@
     <col min="9" max="9" width="66" style="2" customWidth="1"/>
     <col min="10" max="10" width="40.375" style="2" customWidth="1"/>
     <col min="11" max="12" width="29" style="2" customWidth="1"/>
-    <col min="13" max="13" width="36.875" customWidth="1"/>
-    <col min="14" max="15" width="35.5" style="2" customWidth="1"/>
-    <col min="16" max="17" width="20.5" style="2" customWidth="1"/>
-    <col min="18" max="18" width="19" style="2" customWidth="1"/>
-    <col min="19" max="20" width="18.75" style="2" customWidth="1"/>
-    <col min="21" max="21" width="16" style="2" customWidth="1"/>
-    <col min="22" max="22" width="20.625" style="2" customWidth="1"/>
-    <col min="23" max="23" width="23" style="2" customWidth="1"/>
-    <col min="24" max="24" width="38.125" style="2" customWidth="1"/>
-    <col min="25" max="16384" width="9" style="2"/>
+    <col min="13" max="14" width="35.5" style="2" customWidth="1"/>
+    <col min="15" max="16" width="20.5" style="2" customWidth="1"/>
+    <col min="17" max="17" width="19" style="2" customWidth="1"/>
+    <col min="18" max="19" width="18.75" style="2" customWidth="1"/>
+    <col min="20" max="20" width="16" style="2" customWidth="1"/>
+    <col min="21" max="21" width="20.625" style="2" customWidth="1"/>
+    <col min="22" max="22" width="23" style="2" customWidth="1"/>
+    <col min="23" max="23" width="38.125" style="2" customWidth="1"/>
+    <col min="24" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -892,42 +891,41 @@
       <c r="L1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="M1"/>
+      <c r="M1" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="N1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="X1" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
@@ -948,12 +946,14 @@
       <c r="L2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="M2"/>
+      <c r="M2" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="N2" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>23</v>
@@ -962,28 +962,25 @@
         <v>23</v>
       </c>
       <c r="R2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="S2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="V2" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="W2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="X2" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -996,9 +993,8 @@
       <c r="F3" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="M3"/>
-    </row>
-    <row r="4" spans="1:24" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:23" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>28</v>
       </c>
@@ -1031,42 +1027,41 @@
       <c r="L4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="M4"/>
+      <c r="M4" s="11" t="s">
+        <v>37</v>
+      </c>
       <c r="N4" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O4" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P4" s="11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q4" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="R4" s="11" t="s">
         <v>41</v>
       </c>
+      <c r="R4" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="S4" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="X4" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B5" s="2">
         <v>1</v>
       </c>
@@ -1093,41 +1088,41 @@
       <c r="L5" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="N5" s="2" t="s">
+      <c r="M5" s="2" t="s">
         <v>55</v>
       </c>
+      <c r="N5" s="2">
+        <v>2001</v>
+      </c>
       <c r="O5" s="2">
-        <v>2001</v>
+        <v>6</v>
       </c>
       <c r="P5" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Q5" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R5" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S5" s="2">
-        <v>2</v>
+        <v>0.4</v>
       </c>
       <c r="T5" s="2">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="U5" s="2">
-        <v>2</v>
+        <v>0.05</v>
       </c>
       <c r="V5" s="2">
-        <v>0.05</v>
+        <v>2000</v>
       </c>
       <c r="W5" s="2">
-        <v>2000</v>
-      </c>
-      <c r="X5" s="2">
         <v>1001</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
       <c r="B6" s="2">
         <v>2</v>
@@ -1136,10 +1131,14 @@
         <v>56</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
+        <v>57</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6" s="6">
+        <v>2</v>
+      </c>
       <c r="G6" s="6" t="s">
         <v>59</v>
       </c>
@@ -1155,41 +1154,41 @@
       <c r="L6" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="N6" s="2" t="s">
+      <c r="M6" s="2" t="s">
         <v>55</v>
       </c>
+      <c r="N6" s="2">
+        <v>2002</v>
+      </c>
       <c r="O6" s="2">
-        <v>2002</v>
+        <v>10</v>
       </c>
       <c r="P6" s="2">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="Q6" s="2">
-        <v>3</v>
+        <v>0.2</v>
       </c>
       <c r="R6" s="2">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="S6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U6" s="2">
         <v>1</v>
       </c>
       <c r="V6" s="2">
-        <v>1</v>
+        <v>10000</v>
       </c>
       <c r="W6" s="2">
-        <v>10000</v>
-      </c>
-      <c r="X6" s="2">
         <v>1002</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
       <c r="B7" s="2">
         <v>3</v>
@@ -1198,10 +1197,14 @@
         <v>62</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
+        <v>57</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7" s="6">
+        <v>3</v>
+      </c>
       <c r="G7" s="6" t="s">
         <v>63</v>
       </c>
@@ -1217,41 +1220,41 @@
       <c r="L7" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="N7" s="2" t="s">
+      <c r="M7" s="2" t="s">
         <v>55</v>
       </c>
+      <c r="N7" s="2">
+        <v>2003</v>
+      </c>
       <c r="O7" s="2">
-        <v>2003</v>
+        <v>10</v>
       </c>
       <c r="P7" s="2">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="Q7" s="2">
-        <v>3</v>
+        <v>0.2</v>
       </c>
       <c r="R7" s="2">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="S7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U7" s="2">
         <v>1</v>
       </c>
       <c r="V7" s="2">
-        <v>1</v>
+        <v>10000</v>
       </c>
       <c r="W7" s="2">
-        <v>10000</v>
-      </c>
-      <c r="X7" s="2">
         <v>1002</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
       <c r="B8" s="2">
         <v>4</v>
@@ -1266,7 +1269,7 @@
         <v>58</v>
       </c>
       <c r="F8" s="6">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>50</v>
@@ -1284,41 +1287,41 @@
       <c r="L8" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="N8" s="2" t="s">
+      <c r="M8" s="2" t="s">
         <v>55</v>
       </c>
+      <c r="N8" s="2">
+        <v>2004</v>
+      </c>
       <c r="O8" s="2">
-        <v>2004</v>
+        <v>10</v>
       </c>
       <c r="P8" s="2">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="Q8" s="2">
-        <v>3</v>
+        <v>0.2</v>
       </c>
       <c r="R8" s="2">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="S8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U8" s="2">
         <v>1</v>
       </c>
       <c r="V8" s="2">
-        <v>1</v>
+        <v>10000</v>
       </c>
       <c r="W8" s="2">
-        <v>10000</v>
-      </c>
-      <c r="X8" s="2">
         <v>1002</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
       <c r="B9" s="2">
         <v>5</v>
@@ -1333,7 +1336,7 @@
         <v>58</v>
       </c>
       <c r="F9" s="6">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>50</v>
@@ -1350,41 +1353,41 @@
       <c r="L9" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="N9" s="2" t="s">
+      <c r="M9" s="2" t="s">
         <v>55</v>
       </c>
+      <c r="N9" s="2">
+        <v>2005</v>
+      </c>
       <c r="O9" s="2">
-        <v>2005</v>
+        <v>10</v>
       </c>
       <c r="P9" s="2">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="Q9" s="2">
-        <v>3</v>
+        <v>0.2</v>
       </c>
       <c r="R9" s="2">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="S9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U9" s="2">
         <v>1</v>
       </c>
       <c r="V9" s="2">
-        <v>1</v>
+        <v>10000</v>
       </c>
       <c r="W9" s="2">
-        <v>10000</v>
-      </c>
-      <c r="X9" s="2">
         <v>1002</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
       <c r="B10" s="2">
         <v>6</v>
@@ -1399,7 +1402,7 @@
         <v>58</v>
       </c>
       <c r="F10" s="6">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>59</v>
@@ -1416,41 +1419,41 @@
       <c r="L10" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="N10" s="2" t="s">
+      <c r="M10" s="2" t="s">
         <v>55</v>
       </c>
+      <c r="N10" s="2">
+        <v>2006</v>
+      </c>
       <c r="O10" s="2">
-        <v>2006</v>
+        <v>10</v>
       </c>
       <c r="P10" s="2">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="Q10" s="2">
-        <v>3</v>
+        <v>0.2</v>
       </c>
       <c r="R10" s="2">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="S10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U10" s="2">
         <v>1</v>
       </c>
       <c r="V10" s="2">
-        <v>1</v>
+        <v>10000</v>
       </c>
       <c r="W10" s="2">
-        <v>10000</v>
-      </c>
-      <c r="X10" s="2">
         <v>1002</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
       <c r="B11" s="2">
         <v>7</v>
@@ -1465,7 +1468,7 @@
         <v>58</v>
       </c>
       <c r="F11" s="6">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>59</v>
@@ -1480,41 +1483,41 @@
       <c r="L11" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="N11" s="2" t="s">
+      <c r="M11" s="2" t="s">
         <v>55</v>
       </c>
+      <c r="N11" s="2">
+        <v>2007</v>
+      </c>
       <c r="O11" s="2">
-        <v>2007</v>
+        <v>10</v>
       </c>
       <c r="P11" s="2">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="Q11" s="2">
-        <v>3</v>
+        <v>0.2</v>
       </c>
       <c r="R11" s="2">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="S11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U11" s="2">
         <v>1</v>
       </c>
       <c r="V11" s="2">
-        <v>1</v>
+        <v>10000</v>
       </c>
       <c r="W11" s="2">
-        <v>10000</v>
-      </c>
-      <c r="X11" s="2">
         <v>1002</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12" s="6"/>
       <c r="B12" s="2">
         <v>8</v>
@@ -1529,7 +1532,7 @@
         <v>58</v>
       </c>
       <c r="F12" s="6">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>63</v>
@@ -1546,41 +1549,41 @@
       <c r="L12" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="N12" s="2" t="s">
+      <c r="M12" s="2" t="s">
         <v>55</v>
       </c>
+      <c r="N12" s="2">
+        <v>2008</v>
+      </c>
       <c r="O12" s="2">
-        <v>2008</v>
+        <v>10</v>
       </c>
       <c r="P12" s="2">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="Q12" s="2">
-        <v>3</v>
+        <v>0.2</v>
       </c>
       <c r="R12" s="2">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="S12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U12" s="2">
         <v>1</v>
       </c>
       <c r="V12" s="2">
-        <v>1</v>
+        <v>10000</v>
       </c>
       <c r="W12" s="2">
-        <v>10000</v>
-      </c>
-      <c r="X12" s="2">
         <v>1002</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A13" s="6"/>
       <c r="B13" s="2">
         <v>9</v>
@@ -1595,7 +1598,7 @@
         <v>58</v>
       </c>
       <c r="F13" s="6">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>63</v>
@@ -1610,41 +1613,41 @@
       <c r="L13" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="N13" s="2" t="s">
+      <c r="M13" s="2" t="s">
         <v>55</v>
       </c>
+      <c r="N13" s="2">
+        <v>2009</v>
+      </c>
       <c r="O13" s="2">
-        <v>2009</v>
+        <v>10</v>
       </c>
       <c r="P13" s="2">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="Q13" s="2">
-        <v>3</v>
+        <v>0.2</v>
       </c>
       <c r="R13" s="2">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="S13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U13" s="2">
         <v>1</v>
       </c>
       <c r="V13" s="2">
-        <v>1</v>
+        <v>10000</v>
       </c>
       <c r="W13" s="2">
-        <v>10000</v>
-      </c>
-      <c r="X13" s="2">
         <v>1002</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A14" s="6"/>
       <c r="B14" s="2">
         <v>10</v>
@@ -1659,7 +1662,7 @@
         <v>58</v>
       </c>
       <c r="F14" s="6">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G14" s="6" t="s">
         <v>50</v>
@@ -1676,41 +1679,41 @@
       <c r="L14" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="N14" s="2" t="s">
+      <c r="M14" s="2" t="s">
         <v>55</v>
       </c>
+      <c r="N14" s="2">
+        <v>2010</v>
+      </c>
       <c r="O14" s="2">
-        <v>2010</v>
+        <v>10</v>
       </c>
       <c r="P14" s="2">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="Q14" s="2">
-        <v>3</v>
+        <v>0.2</v>
       </c>
       <c r="R14" s="2">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="S14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U14" s="2">
         <v>1</v>
       </c>
       <c r="V14" s="2">
-        <v>1</v>
+        <v>10000</v>
       </c>
       <c r="W14" s="2">
-        <v>10000</v>
-      </c>
-      <c r="X14" s="2">
         <v>1002</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15" s="6"/>
       <c r="B15" s="2">
         <v>11</v>
@@ -1725,7 +1728,7 @@
         <v>58</v>
       </c>
       <c r="F15" s="6">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>59</v>
@@ -1740,41 +1743,41 @@
       <c r="L15" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="N15" s="2" t="s">
+      <c r="M15" s="2" t="s">
         <v>55</v>
       </c>
+      <c r="N15" s="2">
+        <v>2011</v>
+      </c>
       <c r="O15" s="2">
-        <v>2011</v>
+        <v>10</v>
       </c>
       <c r="P15" s="2">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="Q15" s="2">
-        <v>3</v>
+        <v>0.2</v>
       </c>
       <c r="R15" s="2">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="S15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U15" s="2">
         <v>1</v>
       </c>
       <c r="V15" s="2">
-        <v>1</v>
+        <v>10000</v>
       </c>
       <c r="W15" s="2">
-        <v>10000</v>
-      </c>
-      <c r="X15" s="2">
         <v>1002</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16" s="6"/>
       <c r="B16" s="2">
         <v>12</v>
@@ -1789,7 +1792,7 @@
         <v>58</v>
       </c>
       <c r="F16" s="6">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G16" s="6" t="s">
         <v>63</v>
@@ -1806,37 +1809,37 @@
       <c r="L16" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="N16" s="2" t="s">
+      <c r="M16" s="2" t="s">
         <v>55</v>
       </c>
+      <c r="N16" s="2">
+        <v>2012</v>
+      </c>
       <c r="O16" s="2">
-        <v>2012</v>
+        <v>10</v>
       </c>
       <c r="P16" s="2">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="Q16" s="2">
-        <v>3</v>
+        <v>0.2</v>
       </c>
       <c r="R16" s="2">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="S16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U16" s="2">
         <v>1</v>
       </c>
       <c r="V16" s="2">
-        <v>1</v>
+        <v>10000</v>
       </c>
       <c r="W16" s="2">
-        <v>10000</v>
-      </c>
-      <c r="X16" s="2">
         <v>1002</v>
       </c>
     </row>

--- a/_ConfigExcels/Datas/weapon.xlsx
+++ b/_ConfigExcels/Datas/weapon.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="106">
   <si>
     <t>##var</t>
   </si>
@@ -368,6 +368,41 @@
   </si>
   <si>
     <t>持续时间、碰撞面积、debuff减速等</t>
+  </si>
+  <si>
+    <t>子弹类型</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>GUN</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>LASER</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础子弹进行X次攻击后销毁（穿透）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础单次子弹对同一个单位的伤害间隔（秒）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>penetrate</t>
+  </si>
+  <si>
+    <t>penetrate_interval</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -842,10 +877,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W26"/>
+  <dimension ref="A1:Z26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="U13" sqref="U13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -860,17 +895,18 @@
     <col min="10" max="10" width="40.375" style="2" customWidth="1"/>
     <col min="11" max="12" width="29" style="2" customWidth="1"/>
     <col min="13" max="14" width="35.5" style="2" customWidth="1"/>
-    <col min="15" max="16" width="20.5" style="2" customWidth="1"/>
-    <col min="17" max="17" width="19" style="2" customWidth="1"/>
-    <col min="18" max="19" width="18.75" style="2" customWidth="1"/>
-    <col min="20" max="20" width="16" style="2" customWidth="1"/>
-    <col min="21" max="21" width="20.625" style="2" customWidth="1"/>
-    <col min="22" max="22" width="23" style="2" customWidth="1"/>
-    <col min="23" max="23" width="38.125" style="2" customWidth="1"/>
-    <col min="24" max="16384" width="9" style="2"/>
+    <col min="15" max="15" width="17.25" style="2" customWidth="1"/>
+    <col min="16" max="19" width="20.5" style="2" customWidth="1"/>
+    <col min="20" max="20" width="19" style="2" customWidth="1"/>
+    <col min="21" max="22" width="18.75" style="2" customWidth="1"/>
+    <col min="23" max="23" width="16" style="2" customWidth="1"/>
+    <col min="24" max="24" width="20.625" style="2" customWidth="1"/>
+    <col min="25" max="25" width="23" style="2" customWidth="1"/>
+    <col min="26" max="26" width="38.125" style="2" customWidth="1"/>
+    <col min="27" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -897,35 +933,41 @@
       <c r="N1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
@@ -952,9 +994,6 @@
       <c r="N2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="O2" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="P2" s="1" t="s">
         <v>23</v>
       </c>
@@ -962,25 +1001,34 @@
         <v>23</v>
       </c>
       <c r="R2" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="U2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="Z2" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -994,7 +1042,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:23" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>28</v>
       </c>
@@ -1034,34 +1082,43 @@
         <v>38</v>
       </c>
       <c r="O4" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="P4" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="P4" s="11" t="s">
+      <c r="Q4" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="Q4" s="11" t="s">
+      <c r="R4" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="S4" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="T4" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="R4" s="1" t="s">
+      <c r="U4" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="S4" s="1" t="s">
+      <c r="V4" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="T4" s="1" t="s">
+      <c r="W4" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="U4" s="1" t="s">
+      <c r="X4" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="V4" s="1" t="s">
+      <c r="Y4" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="W4" s="1" t="s">
+      <c r="Z4" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B5" s="2">
         <v>1</v>
       </c>
@@ -1094,35 +1151,44 @@
       <c r="N5" s="2">
         <v>2001</v>
       </c>
-      <c r="O5" s="2">
+      <c r="O5" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="P5" s="2">
         <v>6</v>
       </c>
-      <c r="P5" s="2">
+      <c r="Q5" s="2">
         <v>3</v>
       </c>
-      <c r="Q5" s="2">
-        <v>1</v>
-      </c>
       <c r="R5" s="2">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="S5" s="2">
+        <v>1</v>
+      </c>
+      <c r="T5" s="2">
+        <v>1</v>
+      </c>
+      <c r="U5" s="2">
+        <v>1</v>
+      </c>
+      <c r="V5" s="2">
         <v>0.4</v>
       </c>
-      <c r="T5" s="2">
-        <v>1</v>
-      </c>
-      <c r="U5" s="2">
+      <c r="W5" s="2">
+        <v>1</v>
+      </c>
+      <c r="X5" s="2">
         <v>0.05</v>
       </c>
-      <c r="V5" s="2">
+      <c r="Y5" s="2">
         <v>2000</v>
       </c>
-      <c r="W5" s="2">
+      <c r="Z5" s="2">
         <v>1001</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
       <c r="B6" s="2">
         <v>2</v>
@@ -1160,35 +1226,35 @@
       <c r="N6" s="2">
         <v>2002</v>
       </c>
-      <c r="O6" s="2">
-        <v>10</v>
-      </c>
-      <c r="P6" s="2">
+      <c r="O6" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q6" s="2">
         <v>3</v>
       </c>
-      <c r="Q6" s="2">
+      <c r="T6" s="2">
         <v>0.2</v>
       </c>
-      <c r="R6" s="2">
-        <v>1</v>
-      </c>
-      <c r="S6" s="2">
+      <c r="U6" s="2">
+        <v>1</v>
+      </c>
+      <c r="V6" s="2">
         <v>0</v>
       </c>
-      <c r="T6" s="2">
-        <v>1</v>
-      </c>
-      <c r="U6" s="2">
-        <v>1</v>
-      </c>
-      <c r="V6" s="2">
+      <c r="W6" s="2">
+        <v>1</v>
+      </c>
+      <c r="X6" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="2">
         <v>10000</v>
       </c>
-      <c r="W6" s="2">
+      <c r="Z6" s="2">
         <v>1002</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
       <c r="B7" s="2">
         <v>3</v>
@@ -1226,35 +1292,35 @@
       <c r="N7" s="2">
         <v>2003</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>10</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>3</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="T7" s="2">
         <v>0.2</v>
       </c>
-      <c r="R7" s="2">
-        <v>1</v>
-      </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
+        <v>1</v>
+      </c>
+      <c r="V7" s="2">
         <v>0</v>
       </c>
-      <c r="T7" s="2">
-        <v>1</v>
-      </c>
-      <c r="U7" s="2">
-        <v>1</v>
-      </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
+        <v>1</v>
+      </c>
+      <c r="X7" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="2">
         <v>10000</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Z7" s="2">
         <v>1002</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
       <c r="B8" s="2">
         <v>4</v>
@@ -1293,35 +1359,35 @@
       <c r="N8" s="2">
         <v>2004</v>
       </c>
-      <c r="O8" s="2">
+      <c r="P8" s="2">
         <v>10</v>
       </c>
-      <c r="P8" s="2">
+      <c r="Q8" s="2">
         <v>3</v>
       </c>
-      <c r="Q8" s="2">
+      <c r="T8" s="2">
         <v>0.2</v>
       </c>
-      <c r="R8" s="2">
-        <v>1</v>
-      </c>
-      <c r="S8" s="2">
+      <c r="U8" s="2">
+        <v>1</v>
+      </c>
+      <c r="V8" s="2">
         <v>0</v>
       </c>
-      <c r="T8" s="2">
-        <v>1</v>
-      </c>
-      <c r="U8" s="2">
-        <v>1</v>
-      </c>
-      <c r="V8" s="2">
+      <c r="W8" s="2">
+        <v>1</v>
+      </c>
+      <c r="X8" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y8" s="2">
         <v>10000</v>
       </c>
-      <c r="W8" s="2">
+      <c r="Z8" s="2">
         <v>1002</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
       <c r="B9" s="2">
         <v>5</v>
@@ -1359,35 +1425,35 @@
       <c r="N9" s="2">
         <v>2005</v>
       </c>
-      <c r="O9" s="2">
+      <c r="P9" s="2">
         <v>10</v>
       </c>
-      <c r="P9" s="2">
+      <c r="Q9" s="2">
         <v>3</v>
       </c>
-      <c r="Q9" s="2">
+      <c r="T9" s="2">
         <v>0.2</v>
       </c>
-      <c r="R9" s="2">
-        <v>1</v>
-      </c>
-      <c r="S9" s="2">
+      <c r="U9" s="2">
+        <v>1</v>
+      </c>
+      <c r="V9" s="2">
         <v>0</v>
       </c>
-      <c r="T9" s="2">
-        <v>1</v>
-      </c>
-      <c r="U9" s="2">
-        <v>1</v>
-      </c>
-      <c r="V9" s="2">
+      <c r="W9" s="2">
+        <v>1</v>
+      </c>
+      <c r="X9" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y9" s="2">
         <v>10000</v>
       </c>
-      <c r="W9" s="2">
+      <c r="Z9" s="2">
         <v>1002</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
       <c r="B10" s="2">
         <v>6</v>
@@ -1425,35 +1491,35 @@
       <c r="N10" s="2">
         <v>2006</v>
       </c>
-      <c r="O10" s="2">
+      <c r="P10" s="2">
         <v>10</v>
       </c>
-      <c r="P10" s="2">
+      <c r="Q10" s="2">
         <v>3</v>
       </c>
-      <c r="Q10" s="2">
+      <c r="T10" s="2">
         <v>0.2</v>
       </c>
-      <c r="R10" s="2">
-        <v>1</v>
-      </c>
-      <c r="S10" s="2">
+      <c r="U10" s="2">
+        <v>1</v>
+      </c>
+      <c r="V10" s="2">
         <v>0</v>
       </c>
-      <c r="T10" s="2">
-        <v>1</v>
-      </c>
-      <c r="U10" s="2">
-        <v>1</v>
-      </c>
-      <c r="V10" s="2">
+      <c r="W10" s="2">
+        <v>1</v>
+      </c>
+      <c r="X10" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y10" s="2">
         <v>10000</v>
       </c>
-      <c r="W10" s="2">
+      <c r="Z10" s="2">
         <v>1002</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
       <c r="B11" s="2">
         <v>7</v>
@@ -1489,35 +1555,35 @@
       <c r="N11" s="2">
         <v>2007</v>
       </c>
-      <c r="O11" s="2">
+      <c r="P11" s="2">
         <v>10</v>
       </c>
-      <c r="P11" s="2">
+      <c r="Q11" s="2">
         <v>3</v>
       </c>
-      <c r="Q11" s="2">
+      <c r="T11" s="2">
         <v>0.2</v>
       </c>
-      <c r="R11" s="2">
-        <v>1</v>
-      </c>
-      <c r="S11" s="2">
+      <c r="U11" s="2">
+        <v>1</v>
+      </c>
+      <c r="V11" s="2">
         <v>0</v>
       </c>
-      <c r="T11" s="2">
-        <v>1</v>
-      </c>
-      <c r="U11" s="2">
-        <v>1</v>
-      </c>
-      <c r="V11" s="2">
+      <c r="W11" s="2">
+        <v>1</v>
+      </c>
+      <c r="X11" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y11" s="2">
         <v>10000</v>
       </c>
-      <c r="W11" s="2">
+      <c r="Z11" s="2">
         <v>1002</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" s="6"/>
       <c r="B12" s="2">
         <v>8</v>
@@ -1555,35 +1621,35 @@
       <c r="N12" s="2">
         <v>2008</v>
       </c>
-      <c r="O12" s="2">
+      <c r="P12" s="2">
         <v>10</v>
       </c>
-      <c r="P12" s="2">
+      <c r="Q12" s="2">
         <v>3</v>
       </c>
-      <c r="Q12" s="2">
+      <c r="T12" s="2">
         <v>0.2</v>
       </c>
-      <c r="R12" s="2">
-        <v>1</v>
-      </c>
-      <c r="S12" s="2">
+      <c r="U12" s="2">
+        <v>1</v>
+      </c>
+      <c r="V12" s="2">
         <v>0</v>
       </c>
-      <c r="T12" s="2">
-        <v>1</v>
-      </c>
-      <c r="U12" s="2">
-        <v>1</v>
-      </c>
-      <c r="V12" s="2">
+      <c r="W12" s="2">
+        <v>1</v>
+      </c>
+      <c r="X12" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y12" s="2">
         <v>10000</v>
       </c>
-      <c r="W12" s="2">
+      <c r="Z12" s="2">
         <v>1002</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" s="6"/>
       <c r="B13" s="2">
         <v>9</v>
@@ -1619,35 +1685,35 @@
       <c r="N13" s="2">
         <v>2009</v>
       </c>
-      <c r="O13" s="2">
+      <c r="P13" s="2">
         <v>10</v>
       </c>
-      <c r="P13" s="2">
+      <c r="Q13" s="2">
         <v>3</v>
       </c>
-      <c r="Q13" s="2">
+      <c r="T13" s="2">
         <v>0.2</v>
       </c>
-      <c r="R13" s="2">
-        <v>1</v>
-      </c>
-      <c r="S13" s="2">
+      <c r="U13" s="2">
+        <v>1</v>
+      </c>
+      <c r="V13" s="2">
         <v>0</v>
       </c>
-      <c r="T13" s="2">
-        <v>1</v>
-      </c>
-      <c r="U13" s="2">
-        <v>1</v>
-      </c>
-      <c r="V13" s="2">
+      <c r="W13" s="2">
+        <v>1</v>
+      </c>
+      <c r="X13" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y13" s="2">
         <v>10000</v>
       </c>
-      <c r="W13" s="2">
+      <c r="Z13" s="2">
         <v>1002</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" s="6"/>
       <c r="B14" s="2">
         <v>10</v>
@@ -1685,35 +1751,35 @@
       <c r="N14" s="2">
         <v>2010</v>
       </c>
-      <c r="O14" s="2">
+      <c r="P14" s="2">
         <v>10</v>
       </c>
-      <c r="P14" s="2">
+      <c r="Q14" s="2">
         <v>3</v>
       </c>
-      <c r="Q14" s="2">
+      <c r="T14" s="2">
         <v>0.2</v>
       </c>
-      <c r="R14" s="2">
-        <v>1</v>
-      </c>
-      <c r="S14" s="2">
+      <c r="U14" s="2">
+        <v>1</v>
+      </c>
+      <c r="V14" s="2">
         <v>0</v>
       </c>
-      <c r="T14" s="2">
-        <v>1</v>
-      </c>
-      <c r="U14" s="2">
-        <v>1</v>
-      </c>
-      <c r="V14" s="2">
+      <c r="W14" s="2">
+        <v>1</v>
+      </c>
+      <c r="X14" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y14" s="2">
         <v>10000</v>
       </c>
-      <c r="W14" s="2">
+      <c r="Z14" s="2">
         <v>1002</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15" s="6"/>
       <c r="B15" s="2">
         <v>11</v>
@@ -1749,35 +1815,35 @@
       <c r="N15" s="2">
         <v>2011</v>
       </c>
-      <c r="O15" s="2">
+      <c r="P15" s="2">
         <v>10</v>
       </c>
-      <c r="P15" s="2">
+      <c r="Q15" s="2">
         <v>3</v>
       </c>
-      <c r="Q15" s="2">
+      <c r="T15" s="2">
         <v>0.2</v>
       </c>
-      <c r="R15" s="2">
-        <v>1</v>
-      </c>
-      <c r="S15" s="2">
+      <c r="U15" s="2">
+        <v>1</v>
+      </c>
+      <c r="V15" s="2">
         <v>0</v>
       </c>
-      <c r="T15" s="2">
-        <v>1</v>
-      </c>
-      <c r="U15" s="2">
-        <v>1</v>
-      </c>
-      <c r="V15" s="2">
+      <c r="W15" s="2">
+        <v>1</v>
+      </c>
+      <c r="X15" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y15" s="2">
         <v>10000</v>
       </c>
-      <c r="W15" s="2">
+      <c r="Z15" s="2">
         <v>1002</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16" s="6"/>
       <c r="B16" s="2">
         <v>12</v>
@@ -1815,31 +1881,31 @@
       <c r="N16" s="2">
         <v>2012</v>
       </c>
-      <c r="O16" s="2">
+      <c r="P16" s="2">
         <v>10</v>
       </c>
-      <c r="P16" s="2">
+      <c r="Q16" s="2">
         <v>3</v>
       </c>
-      <c r="Q16" s="2">
+      <c r="T16" s="2">
         <v>0.2</v>
       </c>
-      <c r="R16" s="2">
-        <v>1</v>
-      </c>
-      <c r="S16" s="2">
+      <c r="U16" s="2">
+        <v>1</v>
+      </c>
+      <c r="V16" s="2">
         <v>0</v>
       </c>
-      <c r="T16" s="2">
-        <v>1</v>
-      </c>
-      <c r="U16" s="2">
-        <v>1</v>
-      </c>
-      <c r="V16" s="2">
+      <c r="W16" s="2">
+        <v>1</v>
+      </c>
+      <c r="X16" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y16" s="2">
         <v>10000</v>
       </c>
-      <c r="W16" s="2">
+      <c r="Z16" s="2">
         <v>1002</v>
       </c>
     </row>
@@ -1924,6 +1990,6 @@
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/_ConfigExcels/Datas/weapon.xlsx
+++ b/_ConfigExcels/Datas/weapon.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="106">
   <si>
     <t>##var</t>
   </si>
@@ -77,9 +77,6 @@
   </si>
   <si>
     <t>column_space</t>
-  </si>
-  <si>
-    <t>bullet_scale</t>
   </si>
   <si>
     <t>level_id</t>
@@ -402,6 +399,23 @@
   </si>
   <si>
     <t>float</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Bullet_Player_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -880,7 +894,7 @@
   <dimension ref="A1:Z26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="U13" sqref="U13"/>
+      <selection activeCell="Y1" sqref="Y1:Y2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -940,10 +954,10 @@
         <v>9</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>10</v>
@@ -960,72 +974,66 @@
       <c r="X1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="12" t="s">
         <v>19</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>20</v>
       </c>
       <c r="E2" s="13"/>
       <c r="F2" s="14"/>
       <c r="H2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="N2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z2" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1033,89 +1041,89 @@
         <v>0</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="5" t="s">
         <v>26</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:26" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="12" t="s">
         <v>29</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>30</v>
       </c>
       <c r="E4" s="13"/>
       <c r="F4" s="14"/>
       <c r="G4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="M4" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="M4" s="11" t="s">
+      <c r="N4" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="N4" s="11" t="s">
+      <c r="O4" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="P4" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="O4" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="P4" s="11" t="s">
+      <c r="Q4" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="Q4" s="11" t="s">
+      <c r="R4" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="S4" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="T4" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="R4" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="S4" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="T4" s="11" t="s">
+      <c r="U4" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="U4" s="1" t="s">
+      <c r="V4" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="V4" s="1" t="s">
+      <c r="W4" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="W4" s="1" t="s">
+      <c r="X4" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="X4" s="1" t="s">
+      <c r="Y4" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="Y4" s="1" t="s">
+      <c r="Z4" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="Z4" s="1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.2">
@@ -1123,36 +1131,36 @@
         <v>1</v>
       </c>
       <c r="C5" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>48</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>49</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H5" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="I5" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="J5" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="L5" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="L5" s="6" t="s">
+      <c r="M5" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="N5" s="2">
         <v>2001</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="P5" s="2">
         <v>6</v>
@@ -1194,46 +1202,55 @@
         <v>2</v>
       </c>
       <c r="C6" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="E6" s="6" t="s">
         <v>57</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>58</v>
       </c>
       <c r="F6" s="6">
         <v>2</v>
       </c>
       <c r="G6" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="I6" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="H6" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="I6" s="6" t="s">
+      <c r="J6" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="J6" s="6" t="s">
-        <v>61</v>
-      </c>
       <c r="L6" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>105</v>
       </c>
       <c r="N6" s="2">
         <v>2002</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0</v>
       </c>
       <c r="Q6" s="2">
         <v>3</v>
       </c>
+      <c r="R6" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="S6" s="2">
+        <v>99</v>
+      </c>
       <c r="T6" s="2">
-        <v>0.2</v>
+        <v>2</v>
       </c>
       <c r="U6" s="2">
         <v>1</v>
@@ -1260,34 +1277,34 @@
         <v>3</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D7" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>57</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>58</v>
       </c>
       <c r="F7" s="6">
         <v>3</v>
       </c>
       <c r="G7" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="I7" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="H7" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="I7" s="6" t="s">
+      <c r="J7" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="J7" s="6" t="s">
-        <v>65</v>
-      </c>
       <c r="L7" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="M7" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="N7" s="2">
         <v>2003</v>
@@ -1326,35 +1343,35 @@
         <v>4</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D8" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>57</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>58</v>
       </c>
       <c r="F8" s="6">
         <v>5</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H8" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="I8" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="J8" s="6" t="s">
         <v>68</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>69</v>
       </c>
       <c r="K8" s="6"/>
       <c r="L8" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="M8" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="N8" s="2">
         <v>2004</v>
@@ -1393,34 +1410,34 @@
         <v>5</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D9" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>57</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>58</v>
       </c>
       <c r="F9" s="6">
         <v>10</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I9" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="J9" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="J9" s="6" t="s">
-        <v>72</v>
-      </c>
       <c r="L9" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="M9" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="N9" s="2">
         <v>2005</v>
@@ -1459,34 +1476,34 @@
         <v>6</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D10" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>57</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>58</v>
       </c>
       <c r="F10" s="6">
         <v>15</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I10" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="J10" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="J10" s="6" t="s">
-        <v>75</v>
-      </c>
       <c r="L10" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="M10" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="N10" s="2">
         <v>2006</v>
@@ -1525,32 +1542,32 @@
         <v>7</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D11" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>57</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>58</v>
       </c>
       <c r="F11" s="6">
         <v>20</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J11" s="6"/>
       <c r="L11" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="M11" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="N11" s="2">
         <v>2007</v>
@@ -1589,34 +1606,34 @@
         <v>8</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D12" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" s="6" t="s">
         <v>57</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>58</v>
       </c>
       <c r="F12" s="6">
         <v>25</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I12" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="J12" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="J12" s="6" t="s">
-        <v>80</v>
-      </c>
       <c r="L12" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="M12" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="N12" s="2">
         <v>2008</v>
@@ -1655,32 +1672,32 @@
         <v>9</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D13" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" s="6" t="s">
         <v>57</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>58</v>
       </c>
       <c r="F13" s="6">
         <v>30</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J13" s="6"/>
       <c r="L13" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="M13" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="N13" s="2">
         <v>2009</v>
@@ -1719,34 +1736,34 @@
         <v>10</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D14" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" s="6" t="s">
         <v>57</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>58</v>
       </c>
       <c r="F14" s="6">
         <v>35</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H14" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="I14" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="I14" s="6" t="s">
+      <c r="J14" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="J14" s="6" t="s">
-        <v>86</v>
-      </c>
       <c r="L14" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="M14" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="N14" s="2">
         <v>2010</v>
@@ -1785,32 +1802,32 @@
         <v>11</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D15" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" s="6" t="s">
         <v>57</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>58</v>
       </c>
       <c r="F15" s="6">
         <v>40</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J15" s="6"/>
       <c r="L15" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="M15" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="M15" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="N15" s="2">
         <v>2011</v>
@@ -1849,34 +1866,34 @@
         <v>12</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D16" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" s="6" t="s">
         <v>57</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>58</v>
       </c>
       <c r="F16" s="6">
         <v>45</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I16" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="J16" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="J16" s="6" t="s">
-        <v>91</v>
-      </c>
       <c r="L16" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="M16" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="M16" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="N16" s="2">
         <v>2012</v>
@@ -1911,7 +1928,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
@@ -1921,7 +1938,7 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
@@ -1931,7 +1948,7 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
@@ -1941,7 +1958,7 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
@@ -1951,7 +1968,7 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
@@ -1961,25 +1978,25 @@
     </row>
     <row r="26" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B26" s="2">
         <v>6</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
       <c r="G26" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="I26" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="I26" s="6" t="s">
+      <c r="J26" s="6" t="s">
         <v>95</v>
-      </c>
-      <c r="J26" s="6" t="s">
-        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/_ConfigExcels/Datas/weapon.xlsx
+++ b/_ConfigExcels/Datas/weapon.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="105">
   <si>
     <t>##var</t>
   </si>
@@ -59,9 +59,6 @@
   </si>
   <si>
     <t>bullet_speed</t>
-  </si>
-  <si>
-    <t>max_lifetime</t>
   </si>
   <si>
     <t>rate_of_fire</t>
@@ -150,9 +147,6 @@
   </si>
   <si>
     <t>子弹飞行速度</t>
-  </si>
-  <si>
-    <t>最长生存时间（秒）</t>
   </si>
   <si>
     <t>发射频率
@@ -402,20 +396,12 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>Bullet_Player_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
+    <t>Bullet_Player_2_0</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>最长生存时间（秒）
+不走表了，转阶段不方便</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -571,7 +557,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -609,11 +595,17 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -893,8 +885,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="Y1" sqref="Y1:Y2"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -910,7 +902,9 @@
     <col min="11" max="12" width="29" style="2" customWidth="1"/>
     <col min="13" max="14" width="35.5" style="2" customWidth="1"/>
     <col min="15" max="15" width="17.25" style="2" customWidth="1"/>
-    <col min="16" max="19" width="20.5" style="2" customWidth="1"/>
+    <col min="16" max="16" width="20.5" style="2" customWidth="1"/>
+    <col min="17" max="17" width="12.625" style="2" customWidth="1"/>
+    <col min="18" max="19" width="20.5" style="2" customWidth="1"/>
     <col min="20" max="20" width="19" style="2" customWidth="1"/>
     <col min="21" max="22" width="18.75" style="2" customWidth="1"/>
     <col min="23" max="23" width="16" style="2" customWidth="1"/>
@@ -930,11 +924,11 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="13"/>
-      <c r="F1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="15"/>
       <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
@@ -950,90 +944,86 @@
       <c r="P1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="12"/>
+      <c r="R1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="R1" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="E2" s="14"/>
+      <c r="F2" s="15"/>
+      <c r="H2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="13"/>
-      <c r="F2" s="14"/>
-      <c r="H2" s="1" t="s">
+      <c r="L2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="N2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="12"/>
+      <c r="R2" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z2" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1041,89 +1031,90 @@
         <v>0</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="Q3" s="12"/>
+    </row>
+    <row r="4" spans="1:26" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="4" spans="1:26" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="E4" s="14"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="13"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="M4" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="M4" s="11" t="s">
+      <c r="N4" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="N4" s="11" t="s">
+      <c r="O4" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="P4" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="O4" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="P4" s="11" t="s">
+      <c r="Q4" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="R4" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="S4" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="T4" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="Q4" s="11" t="s">
+      <c r="U4" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="S4" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="T4" s="11" t="s">
+      <c r="V4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="U4" s="1" t="s">
+      <c r="W4" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="V4" s="1" t="s">
+      <c r="X4" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="W4" s="1" t="s">
+      <c r="Y4" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="X4" s="1" t="s">
+      <c r="Z4" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="Y4" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z4" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.2">
@@ -1131,36 +1122,36 @@
         <v>1</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="I5" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="J5" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="L5" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="M5" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="L5" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="N5" s="2">
         <v>2001</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P5" s="2">
         <v>6</v>
@@ -1202,40 +1193,40 @@
         <v>2</v>
       </c>
       <c r="C6" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>55</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>57</v>
       </c>
       <c r="F6" s="6">
         <v>2</v>
       </c>
       <c r="G6" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="J6" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="H6" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>60</v>
-      </c>
       <c r="L6" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="N6" s="2">
         <v>2002</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="P6" s="2">
         <v>0</v>
@@ -1277,34 +1268,34 @@
         <v>3</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F7" s="6">
         <v>3</v>
       </c>
       <c r="G7" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="J7" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="H7" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>64</v>
-      </c>
       <c r="L7" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="N7" s="2">
         <v>2003</v>
@@ -1343,35 +1334,35 @@
         <v>4</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F8" s="6">
         <v>5</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H8" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="J8" s="6" t="s">
         <v>66</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>68</v>
       </c>
       <c r="K8" s="6"/>
       <c r="L8" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="N8" s="2">
         <v>2004</v>
@@ -1410,34 +1401,34 @@
         <v>5</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F9" s="6">
         <v>10</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="N9" s="2">
         <v>2005</v>
@@ -1476,34 +1467,34 @@
         <v>6</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F10" s="6">
         <v>15</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="N10" s="2">
         <v>2006</v>
@@ -1542,32 +1533,32 @@
         <v>7</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F11" s="6">
         <v>20</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J11" s="6"/>
       <c r="L11" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="N11" s="2">
         <v>2007</v>
@@ -1606,34 +1597,34 @@
         <v>8</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F12" s="6">
         <v>25</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="N12" s="2">
         <v>2008</v>
@@ -1672,32 +1663,32 @@
         <v>9</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F13" s="6">
         <v>30</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J13" s="6"/>
       <c r="L13" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="N13" s="2">
         <v>2009</v>
@@ -1736,34 +1727,34 @@
         <v>10</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F14" s="6">
         <v>35</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H14" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="J14" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="I14" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="J14" s="6" t="s">
-        <v>85</v>
-      </c>
       <c r="L14" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="N14" s="2">
         <v>2010</v>
@@ -1802,32 +1793,32 @@
         <v>11</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F15" s="6">
         <v>40</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J15" s="6"/>
       <c r="L15" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="N15" s="2">
         <v>2011</v>
@@ -1866,34 +1857,34 @@
         <v>12</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F16" s="6">
         <v>45</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L16" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="N16" s="2">
         <v>2012</v>
@@ -1928,7 +1919,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
@@ -1938,7 +1929,7 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
@@ -1948,7 +1939,7 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
@@ -1958,7 +1949,7 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
@@ -1968,7 +1959,7 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
@@ -1978,25 +1969,25 @@
     </row>
     <row r="26" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B26" s="2">
         <v>6</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
       <c r="G26" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="J26" s="6" t="s">
         <v>93</v>
-      </c>
-      <c r="I26" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="J26" s="6" t="s">
-        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/_ConfigExcels/Datas/weapon.xlsx
+++ b/_ConfigExcels/Datas/weapon.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="89">
   <si>
     <t>##var</t>
   </si>
@@ -52,24 +52,15 @@
     <t>image_icon_path</t>
   </si>
   <si>
-    <t>bullet_prefab</t>
-  </si>
-  <si>
     <t>piece</t>
   </si>
   <si>
-    <t>bullet_speed</t>
-  </si>
-  <si>
     <t>rate_of_fire</t>
   </si>
   <si>
     <t>row_count</t>
   </si>
   <si>
-    <t>row_space</t>
-  </si>
-  <si>
     <t>column_count</t>
   </si>
   <si>
@@ -139,14 +130,7 @@
     <t>图片资源索引</t>
   </si>
   <si>
-    <t>子弹预制体地址
-（相对于Resources/Prefabs/Bullets）</t>
-  </si>
-  <si>
     <t>绑定的碎片ID</t>
-  </si>
-  <si>
-    <t>子弹飞行速度</t>
   </si>
   <si>
     <t>发射频率
@@ -156,16 +140,10 @@
     <t>基础1行几个</t>
   </si>
   <si>
-    <t>间隔像素</t>
-  </si>
-  <si>
     <t>基础连发几次</t>
   </si>
   <si>
     <t>连发间隔（秒）</t>
-  </si>
-  <si>
-    <t>子弹基础缩放</t>
   </si>
   <si>
     <t>等级组id（伤害等养成）</t>
@@ -213,9 +191,6 @@
     </r>
   </si>
   <si>
-    <t>Bullet_Player_1</t>
-  </si>
-  <si>
     <t>磁轨炮</t>
   </si>
   <si>
@@ -361,47 +336,15 @@
     <t>持续时间、碰撞面积、debuff减速等</t>
   </si>
   <si>
-    <t>子弹类型</t>
+    <t>bullet_id</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>GUN</t>
+    <t>子弹ID</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>LASER</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>基础子弹进行X次攻击后销毁（穿透）</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>基础单次子弹对同一个单位的伤害间隔（秒）</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>penetrate</t>
-  </si>
-  <si>
-    <t>penetrate_interval</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>float</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bullet_Player_2_0</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>最长生存时间（秒）
-不走表了，转阶段不方便</t>
+    <t>int#ref=Tbweapon.Bullet</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -557,7 +500,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -595,17 +538,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -883,10 +820,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z26"/>
+  <dimension ref="A1:S26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -901,20 +838,15 @@
     <col min="10" max="10" width="40.375" style="2" customWidth="1"/>
     <col min="11" max="12" width="29" style="2" customWidth="1"/>
     <col min="13" max="14" width="35.5" style="2" customWidth="1"/>
-    <col min="15" max="15" width="17.25" style="2" customWidth="1"/>
-    <col min="16" max="16" width="20.5" style="2" customWidth="1"/>
-    <col min="17" max="17" width="12.625" style="2" customWidth="1"/>
-    <col min="18" max="19" width="20.5" style="2" customWidth="1"/>
-    <col min="20" max="20" width="19" style="2" customWidth="1"/>
-    <col min="21" max="22" width="18.75" style="2" customWidth="1"/>
-    <col min="23" max="23" width="16" style="2" customWidth="1"/>
-    <col min="24" max="24" width="20.625" style="2" customWidth="1"/>
-    <col min="25" max="25" width="23" style="2" customWidth="1"/>
-    <col min="26" max="26" width="38.125" style="2" customWidth="1"/>
-    <col min="27" max="16384" width="9" style="2"/>
+    <col min="15" max="15" width="19" style="2" customWidth="1"/>
+    <col min="16" max="16" width="18.75" style="2" customWidth="1"/>
+    <col min="17" max="17" width="16" style="2" customWidth="1"/>
+    <col min="18" max="18" width="20.625" style="2" customWidth="1"/>
+    <col min="19" max="19" width="38.125" style="2" customWidth="1"/>
+    <col min="20" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -924,11 +856,11 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="14"/>
-      <c r="F1" s="15"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="14"/>
       <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
@@ -936,990 +868,780 @@
         <v>5</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" s="12"/>
+      <c r="Q1" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="R1" s="1" t="s">
-        <v>101</v>
+        <v>10</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="V1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="W1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="D2" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="E2" s="13"/>
+      <c r="F2" s="14"/>
+      <c r="H2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="L2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="O2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="14"/>
-      <c r="F2" s="15"/>
-      <c r="H2" s="1" t="s">
+      <c r="P2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="S2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="D4" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="Q3" s="12"/>
-    </row>
-    <row r="4" spans="1:26" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="E4" s="13"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="I4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="14"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="M4" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="N4" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="O4" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="P4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="M4" s="11" t="s">
+      <c r="Q4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="N4" s="11" t="s">
+      <c r="R4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="O4" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="P4" s="11" t="s">
+      <c r="S4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="Q4" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="R4" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="S4" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="T4" s="11" t="s">
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="U4" s="1" t="s">
+      <c r="D5" s="6" t="s">
         <v>39</v>
-      </c>
-      <c r="V4" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="W4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="X4" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y4" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z4" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B5" s="2">
-        <v>1</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>46</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
+      </c>
+      <c r="M5" s="2">
+        <v>100</v>
       </c>
       <c r="N5" s="2">
         <v>2001</v>
       </c>
-      <c r="O5" s="2" t="s">
-        <v>95</v>
+      <c r="O5" s="2">
+        <v>1</v>
       </c>
       <c r="P5" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="Q5" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R5" s="2">
-        <v>99</v>
+        <v>0.05</v>
       </c>
       <c r="S5" s="2">
-        <v>1</v>
-      </c>
-      <c r="T5" s="2">
-        <v>1</v>
-      </c>
-      <c r="U5" s="2">
-        <v>1</v>
-      </c>
-      <c r="V5" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="W5" s="2">
-        <v>1</v>
-      </c>
-      <c r="X5" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="Y5" s="2">
-        <v>2000</v>
-      </c>
-      <c r="Z5" s="2">
         <v>1001</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
       <c r="B6" s="2">
         <v>2</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="F6" s="6">
         <v>2</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="M6" s="6" t="s">
-        <v>103</v>
+        <v>44</v>
+      </c>
+      <c r="M6" s="2">
+        <v>201</v>
       </c>
       <c r="N6" s="2">
         <v>2002</v>
       </c>
-      <c r="O6" s="2" t="s">
-        <v>96</v>
+      <c r="O6" s="2">
+        <v>2</v>
       </c>
       <c r="P6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R6" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="S6" s="2">
-        <v>99</v>
-      </c>
-      <c r="T6" s="2">
-        <v>2</v>
-      </c>
-      <c r="U6" s="2">
-        <v>1</v>
-      </c>
-      <c r="V6" s="2">
-        <v>0</v>
-      </c>
-      <c r="W6" s="2">
-        <v>1</v>
-      </c>
-      <c r="X6" s="2">
-        <v>1</v>
-      </c>
-      <c r="Y6" s="2">
-        <v>10000</v>
-      </c>
-      <c r="Z6" s="2">
         <v>1002</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
       <c r="B7" s="2">
         <v>3</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="F7" s="6">
         <v>3</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
+      </c>
+      <c r="M7" s="2">
+        <v>100</v>
       </c>
       <c r="N7" s="2">
         <v>2003</v>
       </c>
+      <c r="O7" s="2">
+        <v>0.2</v>
+      </c>
       <c r="P7" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="Q7" s="2">
-        <v>3</v>
-      </c>
-      <c r="T7" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="U7" s="2">
-        <v>1</v>
-      </c>
-      <c r="V7" s="2">
-        <v>0</v>
-      </c>
-      <c r="W7" s="2">
-        <v>1</v>
-      </c>
-      <c r="X7" s="2">
-        <v>1</v>
-      </c>
-      <c r="Y7" s="2">
-        <v>10000</v>
-      </c>
-      <c r="Z7" s="2">
+        <v>1</v>
+      </c>
+      <c r="R7" s="2">
+        <v>1</v>
+      </c>
+      <c r="S7" s="2">
         <v>1002</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
       <c r="B8" s="2">
         <v>4</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="F8" s="6">
         <v>5</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="K8" s="6"/>
       <c r="L8" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
+      </c>
+      <c r="M8" s="2">
+        <v>100</v>
       </c>
       <c r="N8" s="2">
         <v>2004</v>
       </c>
+      <c r="O8" s="2">
+        <v>0.2</v>
+      </c>
       <c r="P8" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="Q8" s="2">
-        <v>3</v>
-      </c>
-      <c r="T8" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="U8" s="2">
-        <v>1</v>
-      </c>
-      <c r="V8" s="2">
-        <v>0</v>
-      </c>
-      <c r="W8" s="2">
-        <v>1</v>
-      </c>
-      <c r="X8" s="2">
-        <v>1</v>
-      </c>
-      <c r="Y8" s="2">
-        <v>10000</v>
-      </c>
-      <c r="Z8" s="2">
+        <v>1</v>
+      </c>
+      <c r="R8" s="2">
+        <v>1</v>
+      </c>
+      <c r="S8" s="2">
         <v>1002</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
       <c r="B9" s="2">
         <v>5</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="F9" s="6">
         <v>10</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
+      </c>
+      <c r="M9" s="2">
+        <v>100</v>
       </c>
       <c r="N9" s="2">
         <v>2005</v>
       </c>
+      <c r="O9" s="2">
+        <v>0.2</v>
+      </c>
       <c r="P9" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="Q9" s="2">
-        <v>3</v>
-      </c>
-      <c r="T9" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="U9" s="2">
-        <v>1</v>
-      </c>
-      <c r="V9" s="2">
-        <v>0</v>
-      </c>
-      <c r="W9" s="2">
-        <v>1</v>
-      </c>
-      <c r="X9" s="2">
-        <v>1</v>
-      </c>
-      <c r="Y9" s="2">
-        <v>10000</v>
-      </c>
-      <c r="Z9" s="2">
+        <v>1</v>
+      </c>
+      <c r="R9" s="2">
+        <v>1</v>
+      </c>
+      <c r="S9" s="2">
         <v>1002</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
       <c r="B10" s="2">
         <v>6</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="F10" s="6">
         <v>15</v>
       </c>
       <c r="G10" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="H10" s="8" t="s">
+      <c r="I10" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="J10" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="I10" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>72</v>
-      </c>
       <c r="L10" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
+      </c>
+      <c r="M10" s="2">
+        <v>100</v>
       </c>
       <c r="N10" s="2">
         <v>2006</v>
       </c>
+      <c r="O10" s="2">
+        <v>0.2</v>
+      </c>
       <c r="P10" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="Q10" s="2">
-        <v>3</v>
-      </c>
-      <c r="T10" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="U10" s="2">
-        <v>1</v>
-      </c>
-      <c r="V10" s="2">
-        <v>0</v>
-      </c>
-      <c r="W10" s="2">
-        <v>1</v>
-      </c>
-      <c r="X10" s="2">
-        <v>1</v>
-      </c>
-      <c r="Y10" s="2">
-        <v>10000</v>
-      </c>
-      <c r="Z10" s="2">
+        <v>1</v>
+      </c>
+      <c r="R10" s="2">
+        <v>1</v>
+      </c>
+      <c r="S10" s="2">
         <v>1002</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
       <c r="B11" s="2">
         <v>7</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="F11" s="6">
         <v>20</v>
       </c>
       <c r="G11" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H11" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="H11" s="8" t="s">
-        <v>64</v>
-      </c>
       <c r="I11" s="6" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="J11" s="6"/>
       <c r="L11" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
+      </c>
+      <c r="M11" s="2">
+        <v>100</v>
       </c>
       <c r="N11" s="2">
         <v>2007</v>
       </c>
+      <c r="O11" s="2">
+        <v>0.2</v>
+      </c>
       <c r="P11" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="Q11" s="2">
-        <v>3</v>
-      </c>
-      <c r="T11" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="U11" s="2">
-        <v>1</v>
-      </c>
-      <c r="V11" s="2">
-        <v>0</v>
-      </c>
-      <c r="W11" s="2">
-        <v>1</v>
-      </c>
-      <c r="X11" s="2">
-        <v>1</v>
-      </c>
-      <c r="Y11" s="2">
-        <v>10000</v>
-      </c>
-      <c r="Z11" s="2">
+        <v>1</v>
+      </c>
+      <c r="R11" s="2">
+        <v>1</v>
+      </c>
+      <c r="S11" s="2">
         <v>1002</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="6"/>
       <c r="B12" s="2">
         <v>8</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="F12" s="6">
         <v>25</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
+      </c>
+      <c r="M12" s="2">
+        <v>100</v>
       </c>
       <c r="N12" s="2">
         <v>2008</v>
       </c>
+      <c r="O12" s="2">
+        <v>0.2</v>
+      </c>
       <c r="P12" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="Q12" s="2">
-        <v>3</v>
-      </c>
-      <c r="T12" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="U12" s="2">
-        <v>1</v>
-      </c>
-      <c r="V12" s="2">
-        <v>0</v>
-      </c>
-      <c r="W12" s="2">
-        <v>1</v>
-      </c>
-      <c r="X12" s="2">
-        <v>1</v>
-      </c>
-      <c r="Y12" s="2">
-        <v>10000</v>
-      </c>
-      <c r="Z12" s="2">
+        <v>1</v>
+      </c>
+      <c r="R12" s="2">
+        <v>1</v>
+      </c>
+      <c r="S12" s="2">
         <v>1002</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" s="6"/>
       <c r="B13" s="2">
         <v>9</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="F13" s="6">
         <v>30</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="J13" s="6"/>
       <c r="L13" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
+      </c>
+      <c r="M13" s="2">
+        <v>100</v>
       </c>
       <c r="N13" s="2">
         <v>2009</v>
       </c>
+      <c r="O13" s="2">
+        <v>0.2</v>
+      </c>
       <c r="P13" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="Q13" s="2">
-        <v>3</v>
-      </c>
-      <c r="T13" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="U13" s="2">
-        <v>1</v>
-      </c>
-      <c r="V13" s="2">
-        <v>0</v>
-      </c>
-      <c r="W13" s="2">
-        <v>1</v>
-      </c>
-      <c r="X13" s="2">
-        <v>1</v>
-      </c>
-      <c r="Y13" s="2">
-        <v>10000</v>
-      </c>
-      <c r="Z13" s="2">
+        <v>1</v>
+      </c>
+      <c r="R13" s="2">
+        <v>1</v>
+      </c>
+      <c r="S13" s="2">
         <v>1002</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="6"/>
       <c r="B14" s="2">
         <v>10</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="F14" s="6">
         <v>35</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
+      </c>
+      <c r="M14" s="2">
+        <v>100</v>
       </c>
       <c r="N14" s="2">
         <v>2010</v>
       </c>
+      <c r="O14" s="2">
+        <v>0.2</v>
+      </c>
       <c r="P14" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="Q14" s="2">
-        <v>3</v>
-      </c>
-      <c r="T14" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="U14" s="2">
-        <v>1</v>
-      </c>
-      <c r="V14" s="2">
-        <v>0</v>
-      </c>
-      <c r="W14" s="2">
-        <v>1</v>
-      </c>
-      <c r="X14" s="2">
-        <v>1</v>
-      </c>
-      <c r="Y14" s="2">
-        <v>10000</v>
-      </c>
-      <c r="Z14" s="2">
+        <v>1</v>
+      </c>
+      <c r="R14" s="2">
+        <v>1</v>
+      </c>
+      <c r="S14" s="2">
         <v>1002</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="6"/>
       <c r="B15" s="2">
         <v>11</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="F15" s="6">
         <v>40</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="J15" s="6"/>
       <c r="L15" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="M15" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
+      </c>
+      <c r="M15" s="2">
+        <v>100</v>
       </c>
       <c r="N15" s="2">
         <v>2011</v>
       </c>
+      <c r="O15" s="2">
+        <v>0.2</v>
+      </c>
       <c r="P15" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="Q15" s="2">
-        <v>3</v>
-      </c>
-      <c r="T15" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="U15" s="2">
-        <v>1</v>
-      </c>
-      <c r="V15" s="2">
-        <v>0</v>
-      </c>
-      <c r="W15" s="2">
-        <v>1</v>
-      </c>
-      <c r="X15" s="2">
-        <v>1</v>
-      </c>
-      <c r="Y15" s="2">
-        <v>10000</v>
-      </c>
-      <c r="Z15" s="2">
+        <v>1</v>
+      </c>
+      <c r="R15" s="2">
+        <v>1</v>
+      </c>
+      <c r="S15" s="2">
         <v>1002</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" s="6"/>
       <c r="B16" s="2">
         <v>12</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="F16" s="6">
         <v>45</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="L16" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="M16" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
+      </c>
+      <c r="M16" s="2">
+        <v>100</v>
       </c>
       <c r="N16" s="2">
         <v>2012</v>
       </c>
+      <c r="O16" s="2">
+        <v>0.2</v>
+      </c>
       <c r="P16" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="Q16" s="2">
-        <v>3</v>
-      </c>
-      <c r="T16" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="U16" s="2">
-        <v>1</v>
-      </c>
-      <c r="V16" s="2">
-        <v>0</v>
-      </c>
-      <c r="W16" s="2">
-        <v>1</v>
-      </c>
-      <c r="X16" s="2">
-        <v>1</v>
-      </c>
-      <c r="Y16" s="2">
-        <v>10000</v>
-      </c>
-      <c r="Z16" s="2">
+        <v>1</v>
+      </c>
+      <c r="R16" s="2">
+        <v>1</v>
+      </c>
+      <c r="S16" s="2">
         <v>1002</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
@@ -1929,7 +1651,7 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
@@ -1939,7 +1661,7 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
@@ -1949,7 +1671,7 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
@@ -1959,7 +1681,7 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
@@ -1969,25 +1691,25 @@
     </row>
     <row r="26" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B26" s="2">
         <v>6</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
       <c r="G26" s="10" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="J26" s="6" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/_ConfigExcels/Datas/weapon.xlsx
+++ b/_ConfigExcels/Datas/weapon.xlsx
@@ -822,8 +822,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -832,18 +832,18 @@
     <col min="3" max="3" width="12.625" style="2" customWidth="1"/>
     <col min="4" max="5" width="17.875" style="2" customWidth="1"/>
     <col min="6" max="6" width="12.625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="26.125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="11.25" style="2" customWidth="1"/>
-    <col min="9" max="9" width="66" style="2" customWidth="1"/>
-    <col min="10" max="10" width="40.375" style="2" customWidth="1"/>
-    <col min="11" max="12" width="29" style="2" customWidth="1"/>
-    <col min="13" max="14" width="35.5" style="2" customWidth="1"/>
-    <col min="15" max="15" width="19" style="2" customWidth="1"/>
-    <col min="16" max="16" width="18.75" style="2" customWidth="1"/>
-    <col min="17" max="17" width="16" style="2" customWidth="1"/>
-    <col min="18" max="18" width="20.625" style="2" customWidth="1"/>
-    <col min="19" max="19" width="38.125" style="2" customWidth="1"/>
-    <col min="20" max="16384" width="9" style="2"/>
+    <col min="7" max="7" width="11.25" style="2" customWidth="1"/>
+    <col min="8" max="8" width="33.375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="26.125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="66" style="2" customWidth="1"/>
+    <col min="11" max="11" width="40.375" style="2" customWidth="1"/>
+    <col min="12" max="13" width="29" style="2" customWidth="1"/>
+    <col min="14" max="15" width="35.5" style="2" customWidth="1"/>
+    <col min="16" max="16" width="19" style="2" customWidth="1"/>
+    <col min="17" max="17" width="18.75" style="2" customWidth="1"/>
+    <col min="18" max="18" width="16" style="2" customWidth="1"/>
+    <col min="19" max="20" width="20.625" style="2" customWidth="1"/>
+    <col min="21" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -861,32 +861,32 @@
       </c>
       <c r="E1" s="13"/>
       <c r="F1" s="14"/>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="H1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -904,32 +904,32 @@
       </c>
       <c r="E2" s="13"/>
       <c r="F2" s="14"/>
+      <c r="G2" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="H2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="Q2" s="1" t="s">
         <v>13</v>
       </c>
       <c r="R2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S2" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -962,43 +962,43 @@
       <c r="E4" s="13"/>
       <c r="F4" s="14"/>
       <c r="G4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="N4" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="N4" s="11" t="s">
+      <c r="O4" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="O4" s="11" t="s">
+      <c r="P4" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="P4" s="1" t="s">
+      <c r="Q4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="Q4" s="1" t="s">
+      <c r="R4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="R4" s="1" t="s">
+      <c r="S4" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
@@ -1013,30 +1013,30 @@
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" s="2">
+        <v>1001</v>
+      </c>
+      <c r="I5" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="I5" s="6" t="s">
+      <c r="J5" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="K5" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="L5" s="6" t="s">
+      <c r="M5" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="M5" s="2">
-        <v>100</v>
-      </c>
       <c r="N5" s="2">
+        <v>300</v>
+      </c>
+      <c r="O5" s="2">
         <v>2001</v>
       </c>
-      <c r="O5" s="2">
-        <v>1</v>
-      </c>
       <c r="P5" s="2">
         <v>1</v>
       </c>
@@ -1044,10 +1044,10 @@
         <v>1</v>
       </c>
       <c r="R5" s="2">
+        <v>1</v>
+      </c>
+      <c r="S5" s="2">
         <v>0.05</v>
-      </c>
-      <c r="S5" s="2">
-        <v>1001</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
@@ -1067,32 +1067,32 @@
       <c r="F6" s="6">
         <v>2</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" s="2">
+        <v>1002</v>
+      </c>
+      <c r="I6" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="H6" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="I6" s="6" t="s">
+      <c r="J6" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="K6" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="L6" s="6" t="s">
+      <c r="M6" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="M6" s="2">
+      <c r="N6" s="2">
         <v>201</v>
       </c>
-      <c r="N6" s="2">
+      <c r="O6" s="2">
         <v>2002</v>
       </c>
-      <c r="O6" s="2">
-        <v>2</v>
-      </c>
       <c r="P6" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Q6" s="2">
         <v>1</v>
@@ -1101,7 +1101,7 @@
         <v>1</v>
       </c>
       <c r="S6" s="2">
-        <v>1002</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
@@ -1121,41 +1121,41 @@
       <c r="F7" s="6">
         <v>3</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" s="2">
+        <v>1002</v>
+      </c>
+      <c r="I7" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="H7" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="I7" s="6" t="s">
+      <c r="J7" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="J7" s="6" t="s">
+      <c r="K7" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="L7" s="6" t="s">
+      <c r="M7" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="M7" s="2">
-        <v>100</v>
-      </c>
       <c r="N7" s="2">
+        <v>300</v>
+      </c>
+      <c r="O7" s="2">
         <v>2003</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>1</v>
+      </c>
+      <c r="R7" s="2">
+        <v>1</v>
+      </c>
+      <c r="S7" s="2">
         <v>0.2</v>
-      </c>
-      <c r="P7" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="2">
-        <v>1</v>
-      </c>
-      <c r="R7" s="2">
-        <v>1</v>
-      </c>
-      <c r="S7" s="2">
-        <v>1002</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
@@ -1175,34 +1175,34 @@
       <c r="F8" s="6">
         <v>5</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H8" s="2">
+        <v>1002</v>
+      </c>
+      <c r="I8" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="H8" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="I8" s="6" t="s">
+      <c r="J8" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="J8" s="6" t="s">
+      <c r="K8" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6" t="s">
+      <c r="L8" s="6"/>
+      <c r="M8" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="M8" s="2">
+      <c r="N8" s="2">
         <v>100</v>
       </c>
-      <c r="N8" s="2">
+      <c r="O8" s="2">
         <v>2004</v>
       </c>
-      <c r="O8" s="2">
+      <c r="P8" s="2">
         <v>0.2</v>
       </c>
-      <c r="P8" s="2">
-        <v>1</v>
-      </c>
       <c r="Q8" s="2">
         <v>1</v>
       </c>
@@ -1210,7 +1210,7 @@
         <v>1</v>
       </c>
       <c r="S8" s="2">
-        <v>1002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
@@ -1230,33 +1230,33 @@
       <c r="F9" s="6">
         <v>10</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H9" s="2">
+        <v>1002</v>
+      </c>
+      <c r="I9" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="H9" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="I9" s="6" t="s">
+      <c r="J9" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="J9" s="6" t="s">
+      <c r="K9" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="L9" s="6" t="s">
+      <c r="M9" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="M9" s="2">
+      <c r="N9" s="2">
         <v>100</v>
       </c>
-      <c r="N9" s="2">
+      <c r="O9" s="2">
         <v>2005</v>
       </c>
-      <c r="O9" s="2">
+      <c r="P9" s="2">
         <v>0.2</v>
       </c>
-      <c r="P9" s="2">
-        <v>1</v>
-      </c>
       <c r="Q9" s="2">
         <v>1</v>
       </c>
@@ -1264,7 +1264,7 @@
         <v>1</v>
       </c>
       <c r="S9" s="2">
-        <v>1002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
@@ -1284,33 +1284,33 @@
       <c r="F10" s="6">
         <v>15</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="G10" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H10" s="2">
+        <v>1002</v>
+      </c>
+      <c r="I10" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="H10" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="I10" s="6" t="s">
+      <c r="J10" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="J10" s="6" t="s">
+      <c r="K10" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="L10" s="6" t="s">
+      <c r="M10" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="M10" s="2">
+      <c r="N10" s="2">
         <v>100</v>
       </c>
-      <c r="N10" s="2">
+      <c r="O10" s="2">
         <v>2006</v>
       </c>
-      <c r="O10" s="2">
+      <c r="P10" s="2">
         <v>0.2</v>
       </c>
-      <c r="P10" s="2">
-        <v>1</v>
-      </c>
       <c r="Q10" s="2">
         <v>1</v>
       </c>
@@ -1318,7 +1318,7 @@
         <v>1</v>
       </c>
       <c r="S10" s="2">
-        <v>1002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
@@ -1338,31 +1338,31 @@
       <c r="F11" s="6">
         <v>20</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="G11" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H11" s="2">
+        <v>1002</v>
+      </c>
+      <c r="I11" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="H11" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="I11" s="6" t="s">
+      <c r="J11" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="J11" s="6"/>
-      <c r="L11" s="6" t="s">
+      <c r="K11" s="6"/>
+      <c r="M11" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="M11" s="2">
+      <c r="N11" s="2">
         <v>100</v>
       </c>
-      <c r="N11" s="2">
+      <c r="O11" s="2">
         <v>2007</v>
       </c>
-      <c r="O11" s="2">
+      <c r="P11" s="2">
         <v>0.2</v>
       </c>
-      <c r="P11" s="2">
-        <v>1</v>
-      </c>
       <c r="Q11" s="2">
         <v>1</v>
       </c>
@@ -1370,7 +1370,7 @@
         <v>1</v>
       </c>
       <c r="S11" s="2">
-        <v>1002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
@@ -1390,33 +1390,33 @@
       <c r="F12" s="6">
         <v>25</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="G12" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H12" s="2">
+        <v>1002</v>
+      </c>
+      <c r="I12" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="H12" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="I12" s="6" t="s">
+      <c r="J12" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="J12" s="6" t="s">
+      <c r="K12" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="L12" s="6" t="s">
+      <c r="M12" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="M12" s="2">
+      <c r="N12" s="2">
         <v>100</v>
       </c>
-      <c r="N12" s="2">
+      <c r="O12" s="2">
         <v>2008</v>
       </c>
-      <c r="O12" s="2">
+      <c r="P12" s="2">
         <v>0.2</v>
       </c>
-      <c r="P12" s="2">
-        <v>1</v>
-      </c>
       <c r="Q12" s="2">
         <v>1</v>
       </c>
@@ -1424,7 +1424,7 @@
         <v>1</v>
       </c>
       <c r="S12" s="2">
-        <v>1002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
@@ -1444,31 +1444,31 @@
       <c r="F13" s="6">
         <v>30</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="G13" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H13" s="2">
+        <v>1002</v>
+      </c>
+      <c r="I13" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="H13" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="I13" s="6" t="s">
+      <c r="J13" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="J13" s="6"/>
-      <c r="L13" s="6" t="s">
+      <c r="K13" s="6"/>
+      <c r="M13" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="M13" s="2">
+      <c r="N13" s="2">
         <v>100</v>
       </c>
-      <c r="N13" s="2">
+      <c r="O13" s="2">
         <v>2009</v>
       </c>
-      <c r="O13" s="2">
+      <c r="P13" s="2">
         <v>0.2</v>
       </c>
-      <c r="P13" s="2">
-        <v>1</v>
-      </c>
       <c r="Q13" s="2">
         <v>1</v>
       </c>
@@ -1476,7 +1476,7 @@
         <v>1</v>
       </c>
       <c r="S13" s="2">
-        <v>1002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
@@ -1496,33 +1496,33 @@
       <c r="F14" s="6">
         <v>35</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="G14" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="H14" s="2">
+        <v>1002</v>
+      </c>
+      <c r="I14" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="H14" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="I14" s="6" t="s">
+      <c r="J14" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="J14" s="6" t="s">
+      <c r="K14" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="L14" s="6" t="s">
+      <c r="M14" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="M14" s="2">
+      <c r="N14" s="2">
         <v>100</v>
       </c>
-      <c r="N14" s="2">
+      <c r="O14" s="2">
         <v>2010</v>
       </c>
-      <c r="O14" s="2">
+      <c r="P14" s="2">
         <v>0.2</v>
       </c>
-      <c r="P14" s="2">
-        <v>1</v>
-      </c>
       <c r="Q14" s="2">
         <v>1</v>
       </c>
@@ -1530,7 +1530,7 @@
         <v>1</v>
       </c>
       <c r="S14" s="2">
-        <v>1002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
@@ -1550,31 +1550,31 @@
       <c r="F15" s="6">
         <v>40</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="G15" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="H15" s="2">
+        <v>1002</v>
+      </c>
+      <c r="I15" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="H15" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="I15" s="6" t="s">
+      <c r="J15" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="J15" s="6"/>
-      <c r="L15" s="6" t="s">
+      <c r="K15" s="6"/>
+      <c r="M15" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="M15" s="2">
+      <c r="N15" s="2">
         <v>100</v>
       </c>
-      <c r="N15" s="2">
+      <c r="O15" s="2">
         <v>2011</v>
       </c>
-      <c r="O15" s="2">
+      <c r="P15" s="2">
         <v>0.2</v>
       </c>
-      <c r="P15" s="2">
-        <v>1</v>
-      </c>
       <c r="Q15" s="2">
         <v>1</v>
       </c>
@@ -1582,7 +1582,7 @@
         <v>1</v>
       </c>
       <c r="S15" s="2">
-        <v>1002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
@@ -1602,33 +1602,33 @@
       <c r="F16" s="6">
         <v>45</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="G16" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="H16" s="2">
+        <v>1002</v>
+      </c>
+      <c r="I16" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="H16" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="I16" s="6" t="s">
+      <c r="J16" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="J16" s="6" t="s">
+      <c r="K16" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="L16" s="6" t="s">
+      <c r="M16" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="M16" s="2">
+      <c r="N16" s="2">
         <v>100</v>
       </c>
-      <c r="N16" s="2">
+      <c r="O16" s="2">
         <v>2012</v>
       </c>
-      <c r="O16" s="2">
+      <c r="P16" s="2">
         <v>0.2</v>
       </c>
-      <c r="P16" s="2">
-        <v>1</v>
-      </c>
       <c r="Q16" s="2">
         <v>1</v>
       </c>
@@ -1636,10 +1636,10 @@
         <v>1</v>
       </c>
       <c r="S16" s="2">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
         <v>81</v>
       </c>
@@ -1647,9 +1647,9 @@
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I17" s="6"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>81</v>
       </c>
@@ -1657,9 +1657,9 @@
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I18" s="6"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>81</v>
       </c>
@@ -1667,9 +1667,9 @@
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I19" s="6"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
         <v>81</v>
       </c>
@@ -1677,9 +1677,9 @@
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I20" s="6"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>81</v>
       </c>
@@ -1687,9 +1687,9 @@
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-    </row>
-    <row r="26" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="I21" s="6"/>
+    </row>
+    <row r="26" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
         <v>81</v>
       </c>
@@ -1702,13 +1702,13 @@
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
-      <c r="G26" s="10" t="s">
+      <c r="I26" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="I26" s="6" t="s">
+      <c r="J26" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="J26" s="6" t="s">
+      <c r="K26" s="6" t="s">
         <v>85</v>
       </c>
     </row>

--- a/_ConfigExcels/Datas/weapon.xlsx
+++ b/_ConfigExcels/Datas/weapon.xlsx
@@ -221,15 +221,9 @@
     <t>爆炸范围、子弹数量</t>
   </si>
   <si>
-    <t>朗基努斯之枪</t>
-  </si>
-  <si>
     <t>军用</t>
   </si>
   <si>
-    <t>高穿透，攻速高，伤害低，碰撞体积小</t>
-  </si>
-  <si>
     <t>数量、分叉</t>
   </si>
   <si>
@@ -264,9 +258,6 @@
   </si>
   <si>
     <t>传染性、单体伤害、伤害优先级</t>
-  </si>
-  <si>
-    <t>曼陀罗</t>
   </si>
   <si>
     <t>陷阱、触碰减速debuff</t>
@@ -345,6 +336,18 @@
   </si>
   <si>
     <t>int#ref=Tbweapon.Bullet</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>东方明珠</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿针</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>高穿透，攻速高，伤害低，碰撞体积小，命中后会分裂</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -822,8 +825,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -871,7 +874,7 @@
         <v>5</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>6</v>
@@ -914,7 +917,7 @@
         <v>14</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="O2" s="1" t="s">
         <v>17</v>
@@ -983,7 +986,7 @@
         <v>31</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="O4" s="11" t="s">
         <v>32</v>
@@ -1032,7 +1035,7 @@
         <v>44</v>
       </c>
       <c r="N5" s="2">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="O5" s="2">
         <v>2001</v>
@@ -1164,7 +1167,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>55</v>
+        <v>87</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>46</v>
@@ -1176,7 +1179,7 @@
         <v>5</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H8" s="2">
         <v>1002</v>
@@ -1185,10 +1188,10 @@
         <v>40</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L8" s="6"/>
       <c r="M8" s="6" t="s">
@@ -1219,7 +1222,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>46</v>
@@ -1231,7 +1234,7 @@
         <v>10</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H9" s="2">
         <v>1002</v>
@@ -1240,10 +1243,10 @@
         <v>40</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="M9" s="6" t="s">
         <v>44</v>
@@ -1273,7 +1276,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>46</v>
@@ -1285,7 +1288,7 @@
         <v>15</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H10" s="2">
         <v>1002</v>
@@ -1294,10 +1297,10 @@
         <v>48</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="M10" s="6" t="s">
         <v>44</v>
@@ -1327,7 +1330,7 @@
         <v>7</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>46</v>
@@ -1339,7 +1342,7 @@
         <v>20</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H11" s="2">
         <v>1002</v>
@@ -1348,7 +1351,7 @@
         <v>48</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K11" s="6"/>
       <c r="M11" s="6" t="s">
@@ -1379,7 +1382,7 @@
         <v>8</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>46</v>
@@ -1391,7 +1394,7 @@
         <v>25</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H12" s="2">
         <v>1002</v>
@@ -1400,10 +1403,10 @@
         <v>52</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="M12" s="6" t="s">
         <v>44</v>
@@ -1433,7 +1436,7 @@
         <v>9</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>46</v>
@@ -1445,7 +1448,7 @@
         <v>30</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H13" s="2">
         <v>1002</v>
@@ -1454,7 +1457,7 @@
         <v>52</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="K13" s="6"/>
       <c r="M13" s="6" t="s">
@@ -1485,7 +1488,7 @@
         <v>10</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>46</v>
@@ -1497,7 +1500,7 @@
         <v>35</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H14" s="2">
         <v>1002</v>
@@ -1506,10 +1509,10 @@
         <v>40</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="M14" s="6" t="s">
         <v>44</v>
@@ -1539,7 +1542,7 @@
         <v>11</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>46</v>
@@ -1551,7 +1554,7 @@
         <v>40</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H15" s="2">
         <v>1002</v>
@@ -1560,7 +1563,7 @@
         <v>48</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="K15" s="6"/>
       <c r="M15" s="6" t="s">
@@ -1591,7 +1594,7 @@
         <v>12</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>46</v>
@@ -1603,7 +1606,7 @@
         <v>45</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H16" s="2">
         <v>1002</v>
@@ -1612,10 +1615,10 @@
         <v>52</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="M16" s="6" t="s">
         <v>44</v>
@@ -1641,7 +1644,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
@@ -1651,7 +1654,7 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
@@ -1661,7 +1664,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
@@ -1671,7 +1674,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
@@ -1681,7 +1684,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
@@ -1691,25 +1694,25 @@
     </row>
     <row r="26" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B26" s="2">
         <v>6</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
       <c r="I26" s="10" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="J26" s="6" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="K26" s="6" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/_ConfigExcels/Datas/weapon.xlsx
+++ b/_ConfigExcels/Datas/weapon.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="92">
   <si>
     <t>##var</t>
   </si>
@@ -224,9 +224,6 @@
     <t>军用</t>
   </si>
   <si>
-    <t>数量、分叉</t>
-  </si>
-  <si>
     <t>星链计划</t>
   </si>
   <si>
@@ -347,7 +344,23 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>高穿透，攻速高，伤害低，碰撞体积小，命中后会分裂</t>
+    <t>暂定包装后的名字</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>赛博案底</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>曼陀罗</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级离子枪，高穿透，攻速高，伤害低，碰撞体积小</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量、分叉、命中后会分裂</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -823,33 +836,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S26"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="9" style="2"/>
-    <col min="3" max="3" width="12.625" style="2" customWidth="1"/>
-    <col min="4" max="5" width="17.875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="12.625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11.25" style="2" customWidth="1"/>
-    <col min="8" max="8" width="33.375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="26.125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="66" style="2" customWidth="1"/>
-    <col min="11" max="11" width="40.375" style="2" customWidth="1"/>
-    <col min="12" max="13" width="29" style="2" customWidth="1"/>
-    <col min="14" max="15" width="35.5" style="2" customWidth="1"/>
-    <col min="16" max="16" width="19" style="2" customWidth="1"/>
-    <col min="17" max="17" width="18.75" style="2" customWidth="1"/>
-    <col min="18" max="18" width="16" style="2" customWidth="1"/>
-    <col min="19" max="20" width="20.625" style="2" customWidth="1"/>
-    <col min="21" max="16384" width="9" style="2"/>
+    <col min="3" max="4" width="12.625" style="2" customWidth="1"/>
+    <col min="5" max="6" width="17.875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="12.625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="11.25" style="2" customWidth="1"/>
+    <col min="9" max="9" width="33.375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="26.125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="66" style="2" customWidth="1"/>
+    <col min="12" max="12" width="40.375" style="2" customWidth="1"/>
+    <col min="13" max="14" width="29" style="2" customWidth="1"/>
+    <col min="15" max="16" width="35.5" style="2" customWidth="1"/>
+    <col min="17" max="17" width="19" style="2" customWidth="1"/>
+    <col min="18" max="18" width="18.75" style="2" customWidth="1"/>
+    <col min="19" max="19" width="16" style="2" customWidth="1"/>
+    <col min="20" max="21" width="20.625" style="2" customWidth="1"/>
+    <col min="22" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -859,40 +872,40 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="E1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="13"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="1" t="s">
+      <c r="F1" s="13"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>83</v>
-      </c>
       <c r="O1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -902,54 +915,54 @@
       <c r="C2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="E2" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="13"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="1" t="s">
+      <c r="F2" s="13"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="1" t="s">
-        <v>85</v>
-      </c>
       <c r="O2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="R2" s="1" t="s">
         <v>13</v>
       </c>
       <c r="S2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="T2" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="G3" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:19" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>23</v>
       </c>
@@ -959,90 +972,91 @@
       <c r="C4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E4" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="13"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="1" t="s">
+      <c r="F4" s="13"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="N4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="N4" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="O4" s="11" t="s">
+      <c r="O4" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="P4" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="P4" s="11" t="s">
+      <c r="Q4" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="Q4" s="1" t="s">
+      <c r="R4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="R4" s="1" t="s">
+      <c r="S4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="S4" s="1" t="s">
+      <c r="T4" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B5" s="2">
         <v>1</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="6"/>
+      <c r="E5" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="6"/>
       <c r="F5" s="6"/>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="6"/>
+      <c r="H5" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="H5" s="2">
+      <c r="I5" s="2">
         <v>1001</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="J5" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="K5" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="L5" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="M5" s="6" t="s">
+      <c r="N5" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="N5" s="2">
-        <v>100</v>
-      </c>
       <c r="O5" s="2">
+        <v>400</v>
+      </c>
+      <c r="P5" s="2">
         <v>2001</v>
       </c>
-      <c r="P5" s="2">
-        <v>1</v>
-      </c>
       <c r="Q5" s="2">
         <v>1</v>
       </c>
@@ -1050,10 +1064,13 @@
         <v>1</v>
       </c>
       <c r="S5" s="2">
+        <v>1</v>
+      </c>
+      <c r="T5" s="2">
         <v>0.05</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
       <c r="B6" s="2">
         <v>2</v>
@@ -1061,53 +1078,54 @@
       <c r="C6" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="6"/>
+      <c r="E6" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="F6" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F6" s="6">
+      <c r="G6" s="6">
         <v>2</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="H6" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="H6" s="2">
+      <c r="I6" s="2">
         <v>1002</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="J6" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="K6" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="K6" s="6" t="s">
+      <c r="L6" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="M6" s="6" t="s">
+      <c r="N6" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="N6" s="2">
+      <c r="O6" s="2">
         <v>201</v>
       </c>
-      <c r="O6" s="2">
+      <c r="P6" s="2">
         <v>2002</v>
       </c>
-      <c r="P6" s="2">
+      <c r="Q6" s="2">
         <v>0.5</v>
       </c>
-      <c r="Q6" s="2">
-        <v>1</v>
-      </c>
       <c r="R6" s="2">
         <v>1</v>
       </c>
       <c r="S6" s="2">
+        <v>1</v>
+      </c>
+      <c r="T6" s="2">
         <v>0.2</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
       <c r="B7" s="2">
         <v>3</v>
@@ -1115,42 +1133,40 @@
       <c r="C7" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="6"/>
+      <c r="E7" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="F7" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F7" s="6">
+      <c r="G7" s="6">
         <v>3</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="H7" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>1002</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="J7" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="J7" s="6" t="s">
+      <c r="K7" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="K7" s="6" t="s">
+      <c r="L7" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="M7" s="6" t="s">
+      <c r="N7" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>300</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>2003</v>
       </c>
-      <c r="P7" s="2">
-        <v>1</v>
-      </c>
       <c r="Q7" s="2">
         <v>1</v>
       </c>
@@ -1158,568 +1174,590 @@
         <v>1</v>
       </c>
       <c r="S7" s="2">
+        <v>1</v>
+      </c>
+      <c r="T7" s="2">
         <v>0.2</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
       <c r="B8" s="2">
         <v>4</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="D8" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="F8" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F8" s="6">
+      <c r="G8" s="6">
         <v>5</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="H8" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="H8" s="2">
+      <c r="I8" s="2">
         <v>1002</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="J8" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="J8" s="6" t="s">
-        <v>88</v>
-      </c>
       <c r="K8" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="N8" s="2">
-        <v>100</v>
-      </c>
       <c r="O8" s="2">
+        <v>400</v>
+      </c>
+      <c r="P8" s="2">
         <v>2004</v>
       </c>
-      <c r="P8" s="2">
+      <c r="Q8" s="2">
         <v>0.2</v>
       </c>
-      <c r="Q8" s="2">
-        <v>1</v>
-      </c>
       <c r="R8" s="2">
         <v>1</v>
       </c>
       <c r="S8" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
       <c r="B9" s="2">
         <v>5</v>
       </c>
       <c r="C9" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" s="6">
+        <v>10</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="I9" s="2">
+        <v>1002</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="K9" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="F9" s="6">
-        <v>10</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="H9" s="2">
-        <v>1002</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="J9" s="6" t="s">
+      <c r="L9" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="K9" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="M9" s="6" t="s">
+      <c r="N9" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="N9" s="2">
+      <c r="O9" s="2">
         <v>100</v>
       </c>
-      <c r="O9" s="2">
+      <c r="P9" s="2">
         <v>2005</v>
       </c>
-      <c r="P9" s="2">
+      <c r="Q9" s="2">
         <v>0.2</v>
       </c>
-      <c r="Q9" s="2">
-        <v>1</v>
-      </c>
       <c r="R9" s="2">
         <v>1</v>
       </c>
       <c r="S9" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
       <c r="B10" s="2">
         <v>6</v>
       </c>
       <c r="C10" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="6">
+        <v>15</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="I10" s="2">
+        <v>1002</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="K10" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="F10" s="6">
-        <v>15</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="H10" s="2">
-        <v>1002</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="J10" s="6" t="s">
+      <c r="L10" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="K10" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="M10" s="6" t="s">
+      <c r="N10" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="N10" s="2">
+      <c r="O10" s="2">
         <v>100</v>
       </c>
-      <c r="O10" s="2">
+      <c r="P10" s="2">
         <v>2006</v>
       </c>
-      <c r="P10" s="2">
+      <c r="Q10" s="2">
         <v>0.2</v>
       </c>
-      <c r="Q10" s="2">
-        <v>1</v>
-      </c>
       <c r="R10" s="2">
         <v>1</v>
       </c>
       <c r="S10" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
       <c r="B11" s="2">
         <v>7</v>
       </c>
       <c r="C11" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" s="6">
+        <v>20</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="I11" s="2">
+        <v>1002</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="K11" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="F11" s="6">
-        <v>20</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="H11" s="2">
-        <v>1002</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="K11" s="6"/>
-      <c r="M11" s="6" t="s">
+      <c r="L11" s="6"/>
+      <c r="N11" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="N11" s="2">
+      <c r="O11" s="2">
         <v>100</v>
       </c>
-      <c r="O11" s="2">
+      <c r="P11" s="2">
         <v>2007</v>
       </c>
-      <c r="P11" s="2">
+      <c r="Q11" s="2">
         <v>0.2</v>
       </c>
-      <c r="Q11" s="2">
-        <v>1</v>
-      </c>
       <c r="R11" s="2">
         <v>1</v>
       </c>
       <c r="S11" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" s="6"/>
       <c r="B12" s="2">
         <v>8</v>
       </c>
       <c r="C12" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G12" s="6">
+        <v>25</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="I12" s="2">
+        <v>1002</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="K12" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="D12" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="F12" s="6">
-        <v>25</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="H12" s="2">
-        <v>1002</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="J12" s="6" t="s">
+      <c r="L12" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="K12" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="M12" s="6" t="s">
+      <c r="N12" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="N12" s="2">
+      <c r="O12" s="2">
         <v>100</v>
       </c>
-      <c r="O12" s="2">
+      <c r="P12" s="2">
         <v>2008</v>
       </c>
-      <c r="P12" s="2">
+      <c r="Q12" s="2">
         <v>0.2</v>
       </c>
-      <c r="Q12" s="2">
-        <v>1</v>
-      </c>
       <c r="R12" s="2">
         <v>1</v>
       </c>
       <c r="S12" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" s="6"/>
       <c r="B13" s="2">
         <v>9</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D13" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="E13" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="F13" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F13" s="6">
+      <c r="G13" s="6">
         <v>30</v>
       </c>
-      <c r="G13" s="8" t="s">
+      <c r="H13" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="H13" s="2">
+      <c r="I13" s="2">
         <v>1002</v>
       </c>
-      <c r="I13" s="6" t="s">
+      <c r="J13" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="J13" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="K13" s="6"/>
-      <c r="M13" s="6" t="s">
+      <c r="K13" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="L13" s="6"/>
+      <c r="N13" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="N13" s="2">
+      <c r="O13" s="2">
         <v>100</v>
       </c>
-      <c r="O13" s="2">
+      <c r="P13" s="2">
         <v>2009</v>
       </c>
-      <c r="P13" s="2">
+      <c r="Q13" s="2">
         <v>0.2</v>
       </c>
-      <c r="Q13" s="2">
-        <v>1</v>
-      </c>
       <c r="R13" s="2">
         <v>1</v>
       </c>
       <c r="S13" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" s="6"/>
       <c r="B14" s="2">
         <v>10</v>
       </c>
       <c r="C14" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G14" s="6">
+        <v>35</v>
+      </c>
+      <c r="H14" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="D14" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="F14" s="6">
-        <v>35</v>
-      </c>
-      <c r="G14" s="9" t="s">
+      <c r="I14" s="2">
+        <v>1002</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="K14" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="H14" s="2">
-        <v>1002</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="J14" s="6" t="s">
+      <c r="L14" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="K14" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="M14" s="6" t="s">
+      <c r="N14" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="N14" s="2">
+      <c r="O14" s="2">
         <v>100</v>
       </c>
-      <c r="O14" s="2">
+      <c r="P14" s="2">
         <v>2010</v>
       </c>
-      <c r="P14" s="2">
+      <c r="Q14" s="2">
         <v>0.2</v>
       </c>
-      <c r="Q14" s="2">
-        <v>1</v>
-      </c>
       <c r="R14" s="2">
         <v>1</v>
       </c>
       <c r="S14" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" s="6"/>
       <c r="B15" s="2">
         <v>11</v>
       </c>
       <c r="C15" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G15" s="6">
+        <v>40</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="I15" s="2">
+        <v>1002</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="K15" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="D15" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="F15" s="6">
-        <v>40</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="H15" s="2">
-        <v>1002</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="J15" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="K15" s="6"/>
-      <c r="M15" s="6" t="s">
+      <c r="L15" s="6"/>
+      <c r="N15" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="N15" s="2">
+      <c r="O15" s="2">
         <v>100</v>
       </c>
-      <c r="O15" s="2">
+      <c r="P15" s="2">
         <v>2011</v>
       </c>
-      <c r="P15" s="2">
+      <c r="Q15" s="2">
         <v>0.2</v>
       </c>
-      <c r="Q15" s="2">
-        <v>1</v>
-      </c>
       <c r="R15" s="2">
         <v>1</v>
       </c>
       <c r="S15" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" s="6"/>
       <c r="B16" s="2">
         <v>12</v>
       </c>
       <c r="C16" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G16" s="6">
+        <v>45</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="I16" s="2">
+        <v>1002</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="K16" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="D16" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="F16" s="6">
-        <v>45</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="H16" s="2">
-        <v>1002</v>
-      </c>
-      <c r="I16" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="J16" s="6" t="s">
+      <c r="L16" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="K16" s="6" t="s">
+      <c r="N16" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="O16" s="2">
+        <v>100</v>
+      </c>
+      <c r="P16" s="2">
+        <v>2012</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="R16" s="2">
+        <v>1</v>
+      </c>
+      <c r="S16" s="2">
+        <v>1</v>
+      </c>
+      <c r="T16" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="6" t="s">
         <v>77</v>
-      </c>
-      <c r="M16" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="N16" s="2">
-        <v>100</v>
-      </c>
-      <c r="O16" s="2">
-        <v>2012</v>
-      </c>
-      <c r="P16" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="Q16" s="2">
-        <v>1</v>
-      </c>
-      <c r="R16" s="2">
-        <v>1</v>
-      </c>
-      <c r="S16" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="6" t="s">
-        <v>78</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
-      <c r="I17" s="6"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G17" s="6"/>
+      <c r="J17" s="6"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
-      <c r="I18" s="6"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G18" s="6"/>
+      <c r="J18" s="6"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
-      <c r="I19" s="6"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G19" s="6"/>
+      <c r="J19" s="6"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
-      <c r="I20" s="6"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G20" s="6"/>
+      <c r="J20" s="6"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
-      <c r="I21" s="6"/>
-    </row>
-    <row r="26" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="G21" s="6"/>
+      <c r="J21" s="6"/>
+    </row>
+    <row r="26" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B26" s="2">
         <v>6</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
-      <c r="I26" s="10" t="s">
+      <c r="G26" s="6"/>
+      <c r="J26" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="K26" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="J26" s="6" t="s">
+      <c r="L26" s="6" t="s">
         <v>81</v>
-      </c>
-      <c r="K26" s="6" t="s">
-        <v>82</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="E4:G4"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/_ConfigExcels/Datas/weapon.xlsx
+++ b/_ConfigExcels/Datas/weapon.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="96">
   <si>
     <t>##var</t>
   </si>
@@ -361,6 +361,22 @@
   </si>
   <si>
     <t>数量、分叉、命中后会分裂</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>电磁护盾</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>让护盾带电，很合理</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>赛博案底跟你一辈子</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>会打每一个喝蜜雪冰城的人</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -836,33 +852,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:U26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="9" style="2"/>
-    <col min="3" max="4" width="12.625" style="2" customWidth="1"/>
-    <col min="5" max="6" width="17.875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="12.625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="11.25" style="2" customWidth="1"/>
-    <col min="9" max="9" width="33.375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="26.125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="66" style="2" customWidth="1"/>
-    <col min="12" max="12" width="40.375" style="2" customWidth="1"/>
-    <col min="13" max="14" width="29" style="2" customWidth="1"/>
-    <col min="15" max="16" width="35.5" style="2" customWidth="1"/>
-    <col min="17" max="17" width="19" style="2" customWidth="1"/>
-    <col min="18" max="18" width="18.75" style="2" customWidth="1"/>
-    <col min="19" max="19" width="16" style="2" customWidth="1"/>
-    <col min="20" max="21" width="20.625" style="2" customWidth="1"/>
-    <col min="22" max="16384" width="9" style="2"/>
+    <col min="3" max="3" width="12.625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="17.625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="26.875" style="2" customWidth="1"/>
+    <col min="6" max="7" width="17.875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="11.25" style="2" customWidth="1"/>
+    <col min="10" max="10" width="29" style="2" customWidth="1"/>
+    <col min="11" max="11" width="33.375" style="2" customWidth="1"/>
+    <col min="12" max="12" width="26.125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="66" style="2" customWidth="1"/>
+    <col min="14" max="14" width="40.375" style="2" customWidth="1"/>
+    <col min="15" max="15" width="29" style="2" customWidth="1"/>
+    <col min="16" max="17" width="35.5" style="2" customWidth="1"/>
+    <col min="18" max="18" width="19" style="2" customWidth="1"/>
+    <col min="19" max="19" width="18.75" style="2" customWidth="1"/>
+    <col min="20" max="20" width="16" style="2" customWidth="1"/>
+    <col min="21" max="22" width="20.625" style="2" customWidth="1"/>
+    <col min="23" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -872,40 +891,40 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="F1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="13"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="1" t="s">
+      <c r="G1" s="13"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -915,54 +934,54 @@
       <c r="C2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="F2" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="13"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="1" t="s">
+      <c r="G2" s="13"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="S2" s="1" t="s">
         <v>13</v>
       </c>
       <c r="T2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="U2" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="H3" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:20" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>23</v>
       </c>
@@ -975,52 +994,52 @@
       <c r="D4" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="F4" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="13"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="1" t="s">
+      <c r="G4" s="13"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="N4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="O4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="N4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O4" s="1" t="s">
+      <c r="P4" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="P4" s="11" t="s">
+      <c r="Q4" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="Q4" s="11" t="s">
+      <c r="R4" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="R4" s="1" t="s">
+      <c r="S4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="S4" s="1" t="s">
+      <c r="T4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="T4" s="1" t="s">
+      <c r="U4" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B5" s="2">
         <v>1</v>
       </c>
@@ -1028,38 +1047,36 @@
         <v>38</v>
       </c>
       <c r="D5" s="6"/>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="6"/>
+      <c r="F5" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="6"/>
       <c r="G5" s="6"/>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="6"/>
+      <c r="I5" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="I5" s="2">
+      <c r="J5" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="K5" s="2">
         <v>1001</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="L5" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="M5" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="L5" s="6" t="s">
+      <c r="N5" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="N5" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="O5" s="2">
-        <v>400</v>
-      </c>
       <c r="P5" s="2">
+        <v>500</v>
+      </c>
+      <c r="Q5" s="2">
         <v>2001</v>
       </c>
-      <c r="Q5" s="2">
-        <v>1</v>
-      </c>
       <c r="R5" s="2">
         <v>1</v>
       </c>
@@ -1067,10 +1084,13 @@
         <v>1</v>
       </c>
       <c r="T5" s="2">
+        <v>1</v>
+      </c>
+      <c r="U5" s="2">
         <v>0.05</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
       <c r="B6" s="2">
         <v>2</v>
@@ -1079,53 +1099,54 @@
         <v>45</v>
       </c>
       <c r="D6" s="6"/>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="6"/>
+      <c r="F6" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="G6" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="G6" s="6">
+      <c r="H6" s="6">
         <v>2</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="I6" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="I6" s="2">
+      <c r="J6" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="K6" s="2">
         <v>1002</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="L6" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="K6" s="6" t="s">
+      <c r="M6" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="L6" s="6" t="s">
+      <c r="N6" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="N6" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="O6" s="2">
+      <c r="P6" s="2">
         <v>201</v>
       </c>
-      <c r="P6" s="2">
+      <c r="Q6" s="2">
         <v>2002</v>
       </c>
-      <c r="Q6" s="2">
+      <c r="R6" s="2">
         <v>0.5</v>
       </c>
-      <c r="R6" s="2">
-        <v>1</v>
-      </c>
       <c r="S6" s="2">
         <v>1</v>
       </c>
       <c r="T6" s="2">
+        <v>1</v>
+      </c>
+      <c r="U6" s="2">
         <v>0.2</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
       <c r="B7" s="2">
         <v>3</v>
@@ -1134,42 +1155,40 @@
         <v>51</v>
       </c>
       <c r="D7" s="6"/>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="6"/>
+      <c r="F7" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="G7" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="G7" s="6">
+      <c r="H7" s="6">
         <v>3</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="I7" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="K7" s="2">
         <v>1002</v>
       </c>
-      <c r="J7" s="6" t="s">
+      <c r="L7" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="K7" s="6" t="s">
+      <c r="M7" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="L7" s="6" t="s">
+      <c r="N7" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="N7" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>300</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>2003</v>
       </c>
-      <c r="Q7" s="2">
-        <v>1</v>
-      </c>
       <c r="R7" s="2">
         <v>1</v>
       </c>
@@ -1177,10 +1196,13 @@
         <v>1</v>
       </c>
       <c r="T7" s="2">
+        <v>1</v>
+      </c>
+      <c r="U7" s="2">
         <v>0.2</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
       <c r="B8" s="2">
         <v>4</v>
@@ -1189,54 +1211,55 @@
         <v>86</v>
       </c>
       <c r="D8" s="6"/>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="6"/>
+      <c r="F8" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="G8" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="G8" s="6">
+      <c r="H8" s="6">
         <v>5</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="I8" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="I8" s="2">
+      <c r="J8" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="K8" s="2">
         <v>1002</v>
       </c>
-      <c r="J8" s="6" t="s">
+      <c r="L8" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="K8" s="6" t="s">
+      <c r="M8" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="L8" s="6" t="s">
+      <c r="N8" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="O8" s="2">
+      <c r="O8" s="6"/>
+      <c r="P8" s="2">
         <v>400</v>
       </c>
-      <c r="P8" s="2">
+      <c r="Q8" s="2">
         <v>2004</v>
       </c>
-      <c r="Q8" s="2">
+      <c r="R8" s="2">
         <v>0.2</v>
       </c>
-      <c r="R8" s="2">
-        <v>1</v>
-      </c>
       <c r="S8" s="2">
         <v>1</v>
       </c>
       <c r="T8" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
       <c r="B9" s="2">
         <v>5</v>
@@ -1244,45 +1267,47 @@
       <c r="C9" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D9" s="6"/>
+      <c r="D9" s="6" t="s">
+        <v>92</v>
+      </c>
       <c r="E9" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="F9" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="G9" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="G9" s="6">
+      <c r="H9" s="6">
         <v>10</v>
       </c>
-      <c r="H9" s="8" t="s">
+      <c r="I9" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="I9" s="2">
+      <c r="J9" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="K9" s="2">
         <v>1002</v>
       </c>
-      <c r="J9" s="6" t="s">
+      <c r="L9" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="K9" s="6" t="s">
+      <c r="M9" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="L9" s="6" t="s">
+      <c r="N9" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="N9" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="O9" s="2">
-        <v>100</v>
-      </c>
       <c r="P9" s="2">
+        <v>500</v>
+      </c>
+      <c r="Q9" s="2">
         <v>2005</v>
       </c>
-      <c r="Q9" s="2">
-        <v>0.2</v>
-      </c>
       <c r="R9" s="2">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="S9" s="2">
         <v>1</v>
@@ -1290,8 +1315,11 @@
       <c r="T9" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
       <c r="B10" s="2">
         <v>6</v>
@@ -1300,53 +1328,54 @@
         <v>59</v>
       </c>
       <c r="D10" s="6"/>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="6"/>
+      <c r="F10" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="G10" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="G10" s="6">
+      <c r="H10" s="6">
         <v>15</v>
       </c>
-      <c r="H10" s="8" t="s">
+      <c r="I10" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="I10" s="2">
+      <c r="J10" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="K10" s="2">
         <v>1002</v>
       </c>
-      <c r="J10" s="6" t="s">
+      <c r="L10" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="K10" s="6" t="s">
+      <c r="M10" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="L10" s="6" t="s">
+      <c r="N10" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="N10" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="O10" s="2">
+      <c r="P10" s="2">
         <v>100</v>
       </c>
-      <c r="P10" s="2">
+      <c r="Q10" s="2">
         <v>2006</v>
       </c>
-      <c r="Q10" s="2">
+      <c r="R10" s="2">
         <v>0.2</v>
       </c>
-      <c r="R10" s="2">
-        <v>1</v>
-      </c>
       <c r="S10" s="2">
         <v>1</v>
       </c>
       <c r="T10" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
       <c r="B11" s="2">
         <v>7</v>
@@ -1355,51 +1384,52 @@
         <v>62</v>
       </c>
       <c r="D11" s="6"/>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="6"/>
+      <c r="F11" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="G11" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="G11" s="6">
+      <c r="H11" s="6">
         <v>20</v>
       </c>
-      <c r="H11" s="8" t="s">
+      <c r="I11" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="I11" s="2">
+      <c r="J11" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="K11" s="2">
         <v>1002</v>
       </c>
-      <c r="J11" s="6" t="s">
+      <c r="L11" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="K11" s="6" t="s">
+      <c r="M11" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="L11" s="6"/>
-      <c r="N11" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="O11" s="2">
+      <c r="N11" s="6"/>
+      <c r="P11" s="2">
         <v>100</v>
       </c>
-      <c r="P11" s="2">
+      <c r="Q11" s="2">
         <v>2007</v>
       </c>
-      <c r="Q11" s="2">
+      <c r="R11" s="2">
         <v>0.2</v>
       </c>
-      <c r="R11" s="2">
-        <v>1</v>
-      </c>
       <c r="S11" s="2">
         <v>1</v>
       </c>
       <c r="T11" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="6"/>
       <c r="B12" s="2">
         <v>8</v>
@@ -1407,56 +1437,53 @@
       <c r="C12" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="D12" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="E12" s="6" t="s">
+      <c r="F12" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="G12" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="G12" s="6">
+      <c r="H12" s="6">
         <v>25</v>
       </c>
-      <c r="H12" s="8" t="s">
+      <c r="I12" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="I12" s="2">
+      <c r="J12" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="K12" s="2">
         <v>1002</v>
       </c>
-      <c r="J12" s="6" t="s">
+      <c r="L12" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="K12" s="6" t="s">
+      <c r="M12" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="L12" s="6" t="s">
+      <c r="N12" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="N12" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="O12" s="2">
+      <c r="P12" s="2">
         <v>100</v>
       </c>
-      <c r="P12" s="2">
+      <c r="Q12" s="2">
         <v>2008</v>
       </c>
-      <c r="Q12" s="2">
+      <c r="R12" s="2">
         <v>0.2</v>
       </c>
-      <c r="R12" s="2">
-        <v>1</v>
-      </c>
       <c r="S12" s="2">
         <v>1</v>
       </c>
       <c r="T12" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="6"/>
       <c r="B13" s="2">
         <v>9</v>
@@ -1468,50 +1495,53 @@
         <v>85</v>
       </c>
       <c r="E13" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="F13" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="G13" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="G13" s="6">
+      <c r="H13" s="6">
         <v>30</v>
       </c>
-      <c r="H13" s="8" t="s">
+      <c r="I13" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="I13" s="2">
+      <c r="J13" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="K13" s="2">
         <v>1002</v>
       </c>
-      <c r="J13" s="6" t="s">
+      <c r="L13" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="K13" s="6" t="s">
+      <c r="M13" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="L13" s="6"/>
-      <c r="N13" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="O13" s="2">
+      <c r="N13" s="6"/>
+      <c r="P13" s="2">
         <v>100</v>
       </c>
-      <c r="P13" s="2">
+      <c r="Q13" s="2">
         <v>2009</v>
       </c>
-      <c r="Q13" s="2">
+      <c r="R13" s="2">
         <v>0.2</v>
       </c>
-      <c r="R13" s="2">
-        <v>1</v>
-      </c>
       <c r="S13" s="2">
         <v>1</v>
       </c>
       <c r="T13" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="6"/>
       <c r="B14" s="2">
         <v>10</v>
@@ -1520,53 +1550,54 @@
         <v>68</v>
       </c>
       <c r="D14" s="6"/>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="6"/>
+      <c r="F14" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="G14" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="G14" s="6">
+      <c r="H14" s="6">
         <v>35</v>
       </c>
-      <c r="H14" s="9" t="s">
+      <c r="I14" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="I14" s="2">
+      <c r="J14" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="K14" s="2">
         <v>1002</v>
       </c>
-      <c r="J14" s="6" t="s">
+      <c r="L14" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="K14" s="6" t="s">
+      <c r="M14" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="L14" s="6" t="s">
+      <c r="N14" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="N14" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="O14" s="2">
+      <c r="P14" s="2">
         <v>100</v>
       </c>
-      <c r="P14" s="2">
+      <c r="Q14" s="2">
         <v>2010</v>
       </c>
-      <c r="Q14" s="2">
+      <c r="R14" s="2">
         <v>0.2</v>
       </c>
-      <c r="R14" s="2">
-        <v>1</v>
-      </c>
       <c r="S14" s="2">
         <v>1</v>
       </c>
       <c r="T14" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="6"/>
       <c r="B15" s="2">
         <v>11</v>
@@ -1574,52 +1605,57 @@
       <c r="C15" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="D15" s="6"/>
+      <c r="D15" s="6" t="s">
+        <v>88</v>
+      </c>
       <c r="E15" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="F15" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="G15" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="G15" s="6">
+      <c r="H15" s="6">
         <v>40</v>
       </c>
-      <c r="H15" s="9" t="s">
+      <c r="I15" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="I15" s="2">
+      <c r="J15" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="K15" s="2">
         <v>1002</v>
       </c>
-      <c r="J15" s="6" t="s">
+      <c r="L15" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="K15" s="6" t="s">
+      <c r="M15" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="L15" s="6"/>
-      <c r="N15" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="O15" s="2">
+      <c r="N15" s="6"/>
+      <c r="P15" s="2">
         <v>100</v>
       </c>
-      <c r="P15" s="2">
+      <c r="Q15" s="2">
         <v>2011</v>
       </c>
-      <c r="Q15" s="2">
+      <c r="R15" s="2">
         <v>0.2</v>
       </c>
-      <c r="R15" s="2">
-        <v>1</v>
-      </c>
       <c r="S15" s="2">
         <v>1</v>
       </c>
       <c r="T15" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="6"/>
       <c r="B16" s="2">
         <v>12</v>
@@ -1628,53 +1664,54 @@
         <v>74</v>
       </c>
       <c r="D16" s="6"/>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="6"/>
+      <c r="F16" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="G16" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="G16" s="6">
+      <c r="H16" s="6">
         <v>45</v>
       </c>
-      <c r="H16" s="9" t="s">
+      <c r="I16" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="I16" s="2">
+      <c r="J16" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="K16" s="2">
         <v>1002</v>
       </c>
-      <c r="J16" s="6" t="s">
+      <c r="L16" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="K16" s="6" t="s">
+      <c r="M16" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="L16" s="6" t="s">
+      <c r="N16" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="N16" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="O16" s="2">
+      <c r="P16" s="2">
         <v>100</v>
       </c>
-      <c r="P16" s="2">
+      <c r="Q16" s="2">
         <v>2012</v>
       </c>
-      <c r="Q16" s="2">
+      <c r="R16" s="2">
         <v>0.2</v>
       </c>
-      <c r="R16" s="2">
-        <v>1</v>
-      </c>
       <c r="S16" s="2">
         <v>1</v>
       </c>
       <c r="T16" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="U16" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
         <v>77</v>
       </c>
@@ -1683,9 +1720,10 @@
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
-      <c r="J17" s="6"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H17" s="6"/>
+      <c r="L17" s="6"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>77</v>
       </c>
@@ -1694,9 +1732,10 @@
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
-      <c r="J18" s="6"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H18" s="6"/>
+      <c r="L18" s="6"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>77</v>
       </c>
@@ -1705,9 +1744,10 @@
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
-      <c r="J19" s="6"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H19" s="6"/>
+      <c r="L19" s="6"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
         <v>77</v>
       </c>
@@ -1716,9 +1756,10 @@
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
-      <c r="J20" s="6"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H20" s="6"/>
+      <c r="L20" s="6"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>77</v>
       </c>
@@ -1727,9 +1768,10 @@
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
-      <c r="J21" s="6"/>
-    </row>
-    <row r="26" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="H21" s="6"/>
+      <c r="L21" s="6"/>
+    </row>
+    <row r="26" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
         <v>77</v>
       </c>
@@ -1743,21 +1785,22 @@
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
-      <c r="J26" s="10" t="s">
+      <c r="H26" s="6"/>
+      <c r="L26" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="K26" s="6" t="s">
+      <c r="M26" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="L26" s="6" t="s">
+      <c r="N26" s="6" t="s">
         <v>81</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="F4:H4"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/_ConfigExcels/Datas/weapon.xlsx
+++ b/_ConfigExcels/Datas/weapon.xlsx
@@ -854,8 +854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1072,7 +1072,7 @@
         <v>43</v>
       </c>
       <c r="P5" s="2">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q5" s="2">
         <v>2001</v>
@@ -1357,7 +1357,7 @@
         <v>61</v>
       </c>
       <c r="P10" s="2">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="Q10" s="2">
         <v>2006</v>

--- a/_ConfigExcels/Datas/weapon.xlsx
+++ b/_ConfigExcels/Datas/weapon.xlsx
@@ -854,7 +854,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
       <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
@@ -1072,7 +1072,7 @@
         <v>43</v>
       </c>
       <c r="P5" s="2">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="Q5" s="2">
         <v>2001</v>
@@ -1411,7 +1411,7 @@
       </c>
       <c r="N11" s="6"/>
       <c r="P11" s="2">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="Q11" s="2">
         <v>2007</v>

--- a/_ConfigExcels/Datas/weapon.xlsx
+++ b/_ConfigExcels/Datas/weapon.xlsx
@@ -854,8 +854,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="4" topLeftCell="O5" activePane="bottomRight" state="frozenSplit"/>
+      <selection activeCell="Q12" sqref="Q12"/>
+      <selection pane="topRight" activeCell="H1" sqref="H1"/>
+      <selection pane="bottomLeft" activeCell="A18" sqref="A18"/>
+      <selection pane="bottomRight" activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1072,7 +1076,7 @@
         <v>43</v>
       </c>
       <c r="P5" s="2">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="Q5" s="2">
         <v>2001</v>
@@ -1465,13 +1469,13 @@
         <v>66</v>
       </c>
       <c r="P12" s="2">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="Q12" s="2">
         <v>2008</v>
       </c>
       <c r="R12" s="2">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="S12" s="2">
         <v>1</v>

--- a/_ConfigExcels/Datas/weapon.xlsx
+++ b/_ConfigExcels/Datas/weapon.xlsx
@@ -1076,7 +1076,7 @@
         <v>43</v>
       </c>
       <c r="P5" s="2">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="Q5" s="2">
         <v>2001</v>

--- a/_ConfigExcels/Datas/weapon.xlsx
+++ b/_ConfigExcels/Datas/weapon.xlsx
@@ -859,7 +859,7 @@
       <selection activeCell="Q12" sqref="Q12"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A18" sqref="A18"/>
-      <selection pane="bottomRight" activeCell="P6" sqref="P6"/>
+      <selection pane="bottomRight" activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1076,7 +1076,7 @@
         <v>43</v>
       </c>
       <c r="P5" s="2">
-        <v>800</v>
+        <v>201</v>
       </c>
       <c r="Q5" s="2">
         <v>2001</v>

--- a/_ConfigExcels/Datas/weapon.xlsx
+++ b/_ConfigExcels/Datas/weapon.xlsx
@@ -855,11 +855,11 @@
   <dimension ref="A1:U26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="O5" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="O8" activePane="bottomRight" state="frozenSplit"/>
       <selection activeCell="Q12" sqref="Q12"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A18" sqref="A18"/>
-      <selection pane="bottomRight" activeCell="R6" sqref="R6"/>
+      <selection pane="bottomRight" activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1245,13 +1245,13 @@
       </c>
       <c r="O8" s="6"/>
       <c r="P8" s="2">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="Q8" s="2">
         <v>2004</v>
       </c>
       <c r="R8" s="2">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="S8" s="2">
         <v>1</v>

--- a/_ConfigExcels/Datas/weapon.xlsx
+++ b/_ConfigExcels/Datas/weapon.xlsx
@@ -855,11 +855,11 @@
   <dimension ref="A1:U26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="O8" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="O5" activePane="bottomRight" state="frozenSplit"/>
       <selection activeCell="Q12" sqref="Q12"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A18" sqref="A18"/>
-      <selection pane="bottomRight" activeCell="R9" sqref="R9"/>
+      <selection pane="bottomRight" activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1076,7 +1076,7 @@
         <v>43</v>
       </c>
       <c r="P5" s="2">
-        <v>201</v>
+        <v>100</v>
       </c>
       <c r="Q5" s="2">
         <v>2001</v>
@@ -1245,7 +1245,7 @@
       </c>
       <c r="O8" s="6"/>
       <c r="P8" s="2">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="Q8" s="2">
         <v>2004</v>

--- a/_ConfigExcels/Datas/weapon.xlsx
+++ b/_ConfigExcels/Datas/weapon.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="97">
   <si>
     <t>##var</t>
   </si>
@@ -377,6 +377,10 @@
   </si>
   <si>
     <t>会打每一个喝蜜雪冰城的人</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以作为星链计划的子弹</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -855,11 +859,11 @@
   <dimension ref="A1:U26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="O5" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="N5" activePane="bottomRight" state="frozenSplit"/>
       <selection activeCell="Q12" sqref="Q12"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A18" sqref="A18"/>
-      <selection pane="bottomRight" activeCell="P13" sqref="P13"/>
+      <selection pane="bottomRight" activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1076,7 +1080,7 @@
         <v>43</v>
       </c>
       <c r="P5" s="2">
-        <v>100</v>
+        <v>900</v>
       </c>
       <c r="Q5" s="2">
         <v>2001</v>
@@ -1495,12 +1499,6 @@
       <c r="C13" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="D13" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>95</v>
-      </c>
       <c r="F13" s="6" t="s">
         <v>46</v>
       </c>
@@ -1527,7 +1525,7 @@
       </c>
       <c r="N13" s="6"/>
       <c r="P13" s="2">
-        <v>100</v>
+        <v>900</v>
       </c>
       <c r="Q13" s="2">
         <v>2009</v>
@@ -1755,9 +1753,15 @@
       <c r="A20" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
+      <c r="C20" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>96</v>
+      </c>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>

--- a/_ConfigExcels/Datas/weapon.xlsx
+++ b/_ConfigExcels/Datas/weapon.xlsx
@@ -1080,7 +1080,7 @@
         <v>43</v>
       </c>
       <c r="P5" s="2">
-        <v>900</v>
+        <v>100</v>
       </c>
       <c r="Q5" s="2">
         <v>2001</v>

--- a/_ConfigExcels/Datas/weapon.xlsx
+++ b/_ConfigExcels/Datas/weapon.xlsx
@@ -859,11 +859,11 @@
   <dimension ref="A1:U26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="N5" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="O5" activePane="bottomRight" state="frozenSplit"/>
       <selection activeCell="Q12" sqref="Q12"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A18" sqref="A18"/>
-      <selection pane="bottomRight" activeCell="P6" sqref="P6"/>
+      <selection pane="bottomRight" activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1080,7 +1080,7 @@
         <v>43</v>
       </c>
       <c r="P5" s="2">
-        <v>100</v>
+        <v>1100</v>
       </c>
       <c r="Q5" s="2">
         <v>2001</v>
@@ -1581,7 +1581,7 @@
         <v>71</v>
       </c>
       <c r="P14" s="2">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="Q14" s="2">
         <v>2010</v>
@@ -1639,7 +1639,7 @@
       </c>
       <c r="N15" s="6"/>
       <c r="P15" s="2">
-        <v>100</v>
+        <v>1100</v>
       </c>
       <c r="Q15" s="2">
         <v>2011</v>

--- a/_ConfigExcels/Datas/weapon.xlsx
+++ b/_ConfigExcels/Datas/weapon.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="99">
   <si>
     <t>##var</t>
   </si>
@@ -381,6 +381,14 @@
   </si>
   <si>
     <t>可以作为星链计划的子弹</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑洞</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>碰到敌人以后触发一个黑洞</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -859,11 +867,11 @@
   <dimension ref="A1:U26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="O5" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="N5" activePane="bottomRight" state="frozenSplit"/>
       <selection activeCell="Q12" sqref="Q12"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A18" sqref="A18"/>
-      <selection pane="bottomRight" activeCell="P7" sqref="P7"/>
+      <selection pane="bottomRight" activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1080,7 +1088,7 @@
         <v>43</v>
       </c>
       <c r="P5" s="2">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="Q5" s="2">
         <v>2001</v>
@@ -1665,8 +1673,12 @@
       <c r="C16" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
+      <c r="D16" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>98</v>
+      </c>
       <c r="F16" s="6" t="s">
         <v>46</v>
       </c>
@@ -1695,7 +1707,7 @@
         <v>76</v>
       </c>
       <c r="P16" s="2">
-        <v>100</v>
+        <v>1200</v>
       </c>
       <c r="Q16" s="2">
         <v>2012</v>

--- a/_ConfigExcels/Datas/weapon.xlsx
+++ b/_ConfigExcels/Datas/weapon.xlsx
@@ -1088,7 +1088,7 @@
         <v>43</v>
       </c>
       <c r="P5" s="2">
-        <v>1200</v>
+        <v>100</v>
       </c>
       <c r="Q5" s="2">
         <v>2001</v>
